--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="300" windowWidth="13935" windowHeight="8370" tabRatio="824" activeTab="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>Nom complet exigences</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1728,11 +1731,32 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1768,26 +1792,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1881,13 +1885,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1898,6 +1899,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2403,7 +2407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2551,11 +2554,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78133888"/>
-        <c:axId val="131572096"/>
+        <c:axId val="114547328"/>
+        <c:axId val="114921856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78133888"/>
+        <c:axId val="114547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,14 +2566,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131572096"/>
+        <c:crossAx val="114921856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131572096"/>
+        <c:axId val="114921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,21 +2587,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78133888"/>
+        <c:crossAx val="114547328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2630,7 +2632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2733,11 +2734,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="171072896"/>
-        <c:axId val="254118528"/>
+        <c:axId val="115099520"/>
+        <c:axId val="115101056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171072896"/>
+        <c:axId val="115099520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,14 +2755,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254118528"/>
+        <c:crossAx val="115101056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254118528"/>
+        <c:axId val="115101056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2771,21 +2772,20 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171072896"/>
+        <c:crossAx val="115099520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3120,11 +3120,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="257829888"/>
-        <c:axId val="266638080"/>
+        <c:axId val="117627904"/>
+        <c:axId val="117633792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="257829888"/>
+        <c:axId val="117627904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,14 +3132,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266638080"/>
+        <c:crossAx val="117633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266638080"/>
+        <c:axId val="117633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3153,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="257829888"/>
+        <c:crossAx val="117627904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,7 +3166,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000081" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000081" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000822" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000822" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3470,11 +3470,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85825408"/>
-        <c:axId val="85826944"/>
+        <c:axId val="115398144"/>
+        <c:axId val="115399680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85825408"/>
+        <c:axId val="115398144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,14 +3482,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85826944"/>
+        <c:crossAx val="115399680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85826944"/>
+        <c:axId val="115399680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3503,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85825408"/>
+        <c:crossAx val="115398144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,7 +3516,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000833" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000833" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000844" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000844" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3914,11 +3914,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="149266432"/>
-        <c:axId val="149267968"/>
+        <c:axId val="117775744"/>
+        <c:axId val="117806208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149266432"/>
+        <c:axId val="117775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,14 +3926,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149267968"/>
+        <c:crossAx val="117806208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149267968"/>
+        <c:axId val="117806208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +3947,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="149266432"/>
+        <c:crossAx val="117775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3960,7 +3960,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000855" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000855" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000866" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000866" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4358,11 +4358,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="149457152"/>
-        <c:axId val="149463040"/>
+        <c:axId val="117864320"/>
+        <c:axId val="117865856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149457152"/>
+        <c:axId val="117864320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,14 +4370,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149463040"/>
+        <c:crossAx val="117865856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149463040"/>
+        <c:axId val="117865856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4391,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="149457152"/>
+        <c:crossAx val="117864320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,7 +4404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000877" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000877" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000888" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000888" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4987,17 +4987,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="156" t="s">
+      <c r="E3" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5006,15 +5006,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5023,15 +5023,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5106,55 +5106,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="159"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="165"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="162"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="168"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="165"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="171"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5176,341 +5176,341 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166" t="s">
+      <c r="C14" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166" t="s">
+      <c r="I14" s="172"/>
+      <c r="J14" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="168">
+      <c r="C15" s="156">
         <v>41723</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="167" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167" t="s">
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="167"/>
-      <c r="J15" s="170" t="s">
+      <c r="I15" s="155"/>
+      <c r="J15" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="5"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="5"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="5"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="5"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="5"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="5"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="5"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="5"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="5"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="5"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
@@ -5534,36 +5534,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
@@ -5580,38 +5582,36 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="52" priority="1">
@@ -6241,11 +6241,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="198" t="str">
+      <c r="B3" s="199" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°5</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -6546,8 +6546,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -14671,770 +14671,770 @@
       <c r="B3" s="208"/>
       <c r="C3" s="208"/>
       <c r="D3" s="208"/>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="205"/>
-      <c r="AE3" s="205"/>
-      <c r="AF3" s="205"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="210"/>
-      <c r="AJ3" s="210"/>
-      <c r="AK3" s="210"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="210"/>
-      <c r="AN3" s="204" t="s">
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="211"/>
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="211"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="211"/>
+      <c r="AN3" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="204"/>
-      <c r="AP3" s="204"/>
-      <c r="AQ3" s="204"/>
-      <c r="AR3" s="204"/>
-      <c r="AS3" s="204"/>
-      <c r="AT3" s="204"/>
-      <c r="AU3" s="204"/>
-      <c r="AV3" s="204"/>
-      <c r="AW3" s="204"/>
-      <c r="AX3" s="204"/>
-      <c r="AY3" s="204"/>
-      <c r="AZ3" s="204"/>
-      <c r="BA3" s="204"/>
-      <c r="BB3" s="204"/>
-      <c r="BC3" s="204"/>
-      <c r="BD3" s="204"/>
-      <c r="BE3" s="204"/>
-      <c r="BF3" s="204"/>
-      <c r="BG3" s="204"/>
-      <c r="BH3" s="205" t="s">
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="210"/>
+      <c r="AQ3" s="210"/>
+      <c r="AR3" s="210"/>
+      <c r="AS3" s="210"/>
+      <c r="AT3" s="210"/>
+      <c r="AU3" s="210"/>
+      <c r="AV3" s="210"/>
+      <c r="AW3" s="210"/>
+      <c r="AX3" s="210"/>
+      <c r="AY3" s="210"/>
+      <c r="AZ3" s="210"/>
+      <c r="BA3" s="210"/>
+      <c r="BB3" s="210"/>
+      <c r="BC3" s="210"/>
+      <c r="BD3" s="210"/>
+      <c r="BE3" s="210"/>
+      <c r="BF3" s="210"/>
+      <c r="BG3" s="210"/>
+      <c r="BH3" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="BI3" s="205"/>
-      <c r="BJ3" s="205"/>
-      <c r="BK3" s="205"/>
-      <c r="BL3" s="205"/>
-      <c r="BM3" s="205"/>
-      <c r="BN3" s="205"/>
-      <c r="BO3" s="205"/>
-      <c r="BP3" s="205"/>
-      <c r="BQ3" s="205"/>
-      <c r="BR3" s="205"/>
-      <c r="BS3" s="205"/>
-      <c r="BT3" s="205"/>
-      <c r="BU3" s="205"/>
-      <c r="BV3" s="205"/>
-      <c r="BW3" s="205"/>
-      <c r="BX3" s="205"/>
-      <c r="BY3" s="205"/>
-      <c r="BZ3" s="205"/>
-      <c r="CA3" s="205"/>
-      <c r="CB3" s="204" t="s">
+      <c r="BI3" s="206"/>
+      <c r="BJ3" s="206"/>
+      <c r="BK3" s="206"/>
+      <c r="BL3" s="206"/>
+      <c r="BM3" s="206"/>
+      <c r="BN3" s="206"/>
+      <c r="BO3" s="206"/>
+      <c r="BP3" s="206"/>
+      <c r="BQ3" s="206"/>
+      <c r="BR3" s="206"/>
+      <c r="BS3" s="206"/>
+      <c r="BT3" s="206"/>
+      <c r="BU3" s="206"/>
+      <c r="BV3" s="206"/>
+      <c r="BW3" s="206"/>
+      <c r="BX3" s="206"/>
+      <c r="BY3" s="206"/>
+      <c r="BZ3" s="206"/>
+      <c r="CA3" s="206"/>
+      <c r="CB3" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="CC3" s="204"/>
-      <c r="CD3" s="204"/>
-      <c r="CE3" s="204"/>
-      <c r="CF3" s="204"/>
-      <c r="CG3" s="204"/>
-      <c r="CH3" s="204"/>
-      <c r="CI3" s="204"/>
-      <c r="CJ3" s="204"/>
-      <c r="CK3" s="204"/>
-      <c r="CL3" s="204"/>
-      <c r="CM3" s="204"/>
-      <c r="CN3" s="204"/>
-      <c r="CO3" s="204"/>
-      <c r="CP3" s="204"/>
-      <c r="CQ3" s="204"/>
-      <c r="CR3" s="204"/>
-      <c r="CS3" s="204"/>
-      <c r="CT3" s="204"/>
-      <c r="CU3" s="204"/>
-      <c r="CV3" s="204"/>
-      <c r="CW3" s="204"/>
-      <c r="CX3" s="204"/>
-      <c r="CY3" s="204"/>
-      <c r="CZ3" s="204"/>
-      <c r="DA3" s="205" t="s">
+      <c r="CC3" s="210"/>
+      <c r="CD3" s="210"/>
+      <c r="CE3" s="210"/>
+      <c r="CF3" s="210"/>
+      <c r="CG3" s="210"/>
+      <c r="CH3" s="210"/>
+      <c r="CI3" s="210"/>
+      <c r="CJ3" s="210"/>
+      <c r="CK3" s="210"/>
+      <c r="CL3" s="210"/>
+      <c r="CM3" s="210"/>
+      <c r="CN3" s="210"/>
+      <c r="CO3" s="210"/>
+      <c r="CP3" s="210"/>
+      <c r="CQ3" s="210"/>
+      <c r="CR3" s="210"/>
+      <c r="CS3" s="210"/>
+      <c r="CT3" s="210"/>
+      <c r="CU3" s="210"/>
+      <c r="CV3" s="210"/>
+      <c r="CW3" s="210"/>
+      <c r="CX3" s="210"/>
+      <c r="CY3" s="210"/>
+      <c r="CZ3" s="210"/>
+      <c r="DA3" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="DB3" s="205"/>
-      <c r="DC3" s="205"/>
-      <c r="DD3" s="205"/>
-      <c r="DE3" s="205"/>
-      <c r="DF3" s="205"/>
-      <c r="DG3" s="205"/>
-      <c r="DH3" s="205"/>
-      <c r="DI3" s="205"/>
-      <c r="DJ3" s="205"/>
-      <c r="DK3" s="205"/>
-      <c r="DL3" s="205"/>
-      <c r="DM3" s="205"/>
-      <c r="DN3" s="205"/>
-      <c r="DO3" s="205"/>
-      <c r="DP3" s="205"/>
-      <c r="DQ3" s="205"/>
-      <c r="DR3" s="205"/>
-      <c r="DS3" s="205"/>
-      <c r="DT3" s="205"/>
-      <c r="DU3" s="205"/>
-      <c r="DV3" s="205"/>
-      <c r="DW3" s="205"/>
-      <c r="DX3" s="205"/>
-      <c r="DY3" s="205"/>
-      <c r="DZ3" s="204" t="s">
+      <c r="DB3" s="206"/>
+      <c r="DC3" s="206"/>
+      <c r="DD3" s="206"/>
+      <c r="DE3" s="206"/>
+      <c r="DF3" s="206"/>
+      <c r="DG3" s="206"/>
+      <c r="DH3" s="206"/>
+      <c r="DI3" s="206"/>
+      <c r="DJ3" s="206"/>
+      <c r="DK3" s="206"/>
+      <c r="DL3" s="206"/>
+      <c r="DM3" s="206"/>
+      <c r="DN3" s="206"/>
+      <c r="DO3" s="206"/>
+      <c r="DP3" s="206"/>
+      <c r="DQ3" s="206"/>
+      <c r="DR3" s="206"/>
+      <c r="DS3" s="206"/>
+      <c r="DT3" s="206"/>
+      <c r="DU3" s="206"/>
+      <c r="DV3" s="206"/>
+      <c r="DW3" s="206"/>
+      <c r="DX3" s="206"/>
+      <c r="DY3" s="206"/>
+      <c r="DZ3" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="EA3" s="204"/>
-      <c r="EB3" s="204"/>
-      <c r="EC3" s="204"/>
-      <c r="ED3" s="204"/>
-      <c r="EE3" s="204"/>
-      <c r="EF3" s="204"/>
-      <c r="EG3" s="204"/>
-      <c r="EH3" s="204"/>
-      <c r="EI3" s="204"/>
-      <c r="EJ3" s="204"/>
-      <c r="EK3" s="204"/>
-      <c r="EL3" s="204"/>
-      <c r="EM3" s="204"/>
-      <c r="EN3" s="204"/>
-      <c r="EO3" s="204"/>
-      <c r="EP3" s="204"/>
-      <c r="EQ3" s="204"/>
-      <c r="ER3" s="204"/>
-      <c r="ES3" s="204"/>
-      <c r="ET3" s="204"/>
-      <c r="EU3" s="204"/>
-      <c r="EV3" s="204"/>
-      <c r="EW3" s="204"/>
-      <c r="EX3" s="204"/>
-      <c r="EY3" s="205" t="s">
+      <c r="EA3" s="210"/>
+      <c r="EB3" s="210"/>
+      <c r="EC3" s="210"/>
+      <c r="ED3" s="210"/>
+      <c r="EE3" s="210"/>
+      <c r="EF3" s="210"/>
+      <c r="EG3" s="210"/>
+      <c r="EH3" s="210"/>
+      <c r="EI3" s="210"/>
+      <c r="EJ3" s="210"/>
+      <c r="EK3" s="210"/>
+      <c r="EL3" s="210"/>
+      <c r="EM3" s="210"/>
+      <c r="EN3" s="210"/>
+      <c r="EO3" s="210"/>
+      <c r="EP3" s="210"/>
+      <c r="EQ3" s="210"/>
+      <c r="ER3" s="210"/>
+      <c r="ES3" s="210"/>
+      <c r="ET3" s="210"/>
+      <c r="EU3" s="210"/>
+      <c r="EV3" s="210"/>
+      <c r="EW3" s="210"/>
+      <c r="EX3" s="210"/>
+      <c r="EY3" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="EZ3" s="205"/>
-      <c r="FA3" s="205"/>
-      <c r="FB3" s="205"/>
-      <c r="FC3" s="205"/>
-      <c r="FD3" s="205"/>
-      <c r="FE3" s="205"/>
-      <c r="FF3" s="205"/>
-      <c r="FG3" s="205"/>
-      <c r="FH3" s="205"/>
-      <c r="FI3" s="205"/>
-      <c r="FJ3" s="205"/>
-      <c r="FK3" s="205"/>
-      <c r="FL3" s="205"/>
-      <c r="FM3" s="205"/>
-      <c r="FN3" s="205"/>
-      <c r="FO3" s="205"/>
-      <c r="FP3" s="205"/>
-      <c r="FQ3" s="205"/>
-      <c r="FR3" s="205"/>
-      <c r="FS3" s="205"/>
-      <c r="FT3" s="205"/>
-      <c r="FU3" s="205"/>
-      <c r="FV3" s="205"/>
-      <c r="FW3" s="205"/>
-      <c r="FX3" s="204" t="s">
+      <c r="EZ3" s="206"/>
+      <c r="FA3" s="206"/>
+      <c r="FB3" s="206"/>
+      <c r="FC3" s="206"/>
+      <c r="FD3" s="206"/>
+      <c r="FE3" s="206"/>
+      <c r="FF3" s="206"/>
+      <c r="FG3" s="206"/>
+      <c r="FH3" s="206"/>
+      <c r="FI3" s="206"/>
+      <c r="FJ3" s="206"/>
+      <c r="FK3" s="206"/>
+      <c r="FL3" s="206"/>
+      <c r="FM3" s="206"/>
+      <c r="FN3" s="206"/>
+      <c r="FO3" s="206"/>
+      <c r="FP3" s="206"/>
+      <c r="FQ3" s="206"/>
+      <c r="FR3" s="206"/>
+      <c r="FS3" s="206"/>
+      <c r="FT3" s="206"/>
+      <c r="FU3" s="206"/>
+      <c r="FV3" s="206"/>
+      <c r="FW3" s="206"/>
+      <c r="FX3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="FY3" s="204"/>
-      <c r="FZ3" s="204"/>
-      <c r="GA3" s="204"/>
-      <c r="GB3" s="204"/>
-      <c r="GC3" s="204"/>
-      <c r="GD3" s="204"/>
-      <c r="GE3" s="204"/>
-      <c r="GF3" s="204"/>
-      <c r="GG3" s="204"/>
-      <c r="GH3" s="204"/>
-      <c r="GI3" s="204"/>
-      <c r="GJ3" s="204"/>
-      <c r="GK3" s="204"/>
-      <c r="GL3" s="204"/>
-      <c r="GM3" s="204"/>
-      <c r="GN3" s="204"/>
-      <c r="GO3" s="204"/>
-      <c r="GP3" s="204"/>
-      <c r="GQ3" s="204"/>
-      <c r="GR3" s="204"/>
-      <c r="GS3" s="204"/>
-      <c r="GT3" s="204"/>
-      <c r="GU3" s="204"/>
-      <c r="GV3" s="204"/>
-      <c r="GW3" s="205" t="s">
+      <c r="FY3" s="210"/>
+      <c r="FZ3" s="210"/>
+      <c r="GA3" s="210"/>
+      <c r="GB3" s="210"/>
+      <c r="GC3" s="210"/>
+      <c r="GD3" s="210"/>
+      <c r="GE3" s="210"/>
+      <c r="GF3" s="210"/>
+      <c r="GG3" s="210"/>
+      <c r="GH3" s="210"/>
+      <c r="GI3" s="210"/>
+      <c r="GJ3" s="210"/>
+      <c r="GK3" s="210"/>
+      <c r="GL3" s="210"/>
+      <c r="GM3" s="210"/>
+      <c r="GN3" s="210"/>
+      <c r="GO3" s="210"/>
+      <c r="GP3" s="210"/>
+      <c r="GQ3" s="210"/>
+      <c r="GR3" s="210"/>
+      <c r="GS3" s="210"/>
+      <c r="GT3" s="210"/>
+      <c r="GU3" s="210"/>
+      <c r="GV3" s="210"/>
+      <c r="GW3" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="GX3" s="205"/>
-      <c r="GY3" s="205"/>
-      <c r="GZ3" s="205"/>
-      <c r="HA3" s="205"/>
-      <c r="HB3" s="205"/>
-      <c r="HC3" s="205"/>
-      <c r="HD3" s="205"/>
-      <c r="HE3" s="205"/>
-      <c r="HF3" s="205"/>
-      <c r="HG3" s="205"/>
-      <c r="HH3" s="205"/>
-      <c r="HI3" s="205"/>
-      <c r="HJ3" s="205"/>
-      <c r="HK3" s="205"/>
-      <c r="HL3" s="205"/>
-      <c r="HM3" s="205"/>
-      <c r="HN3" s="205"/>
-      <c r="HO3" s="205"/>
-      <c r="HP3" s="205"/>
-      <c r="HQ3" s="205"/>
-      <c r="HR3" s="205"/>
-      <c r="HS3" s="205"/>
-      <c r="HT3" s="205"/>
-      <c r="HU3" s="205"/>
-      <c r="HV3" s="204" t="s">
+      <c r="GX3" s="206"/>
+      <c r="GY3" s="206"/>
+      <c r="GZ3" s="206"/>
+      <c r="HA3" s="206"/>
+      <c r="HB3" s="206"/>
+      <c r="HC3" s="206"/>
+      <c r="HD3" s="206"/>
+      <c r="HE3" s="206"/>
+      <c r="HF3" s="206"/>
+      <c r="HG3" s="206"/>
+      <c r="HH3" s="206"/>
+      <c r="HI3" s="206"/>
+      <c r="HJ3" s="206"/>
+      <c r="HK3" s="206"/>
+      <c r="HL3" s="206"/>
+      <c r="HM3" s="206"/>
+      <c r="HN3" s="206"/>
+      <c r="HO3" s="206"/>
+      <c r="HP3" s="206"/>
+      <c r="HQ3" s="206"/>
+      <c r="HR3" s="206"/>
+      <c r="HS3" s="206"/>
+      <c r="HT3" s="206"/>
+      <c r="HU3" s="206"/>
+      <c r="HV3" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="HW3" s="204"/>
-      <c r="HX3" s="204"/>
-      <c r="HY3" s="204"/>
-      <c r="HZ3" s="204"/>
-      <c r="IA3" s="204"/>
-      <c r="IB3" s="204"/>
-      <c r="IC3" s="204"/>
-      <c r="ID3" s="204"/>
-      <c r="IE3" s="204"/>
-      <c r="IF3" s="204"/>
-      <c r="IG3" s="204"/>
-      <c r="IH3" s="204"/>
-      <c r="II3" s="204"/>
-      <c r="IJ3" s="204"/>
-      <c r="IK3" s="204"/>
-      <c r="IL3" s="204"/>
-      <c r="IM3" s="204"/>
-      <c r="IN3" s="204"/>
-      <c r="IO3" s="204"/>
-      <c r="IP3" s="204"/>
-      <c r="IQ3" s="204"/>
-      <c r="IR3" s="204"/>
-      <c r="IS3" s="204"/>
-      <c r="IT3" s="204"/>
-      <c r="IU3" s="211"/>
-      <c r="IV3" s="211"/>
-      <c r="IW3" s="211"/>
-      <c r="IX3" s="211"/>
-      <c r="IY3" s="211"/>
-      <c r="IZ3" s="211"/>
-      <c r="JA3" s="211"/>
-      <c r="JB3" s="211"/>
-      <c r="JC3" s="211"/>
-      <c r="JD3" s="211"/>
-      <c r="JE3" s="205" t="s">
+      <c r="HW3" s="210"/>
+      <c r="HX3" s="210"/>
+      <c r="HY3" s="210"/>
+      <c r="HZ3" s="210"/>
+      <c r="IA3" s="210"/>
+      <c r="IB3" s="210"/>
+      <c r="IC3" s="210"/>
+      <c r="ID3" s="210"/>
+      <c r="IE3" s="210"/>
+      <c r="IF3" s="210"/>
+      <c r="IG3" s="210"/>
+      <c r="IH3" s="210"/>
+      <c r="II3" s="210"/>
+      <c r="IJ3" s="210"/>
+      <c r="IK3" s="210"/>
+      <c r="IL3" s="210"/>
+      <c r="IM3" s="210"/>
+      <c r="IN3" s="210"/>
+      <c r="IO3" s="210"/>
+      <c r="IP3" s="210"/>
+      <c r="IQ3" s="210"/>
+      <c r="IR3" s="210"/>
+      <c r="IS3" s="210"/>
+      <c r="IT3" s="210"/>
+      <c r="IU3" s="212"/>
+      <c r="IV3" s="212"/>
+      <c r="IW3" s="212"/>
+      <c r="IX3" s="212"/>
+      <c r="IY3" s="212"/>
+      <c r="IZ3" s="212"/>
+      <c r="JA3" s="212"/>
+      <c r="JB3" s="212"/>
+      <c r="JC3" s="212"/>
+      <c r="JD3" s="212"/>
+      <c r="JE3" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="JF3" s="205"/>
-      <c r="JG3" s="205"/>
-      <c r="JH3" s="205"/>
-      <c r="JI3" s="205"/>
-      <c r="JJ3" s="205"/>
-      <c r="JK3" s="205"/>
-      <c r="JL3" s="205"/>
-      <c r="JM3" s="205"/>
-      <c r="JN3" s="205"/>
-      <c r="JO3" s="205"/>
-      <c r="JP3" s="205"/>
-      <c r="JQ3" s="205"/>
-      <c r="JR3" s="205"/>
-      <c r="JS3" s="205"/>
-      <c r="JT3" s="205"/>
-      <c r="JU3" s="205"/>
-      <c r="JV3" s="205"/>
-      <c r="JW3" s="205"/>
-      <c r="JX3" s="205"/>
-      <c r="JY3" s="205"/>
-      <c r="JZ3" s="205"/>
-      <c r="KA3" s="205"/>
-      <c r="KB3" s="205"/>
-      <c r="KC3" s="205"/>
-      <c r="KD3" s="205"/>
-      <c r="KE3" s="205"/>
-      <c r="KF3" s="205"/>
-      <c r="KG3" s="205"/>
-      <c r="KH3" s="205"/>
-      <c r="KI3" s="205"/>
-      <c r="KJ3" s="205"/>
-      <c r="KK3" s="205"/>
-      <c r="KL3" s="205"/>
-      <c r="KM3" s="205"/>
-      <c r="KN3" s="205"/>
-      <c r="KO3" s="205"/>
-      <c r="KP3" s="205"/>
-      <c r="KQ3" s="205"/>
-      <c r="KR3" s="205"/>
-      <c r="KS3" s="206" t="s">
+      <c r="JF3" s="206"/>
+      <c r="JG3" s="206"/>
+      <c r="JH3" s="206"/>
+      <c r="JI3" s="206"/>
+      <c r="JJ3" s="206"/>
+      <c r="JK3" s="206"/>
+      <c r="JL3" s="206"/>
+      <c r="JM3" s="206"/>
+      <c r="JN3" s="206"/>
+      <c r="JO3" s="206"/>
+      <c r="JP3" s="206"/>
+      <c r="JQ3" s="206"/>
+      <c r="JR3" s="206"/>
+      <c r="JS3" s="206"/>
+      <c r="JT3" s="206"/>
+      <c r="JU3" s="206"/>
+      <c r="JV3" s="206"/>
+      <c r="JW3" s="206"/>
+      <c r="JX3" s="206"/>
+      <c r="JY3" s="206"/>
+      <c r="JZ3" s="206"/>
+      <c r="KA3" s="206"/>
+      <c r="KB3" s="206"/>
+      <c r="KC3" s="206"/>
+      <c r="KD3" s="206"/>
+      <c r="KE3" s="206"/>
+      <c r="KF3" s="206"/>
+      <c r="KG3" s="206"/>
+      <c r="KH3" s="206"/>
+      <c r="KI3" s="206"/>
+      <c r="KJ3" s="206"/>
+      <c r="KK3" s="206"/>
+      <c r="KL3" s="206"/>
+      <c r="KM3" s="206"/>
+      <c r="KN3" s="206"/>
+      <c r="KO3" s="206"/>
+      <c r="KP3" s="206"/>
+      <c r="KQ3" s="206"/>
+      <c r="KR3" s="206"/>
+      <c r="KS3" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="KT3" s="206"/>
-      <c r="KU3" s="206"/>
-      <c r="KV3" s="206"/>
-      <c r="KW3" s="206"/>
-      <c r="KX3" s="206"/>
-      <c r="KY3" s="206"/>
-      <c r="KZ3" s="206"/>
-      <c r="LA3" s="206"/>
-      <c r="LB3" s="206"/>
-      <c r="LC3" s="206"/>
-      <c r="LD3" s="206"/>
-      <c r="LE3" s="206"/>
-      <c r="LF3" s="206"/>
-      <c r="LG3" s="206"/>
-      <c r="LH3" s="206"/>
-      <c r="LI3" s="206"/>
-      <c r="LJ3" s="206"/>
-      <c r="LK3" s="206"/>
-      <c r="LL3" s="206"/>
-      <c r="LM3" s="206" t="s">
+      <c r="KT3" s="205"/>
+      <c r="KU3" s="205"/>
+      <c r="KV3" s="205"/>
+      <c r="KW3" s="205"/>
+      <c r="KX3" s="205"/>
+      <c r="KY3" s="205"/>
+      <c r="KZ3" s="205"/>
+      <c r="LA3" s="205"/>
+      <c r="LB3" s="205"/>
+      <c r="LC3" s="205"/>
+      <c r="LD3" s="205"/>
+      <c r="LE3" s="205"/>
+      <c r="LF3" s="205"/>
+      <c r="LG3" s="205"/>
+      <c r="LH3" s="205"/>
+      <c r="LI3" s="205"/>
+      <c r="LJ3" s="205"/>
+      <c r="LK3" s="205"/>
+      <c r="LL3" s="205"/>
+      <c r="LM3" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="LN3" s="206"/>
-      <c r="LO3" s="206"/>
-      <c r="LP3" s="206"/>
-      <c r="LQ3" s="206"/>
-      <c r="LR3" s="206"/>
-      <c r="LS3" s="206"/>
-      <c r="LT3" s="206"/>
-      <c r="LU3" s="206"/>
-      <c r="LV3" s="206"/>
-      <c r="LW3" s="206"/>
-      <c r="LX3" s="206"/>
-      <c r="LY3" s="206"/>
-      <c r="LZ3" s="206"/>
-      <c r="MA3" s="206"/>
-      <c r="MB3" s="206"/>
-      <c r="MC3" s="206"/>
-      <c r="MD3" s="206"/>
-      <c r="ME3" s="206"/>
-      <c r="MF3" s="206"/>
-      <c r="MG3" s="206" t="s">
+      <c r="LN3" s="205"/>
+      <c r="LO3" s="205"/>
+      <c r="LP3" s="205"/>
+      <c r="LQ3" s="205"/>
+      <c r="LR3" s="205"/>
+      <c r="LS3" s="205"/>
+      <c r="LT3" s="205"/>
+      <c r="LU3" s="205"/>
+      <c r="LV3" s="205"/>
+      <c r="LW3" s="205"/>
+      <c r="LX3" s="205"/>
+      <c r="LY3" s="205"/>
+      <c r="LZ3" s="205"/>
+      <c r="MA3" s="205"/>
+      <c r="MB3" s="205"/>
+      <c r="MC3" s="205"/>
+      <c r="MD3" s="205"/>
+      <c r="ME3" s="205"/>
+      <c r="MF3" s="205"/>
+      <c r="MG3" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="MH3" s="206"/>
-      <c r="MI3" s="206"/>
-      <c r="MJ3" s="206"/>
-      <c r="MK3" s="206"/>
-      <c r="ML3" s="206"/>
-      <c r="MM3" s="206"/>
-      <c r="MN3" s="206"/>
-      <c r="MO3" s="206"/>
-      <c r="MP3" s="206"/>
-      <c r="MQ3" s="206"/>
-      <c r="MR3" s="206"/>
-      <c r="MS3" s="206"/>
-      <c r="MT3" s="206"/>
-      <c r="MU3" s="206"/>
-      <c r="MV3" s="206"/>
-      <c r="MW3" s="206"/>
-      <c r="MX3" s="206"/>
-      <c r="MY3" s="206"/>
-      <c r="MZ3" s="206"/>
-      <c r="NA3" s="206"/>
-      <c r="NB3" s="206"/>
-      <c r="NC3" s="206"/>
-      <c r="ND3" s="206"/>
-      <c r="NE3" s="206"/>
+      <c r="MH3" s="205"/>
+      <c r="MI3" s="205"/>
+      <c r="MJ3" s="205"/>
+      <c r="MK3" s="205"/>
+      <c r="ML3" s="205"/>
+      <c r="MM3" s="205"/>
+      <c r="MN3" s="205"/>
+      <c r="MO3" s="205"/>
+      <c r="MP3" s="205"/>
+      <c r="MQ3" s="205"/>
+      <c r="MR3" s="205"/>
+      <c r="MS3" s="205"/>
+      <c r="MT3" s="205"/>
+      <c r="MU3" s="205"/>
+      <c r="MV3" s="205"/>
+      <c r="MW3" s="205"/>
+      <c r="MX3" s="205"/>
+      <c r="MY3" s="205"/>
+      <c r="MZ3" s="205"/>
+      <c r="NA3" s="205"/>
+      <c r="NB3" s="205"/>
+      <c r="NC3" s="205"/>
+      <c r="ND3" s="205"/>
+      <c r="NE3" s="205"/>
     </row>
     <row r="4" spans="1:369" s="106" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="209"/>
       <c r="B4" s="209"/>
       <c r="C4" s="209"/>
       <c r="D4" s="209"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="205"/>
-      <c r="AI4" s="210"/>
-      <c r="AJ4" s="210"/>
-      <c r="AK4" s="210"/>
-      <c r="AL4" s="210"/>
-      <c r="AM4" s="210"/>
-      <c r="AN4" s="204"/>
-      <c r="AO4" s="204"/>
-      <c r="AP4" s="204"/>
-      <c r="AQ4" s="204"/>
-      <c r="AR4" s="204"/>
-      <c r="AS4" s="204"/>
-      <c r="AT4" s="204"/>
-      <c r="AU4" s="204"/>
-      <c r="AV4" s="204"/>
-      <c r="AW4" s="204"/>
-      <c r="AX4" s="204"/>
-      <c r="AY4" s="204"/>
-      <c r="AZ4" s="204"/>
-      <c r="BA4" s="204"/>
-      <c r="BB4" s="204"/>
-      <c r="BC4" s="204"/>
-      <c r="BD4" s="204"/>
-      <c r="BE4" s="204"/>
-      <c r="BF4" s="204"/>
-      <c r="BG4" s="204"/>
-      <c r="BH4" s="205"/>
-      <c r="BI4" s="205"/>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="205"/>
-      <c r="BO4" s="205"/>
-      <c r="BP4" s="205"/>
-      <c r="BQ4" s="205"/>
-      <c r="BR4" s="205"/>
-      <c r="BS4" s="205"/>
-      <c r="BT4" s="205"/>
-      <c r="BU4" s="205"/>
-      <c r="BV4" s="205"/>
-      <c r="BW4" s="205"/>
-      <c r="BX4" s="205"/>
-      <c r="BY4" s="205"/>
-      <c r="BZ4" s="205"/>
-      <c r="CA4" s="205"/>
-      <c r="CB4" s="204"/>
-      <c r="CC4" s="204"/>
-      <c r="CD4" s="204"/>
-      <c r="CE4" s="204"/>
-      <c r="CF4" s="204"/>
-      <c r="CG4" s="204"/>
-      <c r="CH4" s="204"/>
-      <c r="CI4" s="204"/>
-      <c r="CJ4" s="204"/>
-      <c r="CK4" s="204"/>
-      <c r="CL4" s="204"/>
-      <c r="CM4" s="204"/>
-      <c r="CN4" s="204"/>
-      <c r="CO4" s="204"/>
-      <c r="CP4" s="204"/>
-      <c r="CQ4" s="204"/>
-      <c r="CR4" s="204"/>
-      <c r="CS4" s="204"/>
-      <c r="CT4" s="204"/>
-      <c r="CU4" s="204"/>
-      <c r="CV4" s="204"/>
-      <c r="CW4" s="204"/>
-      <c r="CX4" s="204"/>
-      <c r="CY4" s="204"/>
-      <c r="CZ4" s="204"/>
-      <c r="DA4" s="205"/>
-      <c r="DB4" s="205"/>
-      <c r="DC4" s="205"/>
-      <c r="DD4" s="205"/>
-      <c r="DE4" s="205"/>
-      <c r="DF4" s="205"/>
-      <c r="DG4" s="205"/>
-      <c r="DH4" s="205"/>
-      <c r="DI4" s="205"/>
-      <c r="DJ4" s="205"/>
-      <c r="DK4" s="205"/>
-      <c r="DL4" s="205"/>
-      <c r="DM4" s="205"/>
-      <c r="DN4" s="205"/>
-      <c r="DO4" s="205"/>
-      <c r="DP4" s="205"/>
-      <c r="DQ4" s="205"/>
-      <c r="DR4" s="205"/>
-      <c r="DS4" s="205"/>
-      <c r="DT4" s="205"/>
-      <c r="DU4" s="205"/>
-      <c r="DV4" s="205"/>
-      <c r="DW4" s="205"/>
-      <c r="DX4" s="205"/>
-      <c r="DY4" s="205"/>
-      <c r="DZ4" s="204"/>
-      <c r="EA4" s="204"/>
-      <c r="EB4" s="204"/>
-      <c r="EC4" s="204"/>
-      <c r="ED4" s="204"/>
-      <c r="EE4" s="204"/>
-      <c r="EF4" s="204"/>
-      <c r="EG4" s="204"/>
-      <c r="EH4" s="204"/>
-      <c r="EI4" s="204"/>
-      <c r="EJ4" s="204"/>
-      <c r="EK4" s="204"/>
-      <c r="EL4" s="204"/>
-      <c r="EM4" s="204"/>
-      <c r="EN4" s="204"/>
-      <c r="EO4" s="204"/>
-      <c r="EP4" s="204"/>
-      <c r="EQ4" s="204"/>
-      <c r="ER4" s="204"/>
-      <c r="ES4" s="204"/>
-      <c r="ET4" s="204"/>
-      <c r="EU4" s="204"/>
-      <c r="EV4" s="204"/>
-      <c r="EW4" s="204"/>
-      <c r="EX4" s="204"/>
-      <c r="EY4" s="205"/>
-      <c r="EZ4" s="205"/>
-      <c r="FA4" s="205"/>
-      <c r="FB4" s="205"/>
-      <c r="FC4" s="205"/>
-      <c r="FD4" s="205"/>
-      <c r="FE4" s="205"/>
-      <c r="FF4" s="205"/>
-      <c r="FG4" s="205"/>
-      <c r="FH4" s="205"/>
-      <c r="FI4" s="205"/>
-      <c r="FJ4" s="205"/>
-      <c r="FK4" s="205"/>
-      <c r="FL4" s="205"/>
-      <c r="FM4" s="205"/>
-      <c r="FN4" s="205"/>
-      <c r="FO4" s="205"/>
-      <c r="FP4" s="205"/>
-      <c r="FQ4" s="205"/>
-      <c r="FR4" s="205"/>
-      <c r="FS4" s="205"/>
-      <c r="FT4" s="205"/>
-      <c r="FU4" s="205"/>
-      <c r="FV4" s="205"/>
-      <c r="FW4" s="205"/>
-      <c r="FX4" s="204"/>
-      <c r="FY4" s="204"/>
-      <c r="FZ4" s="204"/>
-      <c r="GA4" s="204"/>
-      <c r="GB4" s="204"/>
-      <c r="GC4" s="204"/>
-      <c r="GD4" s="204"/>
-      <c r="GE4" s="204"/>
-      <c r="GF4" s="204"/>
-      <c r="GG4" s="204"/>
-      <c r="GH4" s="204"/>
-      <c r="GI4" s="204"/>
-      <c r="GJ4" s="204"/>
-      <c r="GK4" s="204"/>
-      <c r="GL4" s="204"/>
-      <c r="GM4" s="204"/>
-      <c r="GN4" s="204"/>
-      <c r="GO4" s="204"/>
-      <c r="GP4" s="204"/>
-      <c r="GQ4" s="204"/>
-      <c r="GR4" s="204"/>
-      <c r="GS4" s="204"/>
-      <c r="GT4" s="204"/>
-      <c r="GU4" s="204"/>
-      <c r="GV4" s="204"/>
-      <c r="GW4" s="205"/>
-      <c r="GX4" s="205"/>
-      <c r="GY4" s="205"/>
-      <c r="GZ4" s="205"/>
-      <c r="HA4" s="205"/>
-      <c r="HB4" s="205"/>
-      <c r="HC4" s="205"/>
-      <c r="HD4" s="205"/>
-      <c r="HE4" s="205"/>
-      <c r="HF4" s="205"/>
-      <c r="HG4" s="205"/>
-      <c r="HH4" s="205"/>
-      <c r="HI4" s="205"/>
-      <c r="HJ4" s="205"/>
-      <c r="HK4" s="205"/>
-      <c r="HL4" s="205"/>
-      <c r="HM4" s="205"/>
-      <c r="HN4" s="205"/>
-      <c r="HO4" s="205"/>
-      <c r="HP4" s="205"/>
-      <c r="HQ4" s="205"/>
-      <c r="HR4" s="205"/>
-      <c r="HS4" s="205"/>
-      <c r="HT4" s="205"/>
-      <c r="HU4" s="205"/>
-      <c r="HV4" s="204"/>
-      <c r="HW4" s="204"/>
-      <c r="HX4" s="204"/>
-      <c r="HY4" s="204"/>
-      <c r="HZ4" s="204"/>
-      <c r="IA4" s="204"/>
-      <c r="IB4" s="204"/>
-      <c r="IC4" s="204"/>
-      <c r="ID4" s="204"/>
-      <c r="IE4" s="204"/>
-      <c r="IF4" s="204"/>
-      <c r="IG4" s="204"/>
-      <c r="IH4" s="204"/>
-      <c r="II4" s="204"/>
-      <c r="IJ4" s="204"/>
-      <c r="IK4" s="204"/>
-      <c r="IL4" s="204"/>
-      <c r="IM4" s="204"/>
-      <c r="IN4" s="204"/>
-      <c r="IO4" s="204"/>
-      <c r="IP4" s="204"/>
-      <c r="IQ4" s="204"/>
-      <c r="IR4" s="204"/>
-      <c r="IS4" s="204"/>
-      <c r="IT4" s="204"/>
-      <c r="IU4" s="211"/>
-      <c r="IV4" s="211"/>
-      <c r="IW4" s="211"/>
-      <c r="IX4" s="211"/>
-      <c r="IY4" s="211"/>
-      <c r="IZ4" s="211"/>
-      <c r="JA4" s="211"/>
-      <c r="JB4" s="211"/>
-      <c r="JC4" s="211"/>
-      <c r="JD4" s="211"/>
-      <c r="JE4" s="205"/>
-      <c r="JF4" s="205"/>
-      <c r="JG4" s="205"/>
-      <c r="JH4" s="205"/>
-      <c r="JI4" s="205"/>
-      <c r="JJ4" s="205"/>
-      <c r="JK4" s="205"/>
-      <c r="JL4" s="205"/>
-      <c r="JM4" s="205"/>
-      <c r="JN4" s="205"/>
-      <c r="JO4" s="205"/>
-      <c r="JP4" s="205"/>
-      <c r="JQ4" s="205"/>
-      <c r="JR4" s="205"/>
-      <c r="JS4" s="205"/>
-      <c r="JT4" s="205"/>
-      <c r="JU4" s="205"/>
-      <c r="JV4" s="205"/>
-      <c r="JW4" s="205"/>
-      <c r="JX4" s="205"/>
-      <c r="JY4" s="205"/>
-      <c r="JZ4" s="205"/>
-      <c r="KA4" s="205"/>
-      <c r="KB4" s="205"/>
-      <c r="KC4" s="205"/>
-      <c r="KD4" s="205"/>
-      <c r="KE4" s="205"/>
-      <c r="KF4" s="205"/>
-      <c r="KG4" s="205"/>
-      <c r="KH4" s="205"/>
-      <c r="KI4" s="205"/>
-      <c r="KJ4" s="205"/>
-      <c r="KK4" s="205"/>
-      <c r="KL4" s="205"/>
-      <c r="KM4" s="205"/>
-      <c r="KN4" s="205"/>
-      <c r="KO4" s="205"/>
-      <c r="KP4" s="205"/>
-      <c r="KQ4" s="205"/>
-      <c r="KR4" s="205"/>
-      <c r="KS4" s="206"/>
-      <c r="KT4" s="206"/>
-      <c r="KU4" s="206"/>
-      <c r="KV4" s="206"/>
-      <c r="KW4" s="206"/>
-      <c r="KX4" s="206"/>
-      <c r="KY4" s="206"/>
-      <c r="KZ4" s="206"/>
-      <c r="LA4" s="206"/>
-      <c r="LB4" s="206"/>
-      <c r="LC4" s="206"/>
-      <c r="LD4" s="206"/>
-      <c r="LE4" s="206"/>
-      <c r="LF4" s="206"/>
-      <c r="LG4" s="206"/>
-      <c r="LH4" s="206"/>
-      <c r="LI4" s="206"/>
-      <c r="LJ4" s="206"/>
-      <c r="LK4" s="206"/>
-      <c r="LL4" s="206"/>
-      <c r="LM4" s="206"/>
-      <c r="LN4" s="206"/>
-      <c r="LO4" s="206"/>
-      <c r="LP4" s="206"/>
-      <c r="LQ4" s="206"/>
-      <c r="LR4" s="206"/>
-      <c r="LS4" s="206"/>
-      <c r="LT4" s="206"/>
-      <c r="LU4" s="206"/>
-      <c r="LV4" s="206"/>
-      <c r="LW4" s="206"/>
-      <c r="LX4" s="206"/>
-      <c r="LY4" s="206"/>
-      <c r="LZ4" s="206"/>
-      <c r="MA4" s="206"/>
-      <c r="MB4" s="206"/>
-      <c r="MC4" s="206"/>
-      <c r="MD4" s="206"/>
-      <c r="ME4" s="206"/>
-      <c r="MF4" s="206"/>
-      <c r="MG4" s="206"/>
-      <c r="MH4" s="206"/>
-      <c r="MI4" s="206"/>
-      <c r="MJ4" s="206"/>
-      <c r="MK4" s="206"/>
-      <c r="ML4" s="206"/>
-      <c r="MM4" s="206"/>
-      <c r="MN4" s="206"/>
-      <c r="MO4" s="206"/>
-      <c r="MP4" s="206"/>
-      <c r="MQ4" s="206"/>
-      <c r="MR4" s="206"/>
-      <c r="MS4" s="206"/>
-      <c r="MT4" s="206"/>
-      <c r="MU4" s="206"/>
-      <c r="MV4" s="206"/>
-      <c r="MW4" s="206"/>
-      <c r="MX4" s="206"/>
-      <c r="MY4" s="206"/>
-      <c r="MZ4" s="206"/>
-      <c r="NA4" s="206"/>
-      <c r="NB4" s="206"/>
-      <c r="NC4" s="206"/>
-      <c r="ND4" s="206"/>
-      <c r="NE4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="206"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="206"/>
+      <c r="AB4" s="206"/>
+      <c r="AC4" s="206"/>
+      <c r="AD4" s="206"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="206"/>
+      <c r="AG4" s="206"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="211"/>
+      <c r="AJ4" s="211"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="210"/>
+      <c r="AO4" s="210"/>
+      <c r="AP4" s="210"/>
+      <c r="AQ4" s="210"/>
+      <c r="AR4" s="210"/>
+      <c r="AS4" s="210"/>
+      <c r="AT4" s="210"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
+      <c r="AX4" s="210"/>
+      <c r="AY4" s="210"/>
+      <c r="AZ4" s="210"/>
+      <c r="BA4" s="210"/>
+      <c r="BB4" s="210"/>
+      <c r="BC4" s="210"/>
+      <c r="BD4" s="210"/>
+      <c r="BE4" s="210"/>
+      <c r="BF4" s="210"/>
+      <c r="BG4" s="210"/>
+      <c r="BH4" s="206"/>
+      <c r="BI4" s="206"/>
+      <c r="BJ4" s="206"/>
+      <c r="BK4" s="206"/>
+      <c r="BL4" s="206"/>
+      <c r="BM4" s="206"/>
+      <c r="BN4" s="206"/>
+      <c r="BO4" s="206"/>
+      <c r="BP4" s="206"/>
+      <c r="BQ4" s="206"/>
+      <c r="BR4" s="206"/>
+      <c r="BS4" s="206"/>
+      <c r="BT4" s="206"/>
+      <c r="BU4" s="206"/>
+      <c r="BV4" s="206"/>
+      <c r="BW4" s="206"/>
+      <c r="BX4" s="206"/>
+      <c r="BY4" s="206"/>
+      <c r="BZ4" s="206"/>
+      <c r="CA4" s="206"/>
+      <c r="CB4" s="210"/>
+      <c r="CC4" s="210"/>
+      <c r="CD4" s="210"/>
+      <c r="CE4" s="210"/>
+      <c r="CF4" s="210"/>
+      <c r="CG4" s="210"/>
+      <c r="CH4" s="210"/>
+      <c r="CI4" s="210"/>
+      <c r="CJ4" s="210"/>
+      <c r="CK4" s="210"/>
+      <c r="CL4" s="210"/>
+      <c r="CM4" s="210"/>
+      <c r="CN4" s="210"/>
+      <c r="CO4" s="210"/>
+      <c r="CP4" s="210"/>
+      <c r="CQ4" s="210"/>
+      <c r="CR4" s="210"/>
+      <c r="CS4" s="210"/>
+      <c r="CT4" s="210"/>
+      <c r="CU4" s="210"/>
+      <c r="CV4" s="210"/>
+      <c r="CW4" s="210"/>
+      <c r="CX4" s="210"/>
+      <c r="CY4" s="210"/>
+      <c r="CZ4" s="210"/>
+      <c r="DA4" s="206"/>
+      <c r="DB4" s="206"/>
+      <c r="DC4" s="206"/>
+      <c r="DD4" s="206"/>
+      <c r="DE4" s="206"/>
+      <c r="DF4" s="206"/>
+      <c r="DG4" s="206"/>
+      <c r="DH4" s="206"/>
+      <c r="DI4" s="206"/>
+      <c r="DJ4" s="206"/>
+      <c r="DK4" s="206"/>
+      <c r="DL4" s="206"/>
+      <c r="DM4" s="206"/>
+      <c r="DN4" s="206"/>
+      <c r="DO4" s="206"/>
+      <c r="DP4" s="206"/>
+      <c r="DQ4" s="206"/>
+      <c r="DR4" s="206"/>
+      <c r="DS4" s="206"/>
+      <c r="DT4" s="206"/>
+      <c r="DU4" s="206"/>
+      <c r="DV4" s="206"/>
+      <c r="DW4" s="206"/>
+      <c r="DX4" s="206"/>
+      <c r="DY4" s="206"/>
+      <c r="DZ4" s="210"/>
+      <c r="EA4" s="210"/>
+      <c r="EB4" s="210"/>
+      <c r="EC4" s="210"/>
+      <c r="ED4" s="210"/>
+      <c r="EE4" s="210"/>
+      <c r="EF4" s="210"/>
+      <c r="EG4" s="210"/>
+      <c r="EH4" s="210"/>
+      <c r="EI4" s="210"/>
+      <c r="EJ4" s="210"/>
+      <c r="EK4" s="210"/>
+      <c r="EL4" s="210"/>
+      <c r="EM4" s="210"/>
+      <c r="EN4" s="210"/>
+      <c r="EO4" s="210"/>
+      <c r="EP4" s="210"/>
+      <c r="EQ4" s="210"/>
+      <c r="ER4" s="210"/>
+      <c r="ES4" s="210"/>
+      <c r="ET4" s="210"/>
+      <c r="EU4" s="210"/>
+      <c r="EV4" s="210"/>
+      <c r="EW4" s="210"/>
+      <c r="EX4" s="210"/>
+      <c r="EY4" s="206"/>
+      <c r="EZ4" s="206"/>
+      <c r="FA4" s="206"/>
+      <c r="FB4" s="206"/>
+      <c r="FC4" s="206"/>
+      <c r="FD4" s="206"/>
+      <c r="FE4" s="206"/>
+      <c r="FF4" s="206"/>
+      <c r="FG4" s="206"/>
+      <c r="FH4" s="206"/>
+      <c r="FI4" s="206"/>
+      <c r="FJ4" s="206"/>
+      <c r="FK4" s="206"/>
+      <c r="FL4" s="206"/>
+      <c r="FM4" s="206"/>
+      <c r="FN4" s="206"/>
+      <c r="FO4" s="206"/>
+      <c r="FP4" s="206"/>
+      <c r="FQ4" s="206"/>
+      <c r="FR4" s="206"/>
+      <c r="FS4" s="206"/>
+      <c r="FT4" s="206"/>
+      <c r="FU4" s="206"/>
+      <c r="FV4" s="206"/>
+      <c r="FW4" s="206"/>
+      <c r="FX4" s="210"/>
+      <c r="FY4" s="210"/>
+      <c r="FZ4" s="210"/>
+      <c r="GA4" s="210"/>
+      <c r="GB4" s="210"/>
+      <c r="GC4" s="210"/>
+      <c r="GD4" s="210"/>
+      <c r="GE4" s="210"/>
+      <c r="GF4" s="210"/>
+      <c r="GG4" s="210"/>
+      <c r="GH4" s="210"/>
+      <c r="GI4" s="210"/>
+      <c r="GJ4" s="210"/>
+      <c r="GK4" s="210"/>
+      <c r="GL4" s="210"/>
+      <c r="GM4" s="210"/>
+      <c r="GN4" s="210"/>
+      <c r="GO4" s="210"/>
+      <c r="GP4" s="210"/>
+      <c r="GQ4" s="210"/>
+      <c r="GR4" s="210"/>
+      <c r="GS4" s="210"/>
+      <c r="GT4" s="210"/>
+      <c r="GU4" s="210"/>
+      <c r="GV4" s="210"/>
+      <c r="GW4" s="206"/>
+      <c r="GX4" s="206"/>
+      <c r="GY4" s="206"/>
+      <c r="GZ4" s="206"/>
+      <c r="HA4" s="206"/>
+      <c r="HB4" s="206"/>
+      <c r="HC4" s="206"/>
+      <c r="HD4" s="206"/>
+      <c r="HE4" s="206"/>
+      <c r="HF4" s="206"/>
+      <c r="HG4" s="206"/>
+      <c r="HH4" s="206"/>
+      <c r="HI4" s="206"/>
+      <c r="HJ4" s="206"/>
+      <c r="HK4" s="206"/>
+      <c r="HL4" s="206"/>
+      <c r="HM4" s="206"/>
+      <c r="HN4" s="206"/>
+      <c r="HO4" s="206"/>
+      <c r="HP4" s="206"/>
+      <c r="HQ4" s="206"/>
+      <c r="HR4" s="206"/>
+      <c r="HS4" s="206"/>
+      <c r="HT4" s="206"/>
+      <c r="HU4" s="206"/>
+      <c r="HV4" s="210"/>
+      <c r="HW4" s="210"/>
+      <c r="HX4" s="210"/>
+      <c r="HY4" s="210"/>
+      <c r="HZ4" s="210"/>
+      <c r="IA4" s="210"/>
+      <c r="IB4" s="210"/>
+      <c r="IC4" s="210"/>
+      <c r="ID4" s="210"/>
+      <c r="IE4" s="210"/>
+      <c r="IF4" s="210"/>
+      <c r="IG4" s="210"/>
+      <c r="IH4" s="210"/>
+      <c r="II4" s="210"/>
+      <c r="IJ4" s="210"/>
+      <c r="IK4" s="210"/>
+      <c r="IL4" s="210"/>
+      <c r="IM4" s="210"/>
+      <c r="IN4" s="210"/>
+      <c r="IO4" s="210"/>
+      <c r="IP4" s="210"/>
+      <c r="IQ4" s="210"/>
+      <c r="IR4" s="210"/>
+      <c r="IS4" s="210"/>
+      <c r="IT4" s="210"/>
+      <c r="IU4" s="212"/>
+      <c r="IV4" s="212"/>
+      <c r="IW4" s="212"/>
+      <c r="IX4" s="212"/>
+      <c r="IY4" s="212"/>
+      <c r="IZ4" s="212"/>
+      <c r="JA4" s="212"/>
+      <c r="JB4" s="212"/>
+      <c r="JC4" s="212"/>
+      <c r="JD4" s="212"/>
+      <c r="JE4" s="206"/>
+      <c r="JF4" s="206"/>
+      <c r="JG4" s="206"/>
+      <c r="JH4" s="206"/>
+      <c r="JI4" s="206"/>
+      <c r="JJ4" s="206"/>
+      <c r="JK4" s="206"/>
+      <c r="JL4" s="206"/>
+      <c r="JM4" s="206"/>
+      <c r="JN4" s="206"/>
+      <c r="JO4" s="206"/>
+      <c r="JP4" s="206"/>
+      <c r="JQ4" s="206"/>
+      <c r="JR4" s="206"/>
+      <c r="JS4" s="206"/>
+      <c r="JT4" s="206"/>
+      <c r="JU4" s="206"/>
+      <c r="JV4" s="206"/>
+      <c r="JW4" s="206"/>
+      <c r="JX4" s="206"/>
+      <c r="JY4" s="206"/>
+      <c r="JZ4" s="206"/>
+      <c r="KA4" s="206"/>
+      <c r="KB4" s="206"/>
+      <c r="KC4" s="206"/>
+      <c r="KD4" s="206"/>
+      <c r="KE4" s="206"/>
+      <c r="KF4" s="206"/>
+      <c r="KG4" s="206"/>
+      <c r="KH4" s="206"/>
+      <c r="KI4" s="206"/>
+      <c r="KJ4" s="206"/>
+      <c r="KK4" s="206"/>
+      <c r="KL4" s="206"/>
+      <c r="KM4" s="206"/>
+      <c r="KN4" s="206"/>
+      <c r="KO4" s="206"/>
+      <c r="KP4" s="206"/>
+      <c r="KQ4" s="206"/>
+      <c r="KR4" s="206"/>
+      <c r="KS4" s="205"/>
+      <c r="KT4" s="205"/>
+      <c r="KU4" s="205"/>
+      <c r="KV4" s="205"/>
+      <c r="KW4" s="205"/>
+      <c r="KX4" s="205"/>
+      <c r="KY4" s="205"/>
+      <c r="KZ4" s="205"/>
+      <c r="LA4" s="205"/>
+      <c r="LB4" s="205"/>
+      <c r="LC4" s="205"/>
+      <c r="LD4" s="205"/>
+      <c r="LE4" s="205"/>
+      <c r="LF4" s="205"/>
+      <c r="LG4" s="205"/>
+      <c r="LH4" s="205"/>
+      <c r="LI4" s="205"/>
+      <c r="LJ4" s="205"/>
+      <c r="LK4" s="205"/>
+      <c r="LL4" s="205"/>
+      <c r="LM4" s="205"/>
+      <c r="LN4" s="205"/>
+      <c r="LO4" s="205"/>
+      <c r="LP4" s="205"/>
+      <c r="LQ4" s="205"/>
+      <c r="LR4" s="205"/>
+      <c r="LS4" s="205"/>
+      <c r="LT4" s="205"/>
+      <c r="LU4" s="205"/>
+      <c r="LV4" s="205"/>
+      <c r="LW4" s="205"/>
+      <c r="LX4" s="205"/>
+      <c r="LY4" s="205"/>
+      <c r="LZ4" s="205"/>
+      <c r="MA4" s="205"/>
+      <c r="MB4" s="205"/>
+      <c r="MC4" s="205"/>
+      <c r="MD4" s="205"/>
+      <c r="ME4" s="205"/>
+      <c r="MF4" s="205"/>
+      <c r="MG4" s="205"/>
+      <c r="MH4" s="205"/>
+      <c r="MI4" s="205"/>
+      <c r="MJ4" s="205"/>
+      <c r="MK4" s="205"/>
+      <c r="ML4" s="205"/>
+      <c r="MM4" s="205"/>
+      <c r="MN4" s="205"/>
+      <c r="MO4" s="205"/>
+      <c r="MP4" s="205"/>
+      <c r="MQ4" s="205"/>
+      <c r="MR4" s="205"/>
+      <c r="MS4" s="205"/>
+      <c r="MT4" s="205"/>
+      <c r="MU4" s="205"/>
+      <c r="MV4" s="205"/>
+      <c r="MW4" s="205"/>
+      <c r="MX4" s="205"/>
+      <c r="MY4" s="205"/>
+      <c r="MZ4" s="205"/>
+      <c r="NA4" s="205"/>
+      <c r="NB4" s="205"/>
+      <c r="NC4" s="205"/>
+      <c r="ND4" s="205"/>
+      <c r="NE4" s="205"/>
     </row>
     <row r="5" spans="1:369" s="107" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="207" t="s">
@@ -22087,6 +22087,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="CB3:CZ4"/>
+    <mergeCell ref="DA3:DY4"/>
+    <mergeCell ref="DZ3:EX4"/>
+    <mergeCell ref="EY3:FW4"/>
+    <mergeCell ref="FX3:GV4"/>
     <mergeCell ref="MG3:NE4"/>
     <mergeCell ref="JE3:KR4"/>
     <mergeCell ref="A5:A6"/>
@@ -22103,11 +22108,6 @@
     <mergeCell ref="HV3:IT4"/>
     <mergeCell ref="KS3:LL4"/>
     <mergeCell ref="IU3:JD4"/>
-    <mergeCell ref="CB3:CZ4"/>
-    <mergeCell ref="DA3:DY4"/>
-    <mergeCell ref="DZ3:EX4"/>
-    <mergeCell ref="EY3:FW4"/>
-    <mergeCell ref="FX3:GV4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:NE6 AQ7:AQ8 IX7:IX8 JC7:JC8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 CE7:CE8 CJ7:CJ8 CO7:CO8 CT7:CT8 CY7:CY8 DD7:DD8 DI7:DI8 DN7:DN8 DS7:DS8 DX7:DX8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 JM7:JM8 JH7:JH8 JW7:JW8 JR7:JR8 EK7:EK8 CC7:CC8 DL7:DL8 N7:N8 EC7:EC8 EH7:EH8 EM7:EM8 ER7:ER8 EW7:EW8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8">
     <cfRule type="expression" dxfId="7" priority="135">
@@ -22148,10 +22148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -22167,18 +22167,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="176"/>
       <c r="AF1">
         <v>7</v>
       </c>
@@ -22187,40 +22187,40 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="178"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="179"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="181"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="182"/>
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" ht="42.75">
       <c r="A6" s="19" t="s">
@@ -22551,14 +22551,14 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="117">
         <f ca="1">SUM(G7:G11)</f>
         <v>16</v>
@@ -22577,157 +22577,162 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="18.75">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="185">
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="186">
         <f>SUM(Backlog!H:H)</f>
         <v>16</v>
       </c>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
     </row>
     <row r="16" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="192"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="189"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="191"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="189"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="192"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="191"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="192"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="192"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="191"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="192"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="192"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="191"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="192"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="195"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="32" spans="2:10">
+      <c r="D32" s="154" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0"/>
   <mergeCells count="5">
@@ -22782,42 +22787,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E1" s="195" t="s">
+      <c r="E1" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E2" s="197"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E3" s="197"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="196"/>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
     </row>
     <row r="5" spans="1:15" s="57" customFormat="1" ht="30">
       <c r="A5" s="51" t="s">
@@ -27378,11 +27383,11 @@
       </c>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="198" t="str">
+      <c r="B3" s="199" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°1</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -27683,8 +27688,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH($K$44,H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>16</v>
@@ -28856,7 +28861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:83" ht="25.5">
       <c r="A9" s="95">
         <f t="shared" ca="1" si="91"/>
         <v>8</v>
@@ -32979,11 +32984,11 @@
       <c r="I44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="202" t="str">
+      <c r="K44" s="203" t="str">
         <f>X4</f>
         <v/>
       </c>
-      <c r="L44" s="203"/>
+      <c r="L44" s="204"/>
       <c r="M44" s="21">
         <f ca="1">MATCH(K44,4:4,0)</f>
         <v>23</v>
@@ -33758,11 +33763,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="198" t="str">
+      <c r="B3" s="199" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°2</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -34063,8 +34068,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -40020,11 +40025,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="198" t="str">
+      <c r="B3" s="199" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°3</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -40325,8 +40330,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -46282,11 +46287,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="198" t="str">
+      <c r="B3" s="199" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°4</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="200"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -46587,8 +46592,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -1339,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1732,31 +1732,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1792,6 +1773,26 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1885,10 +1886,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1899,9 +1903,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2554,11 +2555,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="114547328"/>
-        <c:axId val="114921856"/>
+        <c:axId val="116710016"/>
+        <c:axId val="117019008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114547328"/>
+        <c:axId val="116710016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,14 +2567,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114921856"/>
+        <c:crossAx val="117019008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114921856"/>
+        <c:axId val="117019008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2588,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="114547328"/>
+        <c:crossAx val="116710016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2600,7 +2601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.7500000000000081" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000081" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2734,11 +2735,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="115099520"/>
-        <c:axId val="115101056"/>
+        <c:axId val="117196672"/>
+        <c:axId val="117198208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115099520"/>
+        <c:axId val="117196672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,14 +2756,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115101056"/>
+        <c:crossAx val="117198208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115101056"/>
+        <c:axId val="117198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2772,7 +2773,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115099520"/>
+        <c:crossAx val="117196672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,7 +2786,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3120,11 +3121,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117627904"/>
-        <c:axId val="117633792"/>
+        <c:axId val="117623808"/>
+        <c:axId val="117629696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117627904"/>
+        <c:axId val="117623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,14 +3133,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117633792"/>
+        <c:crossAx val="117629696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117633792"/>
+        <c:axId val="117629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3154,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117627904"/>
+        <c:crossAx val="117623808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,7 +3167,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000822" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000822" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000833" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000833" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3470,11 +3471,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="115398144"/>
-        <c:axId val="115399680"/>
+        <c:axId val="117495296"/>
+        <c:axId val="117496832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115398144"/>
+        <c:axId val="117495296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,14 +3483,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115399680"/>
+        <c:crossAx val="117496832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115399680"/>
+        <c:axId val="117496832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,7 +3504,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115398144"/>
+        <c:crossAx val="117495296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,7 +3517,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000844" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000844" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000855" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000855" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3960,7 +3961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000866" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000866" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000877" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000877" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4404,7 +4405,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000888" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000888" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000899" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000899" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4987,17 +4988,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -5006,15 +5007,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5023,15 +5024,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5106,55 +5107,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="165"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="161"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="168"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="164"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="171"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="167"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5176,341 +5177,341 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="172" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172" t="s">
+      <c r="C14" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172" t="s">
+      <c r="I14" s="168"/>
+      <c r="J14" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="156">
+      <c r="C15" s="170">
         <v>41723</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="155" t="s">
+      <c r="D15" s="171"/>
+      <c r="E15" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155" t="s">
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="155"/>
-      <c r="J15" s="161" t="s">
+      <c r="I15" s="169"/>
+      <c r="J15" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="5"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="5"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="5"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="5"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="5"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="5"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="5"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="5"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="5"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="5"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
@@ -5534,38 +5535,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
@@ -5582,36 +5581,38 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="52" priority="1">
@@ -6241,11 +6242,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="200" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°5</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -6546,8 +6547,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -14667,786 +14668,786 @@
       </c>
     </row>
     <row r="3" spans="1:369" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="206" t="s">
+      <c r="A3" s="210"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="211"/>
-      <c r="AJ3" s="211"/>
-      <c r="AK3" s="211"/>
-      <c r="AL3" s="211"/>
-      <c r="AM3" s="211"/>
-      <c r="AN3" s="210" t="s">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="212"/>
+      <c r="AJ3" s="212"/>
+      <c r="AK3" s="212"/>
+      <c r="AL3" s="212"/>
+      <c r="AM3" s="212"/>
+      <c r="AN3" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="210"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="210"/>
-      <c r="AT3" s="210"/>
-      <c r="AU3" s="210"/>
-      <c r="AV3" s="210"/>
-      <c r="AW3" s="210"/>
-      <c r="AX3" s="210"/>
-      <c r="AY3" s="210"/>
-      <c r="AZ3" s="210"/>
-      <c r="BA3" s="210"/>
-      <c r="BB3" s="210"/>
-      <c r="BC3" s="210"/>
-      <c r="BD3" s="210"/>
-      <c r="BE3" s="210"/>
-      <c r="BF3" s="210"/>
-      <c r="BG3" s="210"/>
-      <c r="BH3" s="206" t="s">
+      <c r="AO3" s="206"/>
+      <c r="AP3" s="206"/>
+      <c r="AQ3" s="206"/>
+      <c r="AR3" s="206"/>
+      <c r="AS3" s="206"/>
+      <c r="AT3" s="206"/>
+      <c r="AU3" s="206"/>
+      <c r="AV3" s="206"/>
+      <c r="AW3" s="206"/>
+      <c r="AX3" s="206"/>
+      <c r="AY3" s="206"/>
+      <c r="AZ3" s="206"/>
+      <c r="BA3" s="206"/>
+      <c r="BB3" s="206"/>
+      <c r="BC3" s="206"/>
+      <c r="BD3" s="206"/>
+      <c r="BE3" s="206"/>
+      <c r="BF3" s="206"/>
+      <c r="BG3" s="206"/>
+      <c r="BH3" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="BI3" s="206"/>
-      <c r="BJ3" s="206"/>
-      <c r="BK3" s="206"/>
-      <c r="BL3" s="206"/>
-      <c r="BM3" s="206"/>
-      <c r="BN3" s="206"/>
-      <c r="BO3" s="206"/>
-      <c r="BP3" s="206"/>
-      <c r="BQ3" s="206"/>
-      <c r="BR3" s="206"/>
-      <c r="BS3" s="206"/>
-      <c r="BT3" s="206"/>
-      <c r="BU3" s="206"/>
-      <c r="BV3" s="206"/>
-      <c r="BW3" s="206"/>
-      <c r="BX3" s="206"/>
-      <c r="BY3" s="206"/>
-      <c r="BZ3" s="206"/>
-      <c r="CA3" s="206"/>
-      <c r="CB3" s="210" t="s">
+      <c r="BI3" s="207"/>
+      <c r="BJ3" s="207"/>
+      <c r="BK3" s="207"/>
+      <c r="BL3" s="207"/>
+      <c r="BM3" s="207"/>
+      <c r="BN3" s="207"/>
+      <c r="BO3" s="207"/>
+      <c r="BP3" s="207"/>
+      <c r="BQ3" s="207"/>
+      <c r="BR3" s="207"/>
+      <c r="BS3" s="207"/>
+      <c r="BT3" s="207"/>
+      <c r="BU3" s="207"/>
+      <c r="BV3" s="207"/>
+      <c r="BW3" s="207"/>
+      <c r="BX3" s="207"/>
+      <c r="BY3" s="207"/>
+      <c r="BZ3" s="207"/>
+      <c r="CA3" s="207"/>
+      <c r="CB3" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="CC3" s="210"/>
-      <c r="CD3" s="210"/>
-      <c r="CE3" s="210"/>
-      <c r="CF3" s="210"/>
-      <c r="CG3" s="210"/>
-      <c r="CH3" s="210"/>
-      <c r="CI3" s="210"/>
-      <c r="CJ3" s="210"/>
-      <c r="CK3" s="210"/>
-      <c r="CL3" s="210"/>
-      <c r="CM3" s="210"/>
-      <c r="CN3" s="210"/>
-      <c r="CO3" s="210"/>
-      <c r="CP3" s="210"/>
-      <c r="CQ3" s="210"/>
-      <c r="CR3" s="210"/>
-      <c r="CS3" s="210"/>
-      <c r="CT3" s="210"/>
-      <c r="CU3" s="210"/>
-      <c r="CV3" s="210"/>
-      <c r="CW3" s="210"/>
-      <c r="CX3" s="210"/>
-      <c r="CY3" s="210"/>
-      <c r="CZ3" s="210"/>
-      <c r="DA3" s="206" t="s">
+      <c r="CC3" s="206"/>
+      <c r="CD3" s="206"/>
+      <c r="CE3" s="206"/>
+      <c r="CF3" s="206"/>
+      <c r="CG3" s="206"/>
+      <c r="CH3" s="206"/>
+      <c r="CI3" s="206"/>
+      <c r="CJ3" s="206"/>
+      <c r="CK3" s="206"/>
+      <c r="CL3" s="206"/>
+      <c r="CM3" s="206"/>
+      <c r="CN3" s="206"/>
+      <c r="CO3" s="206"/>
+      <c r="CP3" s="206"/>
+      <c r="CQ3" s="206"/>
+      <c r="CR3" s="206"/>
+      <c r="CS3" s="206"/>
+      <c r="CT3" s="206"/>
+      <c r="CU3" s="206"/>
+      <c r="CV3" s="206"/>
+      <c r="CW3" s="206"/>
+      <c r="CX3" s="206"/>
+      <c r="CY3" s="206"/>
+      <c r="CZ3" s="206"/>
+      <c r="DA3" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="DB3" s="206"/>
-      <c r="DC3" s="206"/>
-      <c r="DD3" s="206"/>
-      <c r="DE3" s="206"/>
-      <c r="DF3" s="206"/>
-      <c r="DG3" s="206"/>
-      <c r="DH3" s="206"/>
-      <c r="DI3" s="206"/>
-      <c r="DJ3" s="206"/>
-      <c r="DK3" s="206"/>
-      <c r="DL3" s="206"/>
-      <c r="DM3" s="206"/>
-      <c r="DN3" s="206"/>
-      <c r="DO3" s="206"/>
-      <c r="DP3" s="206"/>
-      <c r="DQ3" s="206"/>
-      <c r="DR3" s="206"/>
-      <c r="DS3" s="206"/>
-      <c r="DT3" s="206"/>
-      <c r="DU3" s="206"/>
-      <c r="DV3" s="206"/>
-      <c r="DW3" s="206"/>
-      <c r="DX3" s="206"/>
-      <c r="DY3" s="206"/>
-      <c r="DZ3" s="210" t="s">
+      <c r="DB3" s="207"/>
+      <c r="DC3" s="207"/>
+      <c r="DD3" s="207"/>
+      <c r="DE3" s="207"/>
+      <c r="DF3" s="207"/>
+      <c r="DG3" s="207"/>
+      <c r="DH3" s="207"/>
+      <c r="DI3" s="207"/>
+      <c r="DJ3" s="207"/>
+      <c r="DK3" s="207"/>
+      <c r="DL3" s="207"/>
+      <c r="DM3" s="207"/>
+      <c r="DN3" s="207"/>
+      <c r="DO3" s="207"/>
+      <c r="DP3" s="207"/>
+      <c r="DQ3" s="207"/>
+      <c r="DR3" s="207"/>
+      <c r="DS3" s="207"/>
+      <c r="DT3" s="207"/>
+      <c r="DU3" s="207"/>
+      <c r="DV3" s="207"/>
+      <c r="DW3" s="207"/>
+      <c r="DX3" s="207"/>
+      <c r="DY3" s="207"/>
+      <c r="DZ3" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="EA3" s="210"/>
-      <c r="EB3" s="210"/>
-      <c r="EC3" s="210"/>
-      <c r="ED3" s="210"/>
-      <c r="EE3" s="210"/>
-      <c r="EF3" s="210"/>
-      <c r="EG3" s="210"/>
-      <c r="EH3" s="210"/>
-      <c r="EI3" s="210"/>
-      <c r="EJ3" s="210"/>
-      <c r="EK3" s="210"/>
-      <c r="EL3" s="210"/>
-      <c r="EM3" s="210"/>
-      <c r="EN3" s="210"/>
-      <c r="EO3" s="210"/>
-      <c r="EP3" s="210"/>
-      <c r="EQ3" s="210"/>
-      <c r="ER3" s="210"/>
-      <c r="ES3" s="210"/>
-      <c r="ET3" s="210"/>
-      <c r="EU3" s="210"/>
-      <c r="EV3" s="210"/>
-      <c r="EW3" s="210"/>
-      <c r="EX3" s="210"/>
-      <c r="EY3" s="206" t="s">
+      <c r="EA3" s="206"/>
+      <c r="EB3" s="206"/>
+      <c r="EC3" s="206"/>
+      <c r="ED3" s="206"/>
+      <c r="EE3" s="206"/>
+      <c r="EF3" s="206"/>
+      <c r="EG3" s="206"/>
+      <c r="EH3" s="206"/>
+      <c r="EI3" s="206"/>
+      <c r="EJ3" s="206"/>
+      <c r="EK3" s="206"/>
+      <c r="EL3" s="206"/>
+      <c r="EM3" s="206"/>
+      <c r="EN3" s="206"/>
+      <c r="EO3" s="206"/>
+      <c r="EP3" s="206"/>
+      <c r="EQ3" s="206"/>
+      <c r="ER3" s="206"/>
+      <c r="ES3" s="206"/>
+      <c r="ET3" s="206"/>
+      <c r="EU3" s="206"/>
+      <c r="EV3" s="206"/>
+      <c r="EW3" s="206"/>
+      <c r="EX3" s="206"/>
+      <c r="EY3" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="EZ3" s="206"/>
-      <c r="FA3" s="206"/>
-      <c r="FB3" s="206"/>
-      <c r="FC3" s="206"/>
-      <c r="FD3" s="206"/>
-      <c r="FE3" s="206"/>
-      <c r="FF3" s="206"/>
-      <c r="FG3" s="206"/>
-      <c r="FH3" s="206"/>
-      <c r="FI3" s="206"/>
-      <c r="FJ3" s="206"/>
-      <c r="FK3" s="206"/>
-      <c r="FL3" s="206"/>
-      <c r="FM3" s="206"/>
-      <c r="FN3" s="206"/>
-      <c r="FO3" s="206"/>
-      <c r="FP3" s="206"/>
-      <c r="FQ3" s="206"/>
-      <c r="FR3" s="206"/>
-      <c r="FS3" s="206"/>
-      <c r="FT3" s="206"/>
-      <c r="FU3" s="206"/>
-      <c r="FV3" s="206"/>
-      <c r="FW3" s="206"/>
-      <c r="FX3" s="210" t="s">
+      <c r="EZ3" s="207"/>
+      <c r="FA3" s="207"/>
+      <c r="FB3" s="207"/>
+      <c r="FC3" s="207"/>
+      <c r="FD3" s="207"/>
+      <c r="FE3" s="207"/>
+      <c r="FF3" s="207"/>
+      <c r="FG3" s="207"/>
+      <c r="FH3" s="207"/>
+      <c r="FI3" s="207"/>
+      <c r="FJ3" s="207"/>
+      <c r="FK3" s="207"/>
+      <c r="FL3" s="207"/>
+      <c r="FM3" s="207"/>
+      <c r="FN3" s="207"/>
+      <c r="FO3" s="207"/>
+      <c r="FP3" s="207"/>
+      <c r="FQ3" s="207"/>
+      <c r="FR3" s="207"/>
+      <c r="FS3" s="207"/>
+      <c r="FT3" s="207"/>
+      <c r="FU3" s="207"/>
+      <c r="FV3" s="207"/>
+      <c r="FW3" s="207"/>
+      <c r="FX3" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="FY3" s="210"/>
-      <c r="FZ3" s="210"/>
-      <c r="GA3" s="210"/>
-      <c r="GB3" s="210"/>
-      <c r="GC3" s="210"/>
-      <c r="GD3" s="210"/>
-      <c r="GE3" s="210"/>
-      <c r="GF3" s="210"/>
-      <c r="GG3" s="210"/>
-      <c r="GH3" s="210"/>
-      <c r="GI3" s="210"/>
-      <c r="GJ3" s="210"/>
-      <c r="GK3" s="210"/>
-      <c r="GL3" s="210"/>
-      <c r="GM3" s="210"/>
-      <c r="GN3" s="210"/>
-      <c r="GO3" s="210"/>
-      <c r="GP3" s="210"/>
-      <c r="GQ3" s="210"/>
-      <c r="GR3" s="210"/>
-      <c r="GS3" s="210"/>
-      <c r="GT3" s="210"/>
-      <c r="GU3" s="210"/>
-      <c r="GV3" s="210"/>
-      <c r="GW3" s="206" t="s">
+      <c r="FY3" s="206"/>
+      <c r="FZ3" s="206"/>
+      <c r="GA3" s="206"/>
+      <c r="GB3" s="206"/>
+      <c r="GC3" s="206"/>
+      <c r="GD3" s="206"/>
+      <c r="GE3" s="206"/>
+      <c r="GF3" s="206"/>
+      <c r="GG3" s="206"/>
+      <c r="GH3" s="206"/>
+      <c r="GI3" s="206"/>
+      <c r="GJ3" s="206"/>
+      <c r="GK3" s="206"/>
+      <c r="GL3" s="206"/>
+      <c r="GM3" s="206"/>
+      <c r="GN3" s="206"/>
+      <c r="GO3" s="206"/>
+      <c r="GP3" s="206"/>
+      <c r="GQ3" s="206"/>
+      <c r="GR3" s="206"/>
+      <c r="GS3" s="206"/>
+      <c r="GT3" s="206"/>
+      <c r="GU3" s="206"/>
+      <c r="GV3" s="206"/>
+      <c r="GW3" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="GX3" s="206"/>
-      <c r="GY3" s="206"/>
-      <c r="GZ3" s="206"/>
-      <c r="HA3" s="206"/>
-      <c r="HB3" s="206"/>
-      <c r="HC3" s="206"/>
-      <c r="HD3" s="206"/>
-      <c r="HE3" s="206"/>
-      <c r="HF3" s="206"/>
-      <c r="HG3" s="206"/>
-      <c r="HH3" s="206"/>
-      <c r="HI3" s="206"/>
-      <c r="HJ3" s="206"/>
-      <c r="HK3" s="206"/>
-      <c r="HL3" s="206"/>
-      <c r="HM3" s="206"/>
-      <c r="HN3" s="206"/>
-      <c r="HO3" s="206"/>
-      <c r="HP3" s="206"/>
-      <c r="HQ3" s="206"/>
-      <c r="HR3" s="206"/>
-      <c r="HS3" s="206"/>
-      <c r="HT3" s="206"/>
-      <c r="HU3" s="206"/>
-      <c r="HV3" s="210" t="s">
+      <c r="GX3" s="207"/>
+      <c r="GY3" s="207"/>
+      <c r="GZ3" s="207"/>
+      <c r="HA3" s="207"/>
+      <c r="HB3" s="207"/>
+      <c r="HC3" s="207"/>
+      <c r="HD3" s="207"/>
+      <c r="HE3" s="207"/>
+      <c r="HF3" s="207"/>
+      <c r="HG3" s="207"/>
+      <c r="HH3" s="207"/>
+      <c r="HI3" s="207"/>
+      <c r="HJ3" s="207"/>
+      <c r="HK3" s="207"/>
+      <c r="HL3" s="207"/>
+      <c r="HM3" s="207"/>
+      <c r="HN3" s="207"/>
+      <c r="HO3" s="207"/>
+      <c r="HP3" s="207"/>
+      <c r="HQ3" s="207"/>
+      <c r="HR3" s="207"/>
+      <c r="HS3" s="207"/>
+      <c r="HT3" s="207"/>
+      <c r="HU3" s="207"/>
+      <c r="HV3" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="HW3" s="210"/>
-      <c r="HX3" s="210"/>
-      <c r="HY3" s="210"/>
-      <c r="HZ3" s="210"/>
-      <c r="IA3" s="210"/>
-      <c r="IB3" s="210"/>
-      <c r="IC3" s="210"/>
-      <c r="ID3" s="210"/>
-      <c r="IE3" s="210"/>
-      <c r="IF3" s="210"/>
-      <c r="IG3" s="210"/>
-      <c r="IH3" s="210"/>
-      <c r="II3" s="210"/>
-      <c r="IJ3" s="210"/>
-      <c r="IK3" s="210"/>
-      <c r="IL3" s="210"/>
-      <c r="IM3" s="210"/>
-      <c r="IN3" s="210"/>
-      <c r="IO3" s="210"/>
-      <c r="IP3" s="210"/>
-      <c r="IQ3" s="210"/>
-      <c r="IR3" s="210"/>
-      <c r="IS3" s="210"/>
-      <c r="IT3" s="210"/>
-      <c r="IU3" s="212"/>
-      <c r="IV3" s="212"/>
-      <c r="IW3" s="212"/>
-      <c r="IX3" s="212"/>
-      <c r="IY3" s="212"/>
-      <c r="IZ3" s="212"/>
-      <c r="JA3" s="212"/>
-      <c r="JB3" s="212"/>
-      <c r="JC3" s="212"/>
-      <c r="JD3" s="212"/>
-      <c r="JE3" s="206" t="s">
+      <c r="HW3" s="206"/>
+      <c r="HX3" s="206"/>
+      <c r="HY3" s="206"/>
+      <c r="HZ3" s="206"/>
+      <c r="IA3" s="206"/>
+      <c r="IB3" s="206"/>
+      <c r="IC3" s="206"/>
+      <c r="ID3" s="206"/>
+      <c r="IE3" s="206"/>
+      <c r="IF3" s="206"/>
+      <c r="IG3" s="206"/>
+      <c r="IH3" s="206"/>
+      <c r="II3" s="206"/>
+      <c r="IJ3" s="206"/>
+      <c r="IK3" s="206"/>
+      <c r="IL3" s="206"/>
+      <c r="IM3" s="206"/>
+      <c r="IN3" s="206"/>
+      <c r="IO3" s="206"/>
+      <c r="IP3" s="206"/>
+      <c r="IQ3" s="206"/>
+      <c r="IR3" s="206"/>
+      <c r="IS3" s="206"/>
+      <c r="IT3" s="206"/>
+      <c r="IU3" s="213"/>
+      <c r="IV3" s="213"/>
+      <c r="IW3" s="213"/>
+      <c r="IX3" s="213"/>
+      <c r="IY3" s="213"/>
+      <c r="IZ3" s="213"/>
+      <c r="JA3" s="213"/>
+      <c r="JB3" s="213"/>
+      <c r="JC3" s="213"/>
+      <c r="JD3" s="213"/>
+      <c r="JE3" s="207" t="s">
         <v>55</v>
       </c>
-      <c r="JF3" s="206"/>
-      <c r="JG3" s="206"/>
-      <c r="JH3" s="206"/>
-      <c r="JI3" s="206"/>
-      <c r="JJ3" s="206"/>
-      <c r="JK3" s="206"/>
-      <c r="JL3" s="206"/>
-      <c r="JM3" s="206"/>
-      <c r="JN3" s="206"/>
-      <c r="JO3" s="206"/>
-      <c r="JP3" s="206"/>
-      <c r="JQ3" s="206"/>
-      <c r="JR3" s="206"/>
-      <c r="JS3" s="206"/>
-      <c r="JT3" s="206"/>
-      <c r="JU3" s="206"/>
-      <c r="JV3" s="206"/>
-      <c r="JW3" s="206"/>
-      <c r="JX3" s="206"/>
-      <c r="JY3" s="206"/>
-      <c r="JZ3" s="206"/>
-      <c r="KA3" s="206"/>
-      <c r="KB3" s="206"/>
-      <c r="KC3" s="206"/>
-      <c r="KD3" s="206"/>
-      <c r="KE3" s="206"/>
-      <c r="KF3" s="206"/>
-      <c r="KG3" s="206"/>
-      <c r="KH3" s="206"/>
-      <c r="KI3" s="206"/>
-      <c r="KJ3" s="206"/>
-      <c r="KK3" s="206"/>
-      <c r="KL3" s="206"/>
-      <c r="KM3" s="206"/>
-      <c r="KN3" s="206"/>
-      <c r="KO3" s="206"/>
-      <c r="KP3" s="206"/>
-      <c r="KQ3" s="206"/>
-      <c r="KR3" s="206"/>
-      <c r="KS3" s="205" t="s">
+      <c r="JF3" s="207"/>
+      <c r="JG3" s="207"/>
+      <c r="JH3" s="207"/>
+      <c r="JI3" s="207"/>
+      <c r="JJ3" s="207"/>
+      <c r="JK3" s="207"/>
+      <c r="JL3" s="207"/>
+      <c r="JM3" s="207"/>
+      <c r="JN3" s="207"/>
+      <c r="JO3" s="207"/>
+      <c r="JP3" s="207"/>
+      <c r="JQ3" s="207"/>
+      <c r="JR3" s="207"/>
+      <c r="JS3" s="207"/>
+      <c r="JT3" s="207"/>
+      <c r="JU3" s="207"/>
+      <c r="JV3" s="207"/>
+      <c r="JW3" s="207"/>
+      <c r="JX3" s="207"/>
+      <c r="JY3" s="207"/>
+      <c r="JZ3" s="207"/>
+      <c r="KA3" s="207"/>
+      <c r="KB3" s="207"/>
+      <c r="KC3" s="207"/>
+      <c r="KD3" s="207"/>
+      <c r="KE3" s="207"/>
+      <c r="KF3" s="207"/>
+      <c r="KG3" s="207"/>
+      <c r="KH3" s="207"/>
+      <c r="KI3" s="207"/>
+      <c r="KJ3" s="207"/>
+      <c r="KK3" s="207"/>
+      <c r="KL3" s="207"/>
+      <c r="KM3" s="207"/>
+      <c r="KN3" s="207"/>
+      <c r="KO3" s="207"/>
+      <c r="KP3" s="207"/>
+      <c r="KQ3" s="207"/>
+      <c r="KR3" s="207"/>
+      <c r="KS3" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="KT3" s="205"/>
-      <c r="KU3" s="205"/>
-      <c r="KV3" s="205"/>
-      <c r="KW3" s="205"/>
-      <c r="KX3" s="205"/>
-      <c r="KY3" s="205"/>
-      <c r="KZ3" s="205"/>
-      <c r="LA3" s="205"/>
-      <c r="LB3" s="205"/>
-      <c r="LC3" s="205"/>
-      <c r="LD3" s="205"/>
-      <c r="LE3" s="205"/>
-      <c r="LF3" s="205"/>
-      <c r="LG3" s="205"/>
-      <c r="LH3" s="205"/>
-      <c r="LI3" s="205"/>
-      <c r="LJ3" s="205"/>
-      <c r="LK3" s="205"/>
-      <c r="LL3" s="205"/>
-      <c r="LM3" s="205" t="s">
+      <c r="KT3" s="208"/>
+      <c r="KU3" s="208"/>
+      <c r="KV3" s="208"/>
+      <c r="KW3" s="208"/>
+      <c r="KX3" s="208"/>
+      <c r="KY3" s="208"/>
+      <c r="KZ3" s="208"/>
+      <c r="LA3" s="208"/>
+      <c r="LB3" s="208"/>
+      <c r="LC3" s="208"/>
+      <c r="LD3" s="208"/>
+      <c r="LE3" s="208"/>
+      <c r="LF3" s="208"/>
+      <c r="LG3" s="208"/>
+      <c r="LH3" s="208"/>
+      <c r="LI3" s="208"/>
+      <c r="LJ3" s="208"/>
+      <c r="LK3" s="208"/>
+      <c r="LL3" s="208"/>
+      <c r="LM3" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="LN3" s="205"/>
-      <c r="LO3" s="205"/>
-      <c r="LP3" s="205"/>
-      <c r="LQ3" s="205"/>
-      <c r="LR3" s="205"/>
-      <c r="LS3" s="205"/>
-      <c r="LT3" s="205"/>
-      <c r="LU3" s="205"/>
-      <c r="LV3" s="205"/>
-      <c r="LW3" s="205"/>
-      <c r="LX3" s="205"/>
-      <c r="LY3" s="205"/>
-      <c r="LZ3" s="205"/>
-      <c r="MA3" s="205"/>
-      <c r="MB3" s="205"/>
-      <c r="MC3" s="205"/>
-      <c r="MD3" s="205"/>
-      <c r="ME3" s="205"/>
-      <c r="MF3" s="205"/>
-      <c r="MG3" s="205" t="s">
+      <c r="LN3" s="208"/>
+      <c r="LO3" s="208"/>
+      <c r="LP3" s="208"/>
+      <c r="LQ3" s="208"/>
+      <c r="LR3" s="208"/>
+      <c r="LS3" s="208"/>
+      <c r="LT3" s="208"/>
+      <c r="LU3" s="208"/>
+      <c r="LV3" s="208"/>
+      <c r="LW3" s="208"/>
+      <c r="LX3" s="208"/>
+      <c r="LY3" s="208"/>
+      <c r="LZ3" s="208"/>
+      <c r="MA3" s="208"/>
+      <c r="MB3" s="208"/>
+      <c r="MC3" s="208"/>
+      <c r="MD3" s="208"/>
+      <c r="ME3" s="208"/>
+      <c r="MF3" s="208"/>
+      <c r="MG3" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="MH3" s="205"/>
-      <c r="MI3" s="205"/>
-      <c r="MJ3" s="205"/>
-      <c r="MK3" s="205"/>
-      <c r="ML3" s="205"/>
-      <c r="MM3" s="205"/>
-      <c r="MN3" s="205"/>
-      <c r="MO3" s="205"/>
-      <c r="MP3" s="205"/>
-      <c r="MQ3" s="205"/>
-      <c r="MR3" s="205"/>
-      <c r="MS3" s="205"/>
-      <c r="MT3" s="205"/>
-      <c r="MU3" s="205"/>
-      <c r="MV3" s="205"/>
-      <c r="MW3" s="205"/>
-      <c r="MX3" s="205"/>
-      <c r="MY3" s="205"/>
-      <c r="MZ3" s="205"/>
-      <c r="NA3" s="205"/>
-      <c r="NB3" s="205"/>
-      <c r="NC3" s="205"/>
-      <c r="ND3" s="205"/>
-      <c r="NE3" s="205"/>
+      <c r="MH3" s="208"/>
+      <c r="MI3" s="208"/>
+      <c r="MJ3" s="208"/>
+      <c r="MK3" s="208"/>
+      <c r="ML3" s="208"/>
+      <c r="MM3" s="208"/>
+      <c r="MN3" s="208"/>
+      <c r="MO3" s="208"/>
+      <c r="MP3" s="208"/>
+      <c r="MQ3" s="208"/>
+      <c r="MR3" s="208"/>
+      <c r="MS3" s="208"/>
+      <c r="MT3" s="208"/>
+      <c r="MU3" s="208"/>
+      <c r="MV3" s="208"/>
+      <c r="MW3" s="208"/>
+      <c r="MX3" s="208"/>
+      <c r="MY3" s="208"/>
+      <c r="MZ3" s="208"/>
+      <c r="NA3" s="208"/>
+      <c r="NB3" s="208"/>
+      <c r="NC3" s="208"/>
+      <c r="ND3" s="208"/>
+      <c r="NE3" s="208"/>
     </row>
     <row r="4" spans="1:369" s="106" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="209"/>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="211"/>
-      <c r="AJ4" s="211"/>
-      <c r="AK4" s="211"/>
-      <c r="AL4" s="211"/>
-      <c r="AM4" s="211"/>
-      <c r="AN4" s="210"/>
-      <c r="AO4" s="210"/>
-      <c r="AP4" s="210"/>
-      <c r="AQ4" s="210"/>
-      <c r="AR4" s="210"/>
-      <c r="AS4" s="210"/>
-      <c r="AT4" s="210"/>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
-      <c r="AX4" s="210"/>
-      <c r="AY4" s="210"/>
-      <c r="AZ4" s="210"/>
-      <c r="BA4" s="210"/>
-      <c r="BB4" s="210"/>
-      <c r="BC4" s="210"/>
-      <c r="BD4" s="210"/>
-      <c r="BE4" s="210"/>
-      <c r="BF4" s="210"/>
-      <c r="BG4" s="210"/>
-      <c r="BH4" s="206"/>
-      <c r="BI4" s="206"/>
-      <c r="BJ4" s="206"/>
-      <c r="BK4" s="206"/>
-      <c r="BL4" s="206"/>
-      <c r="BM4" s="206"/>
-      <c r="BN4" s="206"/>
-      <c r="BO4" s="206"/>
-      <c r="BP4" s="206"/>
-      <c r="BQ4" s="206"/>
-      <c r="BR4" s="206"/>
-      <c r="BS4" s="206"/>
-      <c r="BT4" s="206"/>
-      <c r="BU4" s="206"/>
-      <c r="BV4" s="206"/>
-      <c r="BW4" s="206"/>
-      <c r="BX4" s="206"/>
-      <c r="BY4" s="206"/>
-      <c r="BZ4" s="206"/>
-      <c r="CA4" s="206"/>
-      <c r="CB4" s="210"/>
-      <c r="CC4" s="210"/>
-      <c r="CD4" s="210"/>
-      <c r="CE4" s="210"/>
-      <c r="CF4" s="210"/>
-      <c r="CG4" s="210"/>
-      <c r="CH4" s="210"/>
-      <c r="CI4" s="210"/>
-      <c r="CJ4" s="210"/>
-      <c r="CK4" s="210"/>
-      <c r="CL4" s="210"/>
-      <c r="CM4" s="210"/>
-      <c r="CN4" s="210"/>
-      <c r="CO4" s="210"/>
-      <c r="CP4" s="210"/>
-      <c r="CQ4" s="210"/>
-      <c r="CR4" s="210"/>
-      <c r="CS4" s="210"/>
-      <c r="CT4" s="210"/>
-      <c r="CU4" s="210"/>
-      <c r="CV4" s="210"/>
-      <c r="CW4" s="210"/>
-      <c r="CX4" s="210"/>
-      <c r="CY4" s="210"/>
-      <c r="CZ4" s="210"/>
-      <c r="DA4" s="206"/>
-      <c r="DB4" s="206"/>
-      <c r="DC4" s="206"/>
-      <c r="DD4" s="206"/>
-      <c r="DE4" s="206"/>
-      <c r="DF4" s="206"/>
-      <c r="DG4" s="206"/>
-      <c r="DH4" s="206"/>
-      <c r="DI4" s="206"/>
-      <c r="DJ4" s="206"/>
-      <c r="DK4" s="206"/>
-      <c r="DL4" s="206"/>
-      <c r="DM4" s="206"/>
-      <c r="DN4" s="206"/>
-      <c r="DO4" s="206"/>
-      <c r="DP4" s="206"/>
-      <c r="DQ4" s="206"/>
-      <c r="DR4" s="206"/>
-      <c r="DS4" s="206"/>
-      <c r="DT4" s="206"/>
-      <c r="DU4" s="206"/>
-      <c r="DV4" s="206"/>
-      <c r="DW4" s="206"/>
-      <c r="DX4" s="206"/>
-      <c r="DY4" s="206"/>
-      <c r="DZ4" s="210"/>
-      <c r="EA4" s="210"/>
-      <c r="EB4" s="210"/>
-      <c r="EC4" s="210"/>
-      <c r="ED4" s="210"/>
-      <c r="EE4" s="210"/>
-      <c r="EF4" s="210"/>
-      <c r="EG4" s="210"/>
-      <c r="EH4" s="210"/>
-      <c r="EI4" s="210"/>
-      <c r="EJ4" s="210"/>
-      <c r="EK4" s="210"/>
-      <c r="EL4" s="210"/>
-      <c r="EM4" s="210"/>
-      <c r="EN4" s="210"/>
-      <c r="EO4" s="210"/>
-      <c r="EP4" s="210"/>
-      <c r="EQ4" s="210"/>
-      <c r="ER4" s="210"/>
-      <c r="ES4" s="210"/>
-      <c r="ET4" s="210"/>
-      <c r="EU4" s="210"/>
-      <c r="EV4" s="210"/>
-      <c r="EW4" s="210"/>
-      <c r="EX4" s="210"/>
-      <c r="EY4" s="206"/>
-      <c r="EZ4" s="206"/>
-      <c r="FA4" s="206"/>
-      <c r="FB4" s="206"/>
-      <c r="FC4" s="206"/>
-      <c r="FD4" s="206"/>
-      <c r="FE4" s="206"/>
-      <c r="FF4" s="206"/>
-      <c r="FG4" s="206"/>
-      <c r="FH4" s="206"/>
-      <c r="FI4" s="206"/>
-      <c r="FJ4" s="206"/>
-      <c r="FK4" s="206"/>
-      <c r="FL4" s="206"/>
-      <c r="FM4" s="206"/>
-      <c r="FN4" s="206"/>
-      <c r="FO4" s="206"/>
-      <c r="FP4" s="206"/>
-      <c r="FQ4" s="206"/>
-      <c r="FR4" s="206"/>
-      <c r="FS4" s="206"/>
-      <c r="FT4" s="206"/>
-      <c r="FU4" s="206"/>
-      <c r="FV4" s="206"/>
-      <c r="FW4" s="206"/>
-      <c r="FX4" s="210"/>
-      <c r="FY4" s="210"/>
-      <c r="FZ4" s="210"/>
-      <c r="GA4" s="210"/>
-      <c r="GB4" s="210"/>
-      <c r="GC4" s="210"/>
-      <c r="GD4" s="210"/>
-      <c r="GE4" s="210"/>
-      <c r="GF4" s="210"/>
-      <c r="GG4" s="210"/>
-      <c r="GH4" s="210"/>
-      <c r="GI4" s="210"/>
-      <c r="GJ4" s="210"/>
-      <c r="GK4" s="210"/>
-      <c r="GL4" s="210"/>
-      <c r="GM4" s="210"/>
-      <c r="GN4" s="210"/>
-      <c r="GO4" s="210"/>
-      <c r="GP4" s="210"/>
-      <c r="GQ4" s="210"/>
-      <c r="GR4" s="210"/>
-      <c r="GS4" s="210"/>
-      <c r="GT4" s="210"/>
-      <c r="GU4" s="210"/>
-      <c r="GV4" s="210"/>
-      <c r="GW4" s="206"/>
-      <c r="GX4" s="206"/>
-      <c r="GY4" s="206"/>
-      <c r="GZ4" s="206"/>
-      <c r="HA4" s="206"/>
-      <c r="HB4" s="206"/>
-      <c r="HC4" s="206"/>
-      <c r="HD4" s="206"/>
-      <c r="HE4" s="206"/>
-      <c r="HF4" s="206"/>
-      <c r="HG4" s="206"/>
-      <c r="HH4" s="206"/>
-      <c r="HI4" s="206"/>
-      <c r="HJ4" s="206"/>
-      <c r="HK4" s="206"/>
-      <c r="HL4" s="206"/>
-      <c r="HM4" s="206"/>
-      <c r="HN4" s="206"/>
-      <c r="HO4" s="206"/>
-      <c r="HP4" s="206"/>
-      <c r="HQ4" s="206"/>
-      <c r="HR4" s="206"/>
-      <c r="HS4" s="206"/>
-      <c r="HT4" s="206"/>
-      <c r="HU4" s="206"/>
-      <c r="HV4" s="210"/>
-      <c r="HW4" s="210"/>
-      <c r="HX4" s="210"/>
-      <c r="HY4" s="210"/>
-      <c r="HZ4" s="210"/>
-      <c r="IA4" s="210"/>
-      <c r="IB4" s="210"/>
-      <c r="IC4" s="210"/>
-      <c r="ID4" s="210"/>
-      <c r="IE4" s="210"/>
-      <c r="IF4" s="210"/>
-      <c r="IG4" s="210"/>
-      <c r="IH4" s="210"/>
-      <c r="II4" s="210"/>
-      <c r="IJ4" s="210"/>
-      <c r="IK4" s="210"/>
-      <c r="IL4" s="210"/>
-      <c r="IM4" s="210"/>
-      <c r="IN4" s="210"/>
-      <c r="IO4" s="210"/>
-      <c r="IP4" s="210"/>
-      <c r="IQ4" s="210"/>
-      <c r="IR4" s="210"/>
-      <c r="IS4" s="210"/>
-      <c r="IT4" s="210"/>
-      <c r="IU4" s="212"/>
-      <c r="IV4" s="212"/>
-      <c r="IW4" s="212"/>
-      <c r="IX4" s="212"/>
-      <c r="IY4" s="212"/>
-      <c r="IZ4" s="212"/>
-      <c r="JA4" s="212"/>
-      <c r="JB4" s="212"/>
-      <c r="JC4" s="212"/>
-      <c r="JD4" s="212"/>
-      <c r="JE4" s="206"/>
-      <c r="JF4" s="206"/>
-      <c r="JG4" s="206"/>
-      <c r="JH4" s="206"/>
-      <c r="JI4" s="206"/>
-      <c r="JJ4" s="206"/>
-      <c r="JK4" s="206"/>
-      <c r="JL4" s="206"/>
-      <c r="JM4" s="206"/>
-      <c r="JN4" s="206"/>
-      <c r="JO4" s="206"/>
-      <c r="JP4" s="206"/>
-      <c r="JQ4" s="206"/>
-      <c r="JR4" s="206"/>
-      <c r="JS4" s="206"/>
-      <c r="JT4" s="206"/>
-      <c r="JU4" s="206"/>
-      <c r="JV4" s="206"/>
-      <c r="JW4" s="206"/>
-      <c r="JX4" s="206"/>
-      <c r="JY4" s="206"/>
-      <c r="JZ4" s="206"/>
-      <c r="KA4" s="206"/>
-      <c r="KB4" s="206"/>
-      <c r="KC4" s="206"/>
-      <c r="KD4" s="206"/>
-      <c r="KE4" s="206"/>
-      <c r="KF4" s="206"/>
-      <c r="KG4" s="206"/>
-      <c r="KH4" s="206"/>
-      <c r="KI4" s="206"/>
-      <c r="KJ4" s="206"/>
-      <c r="KK4" s="206"/>
-      <c r="KL4" s="206"/>
-      <c r="KM4" s="206"/>
-      <c r="KN4" s="206"/>
-      <c r="KO4" s="206"/>
-      <c r="KP4" s="206"/>
-      <c r="KQ4" s="206"/>
-      <c r="KR4" s="206"/>
-      <c r="KS4" s="205"/>
-      <c r="KT4" s="205"/>
-      <c r="KU4" s="205"/>
-      <c r="KV4" s="205"/>
-      <c r="KW4" s="205"/>
-      <c r="KX4" s="205"/>
-      <c r="KY4" s="205"/>
-      <c r="KZ4" s="205"/>
-      <c r="LA4" s="205"/>
-      <c r="LB4" s="205"/>
-      <c r="LC4" s="205"/>
-      <c r="LD4" s="205"/>
-      <c r="LE4" s="205"/>
-      <c r="LF4" s="205"/>
-      <c r="LG4" s="205"/>
-      <c r="LH4" s="205"/>
-      <c r="LI4" s="205"/>
-      <c r="LJ4" s="205"/>
-      <c r="LK4" s="205"/>
-      <c r="LL4" s="205"/>
-      <c r="LM4" s="205"/>
-      <c r="LN4" s="205"/>
-      <c r="LO4" s="205"/>
-      <c r="LP4" s="205"/>
-      <c r="LQ4" s="205"/>
-      <c r="LR4" s="205"/>
-      <c r="LS4" s="205"/>
-      <c r="LT4" s="205"/>
-      <c r="LU4" s="205"/>
-      <c r="LV4" s="205"/>
-      <c r="LW4" s="205"/>
-      <c r="LX4" s="205"/>
-      <c r="LY4" s="205"/>
-      <c r="LZ4" s="205"/>
-      <c r="MA4" s="205"/>
-      <c r="MB4" s="205"/>
-      <c r="MC4" s="205"/>
-      <c r="MD4" s="205"/>
-      <c r="ME4" s="205"/>
-      <c r="MF4" s="205"/>
-      <c r="MG4" s="205"/>
-      <c r="MH4" s="205"/>
-      <c r="MI4" s="205"/>
-      <c r="MJ4" s="205"/>
-      <c r="MK4" s="205"/>
-      <c r="ML4" s="205"/>
-      <c r="MM4" s="205"/>
-      <c r="MN4" s="205"/>
-      <c r="MO4" s="205"/>
-      <c r="MP4" s="205"/>
-      <c r="MQ4" s="205"/>
-      <c r="MR4" s="205"/>
-      <c r="MS4" s="205"/>
-      <c r="MT4" s="205"/>
-      <c r="MU4" s="205"/>
-      <c r="MV4" s="205"/>
-      <c r="MW4" s="205"/>
-      <c r="MX4" s="205"/>
-      <c r="MY4" s="205"/>
-      <c r="MZ4" s="205"/>
-      <c r="NA4" s="205"/>
-      <c r="NB4" s="205"/>
-      <c r="NC4" s="205"/>
-      <c r="ND4" s="205"/>
-      <c r="NE4" s="205"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="212"/>
+      <c r="AJ4" s="212"/>
+      <c r="AK4" s="212"/>
+      <c r="AL4" s="212"/>
+      <c r="AM4" s="212"/>
+      <c r="AN4" s="206"/>
+      <c r="AO4" s="206"/>
+      <c r="AP4" s="206"/>
+      <c r="AQ4" s="206"/>
+      <c r="AR4" s="206"/>
+      <c r="AS4" s="206"/>
+      <c r="AT4" s="206"/>
+      <c r="AU4" s="206"/>
+      <c r="AV4" s="206"/>
+      <c r="AW4" s="206"/>
+      <c r="AX4" s="206"/>
+      <c r="AY4" s="206"/>
+      <c r="AZ4" s="206"/>
+      <c r="BA4" s="206"/>
+      <c r="BB4" s="206"/>
+      <c r="BC4" s="206"/>
+      <c r="BD4" s="206"/>
+      <c r="BE4" s="206"/>
+      <c r="BF4" s="206"/>
+      <c r="BG4" s="206"/>
+      <c r="BH4" s="207"/>
+      <c r="BI4" s="207"/>
+      <c r="BJ4" s="207"/>
+      <c r="BK4" s="207"/>
+      <c r="BL4" s="207"/>
+      <c r="BM4" s="207"/>
+      <c r="BN4" s="207"/>
+      <c r="BO4" s="207"/>
+      <c r="BP4" s="207"/>
+      <c r="BQ4" s="207"/>
+      <c r="BR4" s="207"/>
+      <c r="BS4" s="207"/>
+      <c r="BT4" s="207"/>
+      <c r="BU4" s="207"/>
+      <c r="BV4" s="207"/>
+      <c r="BW4" s="207"/>
+      <c r="BX4" s="207"/>
+      <c r="BY4" s="207"/>
+      <c r="BZ4" s="207"/>
+      <c r="CA4" s="207"/>
+      <c r="CB4" s="206"/>
+      <c r="CC4" s="206"/>
+      <c r="CD4" s="206"/>
+      <c r="CE4" s="206"/>
+      <c r="CF4" s="206"/>
+      <c r="CG4" s="206"/>
+      <c r="CH4" s="206"/>
+      <c r="CI4" s="206"/>
+      <c r="CJ4" s="206"/>
+      <c r="CK4" s="206"/>
+      <c r="CL4" s="206"/>
+      <c r="CM4" s="206"/>
+      <c r="CN4" s="206"/>
+      <c r="CO4" s="206"/>
+      <c r="CP4" s="206"/>
+      <c r="CQ4" s="206"/>
+      <c r="CR4" s="206"/>
+      <c r="CS4" s="206"/>
+      <c r="CT4" s="206"/>
+      <c r="CU4" s="206"/>
+      <c r="CV4" s="206"/>
+      <c r="CW4" s="206"/>
+      <c r="CX4" s="206"/>
+      <c r="CY4" s="206"/>
+      <c r="CZ4" s="206"/>
+      <c r="DA4" s="207"/>
+      <c r="DB4" s="207"/>
+      <c r="DC4" s="207"/>
+      <c r="DD4" s="207"/>
+      <c r="DE4" s="207"/>
+      <c r="DF4" s="207"/>
+      <c r="DG4" s="207"/>
+      <c r="DH4" s="207"/>
+      <c r="DI4" s="207"/>
+      <c r="DJ4" s="207"/>
+      <c r="DK4" s="207"/>
+      <c r="DL4" s="207"/>
+      <c r="DM4" s="207"/>
+      <c r="DN4" s="207"/>
+      <c r="DO4" s="207"/>
+      <c r="DP4" s="207"/>
+      <c r="DQ4" s="207"/>
+      <c r="DR4" s="207"/>
+      <c r="DS4" s="207"/>
+      <c r="DT4" s="207"/>
+      <c r="DU4" s="207"/>
+      <c r="DV4" s="207"/>
+      <c r="DW4" s="207"/>
+      <c r="DX4" s="207"/>
+      <c r="DY4" s="207"/>
+      <c r="DZ4" s="206"/>
+      <c r="EA4" s="206"/>
+      <c r="EB4" s="206"/>
+      <c r="EC4" s="206"/>
+      <c r="ED4" s="206"/>
+      <c r="EE4" s="206"/>
+      <c r="EF4" s="206"/>
+      <c r="EG4" s="206"/>
+      <c r="EH4" s="206"/>
+      <c r="EI4" s="206"/>
+      <c r="EJ4" s="206"/>
+      <c r="EK4" s="206"/>
+      <c r="EL4" s="206"/>
+      <c r="EM4" s="206"/>
+      <c r="EN4" s="206"/>
+      <c r="EO4" s="206"/>
+      <c r="EP4" s="206"/>
+      <c r="EQ4" s="206"/>
+      <c r="ER4" s="206"/>
+      <c r="ES4" s="206"/>
+      <c r="ET4" s="206"/>
+      <c r="EU4" s="206"/>
+      <c r="EV4" s="206"/>
+      <c r="EW4" s="206"/>
+      <c r="EX4" s="206"/>
+      <c r="EY4" s="207"/>
+      <c r="EZ4" s="207"/>
+      <c r="FA4" s="207"/>
+      <c r="FB4" s="207"/>
+      <c r="FC4" s="207"/>
+      <c r="FD4" s="207"/>
+      <c r="FE4" s="207"/>
+      <c r="FF4" s="207"/>
+      <c r="FG4" s="207"/>
+      <c r="FH4" s="207"/>
+      <c r="FI4" s="207"/>
+      <c r="FJ4" s="207"/>
+      <c r="FK4" s="207"/>
+      <c r="FL4" s="207"/>
+      <c r="FM4" s="207"/>
+      <c r="FN4" s="207"/>
+      <c r="FO4" s="207"/>
+      <c r="FP4" s="207"/>
+      <c r="FQ4" s="207"/>
+      <c r="FR4" s="207"/>
+      <c r="FS4" s="207"/>
+      <c r="FT4" s="207"/>
+      <c r="FU4" s="207"/>
+      <c r="FV4" s="207"/>
+      <c r="FW4" s="207"/>
+      <c r="FX4" s="206"/>
+      <c r="FY4" s="206"/>
+      <c r="FZ4" s="206"/>
+      <c r="GA4" s="206"/>
+      <c r="GB4" s="206"/>
+      <c r="GC4" s="206"/>
+      <c r="GD4" s="206"/>
+      <c r="GE4" s="206"/>
+      <c r="GF4" s="206"/>
+      <c r="GG4" s="206"/>
+      <c r="GH4" s="206"/>
+      <c r="GI4" s="206"/>
+      <c r="GJ4" s="206"/>
+      <c r="GK4" s="206"/>
+      <c r="GL4" s="206"/>
+      <c r="GM4" s="206"/>
+      <c r="GN4" s="206"/>
+      <c r="GO4" s="206"/>
+      <c r="GP4" s="206"/>
+      <c r="GQ4" s="206"/>
+      <c r="GR4" s="206"/>
+      <c r="GS4" s="206"/>
+      <c r="GT4" s="206"/>
+      <c r="GU4" s="206"/>
+      <c r="GV4" s="206"/>
+      <c r="GW4" s="207"/>
+      <c r="GX4" s="207"/>
+      <c r="GY4" s="207"/>
+      <c r="GZ4" s="207"/>
+      <c r="HA4" s="207"/>
+      <c r="HB4" s="207"/>
+      <c r="HC4" s="207"/>
+      <c r="HD4" s="207"/>
+      <c r="HE4" s="207"/>
+      <c r="HF4" s="207"/>
+      <c r="HG4" s="207"/>
+      <c r="HH4" s="207"/>
+      <c r="HI4" s="207"/>
+      <c r="HJ4" s="207"/>
+      <c r="HK4" s="207"/>
+      <c r="HL4" s="207"/>
+      <c r="HM4" s="207"/>
+      <c r="HN4" s="207"/>
+      <c r="HO4" s="207"/>
+      <c r="HP4" s="207"/>
+      <c r="HQ4" s="207"/>
+      <c r="HR4" s="207"/>
+      <c r="HS4" s="207"/>
+      <c r="HT4" s="207"/>
+      <c r="HU4" s="207"/>
+      <c r="HV4" s="206"/>
+      <c r="HW4" s="206"/>
+      <c r="HX4" s="206"/>
+      <c r="HY4" s="206"/>
+      <c r="HZ4" s="206"/>
+      <c r="IA4" s="206"/>
+      <c r="IB4" s="206"/>
+      <c r="IC4" s="206"/>
+      <c r="ID4" s="206"/>
+      <c r="IE4" s="206"/>
+      <c r="IF4" s="206"/>
+      <c r="IG4" s="206"/>
+      <c r="IH4" s="206"/>
+      <c r="II4" s="206"/>
+      <c r="IJ4" s="206"/>
+      <c r="IK4" s="206"/>
+      <c r="IL4" s="206"/>
+      <c r="IM4" s="206"/>
+      <c r="IN4" s="206"/>
+      <c r="IO4" s="206"/>
+      <c r="IP4" s="206"/>
+      <c r="IQ4" s="206"/>
+      <c r="IR4" s="206"/>
+      <c r="IS4" s="206"/>
+      <c r="IT4" s="206"/>
+      <c r="IU4" s="213"/>
+      <c r="IV4" s="213"/>
+      <c r="IW4" s="213"/>
+      <c r="IX4" s="213"/>
+      <c r="IY4" s="213"/>
+      <c r="IZ4" s="213"/>
+      <c r="JA4" s="213"/>
+      <c r="JB4" s="213"/>
+      <c r="JC4" s="213"/>
+      <c r="JD4" s="213"/>
+      <c r="JE4" s="207"/>
+      <c r="JF4" s="207"/>
+      <c r="JG4" s="207"/>
+      <c r="JH4" s="207"/>
+      <c r="JI4" s="207"/>
+      <c r="JJ4" s="207"/>
+      <c r="JK4" s="207"/>
+      <c r="JL4" s="207"/>
+      <c r="JM4" s="207"/>
+      <c r="JN4" s="207"/>
+      <c r="JO4" s="207"/>
+      <c r="JP4" s="207"/>
+      <c r="JQ4" s="207"/>
+      <c r="JR4" s="207"/>
+      <c r="JS4" s="207"/>
+      <c r="JT4" s="207"/>
+      <c r="JU4" s="207"/>
+      <c r="JV4" s="207"/>
+      <c r="JW4" s="207"/>
+      <c r="JX4" s="207"/>
+      <c r="JY4" s="207"/>
+      <c r="JZ4" s="207"/>
+      <c r="KA4" s="207"/>
+      <c r="KB4" s="207"/>
+      <c r="KC4" s="207"/>
+      <c r="KD4" s="207"/>
+      <c r="KE4" s="207"/>
+      <c r="KF4" s="207"/>
+      <c r="KG4" s="207"/>
+      <c r="KH4" s="207"/>
+      <c r="KI4" s="207"/>
+      <c r="KJ4" s="207"/>
+      <c r="KK4" s="207"/>
+      <c r="KL4" s="207"/>
+      <c r="KM4" s="207"/>
+      <c r="KN4" s="207"/>
+      <c r="KO4" s="207"/>
+      <c r="KP4" s="207"/>
+      <c r="KQ4" s="207"/>
+      <c r="KR4" s="207"/>
+      <c r="KS4" s="208"/>
+      <c r="KT4" s="208"/>
+      <c r="KU4" s="208"/>
+      <c r="KV4" s="208"/>
+      <c r="KW4" s="208"/>
+      <c r="KX4" s="208"/>
+      <c r="KY4" s="208"/>
+      <c r="KZ4" s="208"/>
+      <c r="LA4" s="208"/>
+      <c r="LB4" s="208"/>
+      <c r="LC4" s="208"/>
+      <c r="LD4" s="208"/>
+      <c r="LE4" s="208"/>
+      <c r="LF4" s="208"/>
+      <c r="LG4" s="208"/>
+      <c r="LH4" s="208"/>
+      <c r="LI4" s="208"/>
+      <c r="LJ4" s="208"/>
+      <c r="LK4" s="208"/>
+      <c r="LL4" s="208"/>
+      <c r="LM4" s="208"/>
+      <c r="LN4" s="208"/>
+      <c r="LO4" s="208"/>
+      <c r="LP4" s="208"/>
+      <c r="LQ4" s="208"/>
+      <c r="LR4" s="208"/>
+      <c r="LS4" s="208"/>
+      <c r="LT4" s="208"/>
+      <c r="LU4" s="208"/>
+      <c r="LV4" s="208"/>
+      <c r="LW4" s="208"/>
+      <c r="LX4" s="208"/>
+      <c r="LY4" s="208"/>
+      <c r="LZ4" s="208"/>
+      <c r="MA4" s="208"/>
+      <c r="MB4" s="208"/>
+      <c r="MC4" s="208"/>
+      <c r="MD4" s="208"/>
+      <c r="ME4" s="208"/>
+      <c r="MF4" s="208"/>
+      <c r="MG4" s="208"/>
+      <c r="MH4" s="208"/>
+      <c r="MI4" s="208"/>
+      <c r="MJ4" s="208"/>
+      <c r="MK4" s="208"/>
+      <c r="ML4" s="208"/>
+      <c r="MM4" s="208"/>
+      <c r="MN4" s="208"/>
+      <c r="MO4" s="208"/>
+      <c r="MP4" s="208"/>
+      <c r="MQ4" s="208"/>
+      <c r="MR4" s="208"/>
+      <c r="MS4" s="208"/>
+      <c r="MT4" s="208"/>
+      <c r="MU4" s="208"/>
+      <c r="MV4" s="208"/>
+      <c r="MW4" s="208"/>
+      <c r="MX4" s="208"/>
+      <c r="MY4" s="208"/>
+      <c r="MZ4" s="208"/>
+      <c r="NA4" s="208"/>
+      <c r="NB4" s="208"/>
+      <c r="NC4" s="208"/>
+      <c r="ND4" s="208"/>
+      <c r="NE4" s="208"/>
     </row>
     <row r="5" spans="1:369" s="107" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="209" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="72">
@@ -16910,10 +16911,10 @@
       </c>
     </row>
     <row r="6" spans="1:369" s="107" customFormat="1" ht="12.75">
-      <c r="A6" s="207"/>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="73">
         <f>E5</f>
         <v>41645</v>
@@ -22087,11 +22088,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="CB3:CZ4"/>
-    <mergeCell ref="DA3:DY4"/>
-    <mergeCell ref="DZ3:EX4"/>
-    <mergeCell ref="EY3:FW4"/>
-    <mergeCell ref="FX3:GV4"/>
     <mergeCell ref="MG3:NE4"/>
     <mergeCell ref="JE3:KR4"/>
     <mergeCell ref="A5:A6"/>
@@ -22108,6 +22104,11 @@
     <mergeCell ref="HV3:IT4"/>
     <mergeCell ref="KS3:LL4"/>
     <mergeCell ref="IU3:JD4"/>
+    <mergeCell ref="CB3:CZ4"/>
+    <mergeCell ref="DA3:DY4"/>
+    <mergeCell ref="DZ3:EX4"/>
+    <mergeCell ref="EY3:FW4"/>
+    <mergeCell ref="FX3:GV4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:NE6 AQ7:AQ8 IX7:IX8 JC7:JC8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 CE7:CE8 CJ7:CJ8 CO7:CO8 CT7:CT8 CY7:CY8 DD7:DD8 DI7:DI8 DN7:DN8 DS7:DS8 DX7:DX8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 JM7:JM8 JH7:JH8 JW7:JW8 JR7:JR8 EK7:EK8 CC7:CC8 DL7:DL8 N7:N8 EC7:EC8 EH7:EH8 EM7:EM8 ER7:ER8 EW7:EW8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8">
     <cfRule type="expression" dxfId="7" priority="135">
@@ -22151,7 +22152,7 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -22167,18 +22168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="176"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="177"/>
       <c r="AF1">
         <v>7</v>
       </c>
@@ -22187,40 +22188,40 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
-      <c r="A2" s="177"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="179"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="180"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="180"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="182"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="183"/>
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" ht="42.75">
       <c r="A6" s="19" t="s">
@@ -22551,14 +22552,14 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="117">
         <f ca="1">SUM(G7:G11)</f>
         <v>16</v>
@@ -22577,159 +22578,162 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="18.75">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="186">
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187">
         <f>SUM(Backlog!H:H)</f>
         <v>16</v>
       </c>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
     </row>
     <row r="16" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="190"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="190"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="190"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="190"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="193"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="190"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="190"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="190"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
-      <c r="B27" s="190"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B28" s="193"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickTop="1"/>
     <row r="32" spans="2:10">
       <c r="D32" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="155" t="s">
         <v>186</v>
       </c>
     </row>
@@ -22787,42 +22791,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E1" s="196" t="s">
+      <c r="E1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E2" s="198"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E3" s="198"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
     </row>
     <row r="5" spans="1:15" s="57" customFormat="1" ht="30">
       <c r="A5" s="51" t="s">
@@ -27383,11 +27387,11 @@
       </c>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="200" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°1</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -27688,8 +27692,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH($K$44,H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>16</v>
@@ -32984,11 +32988,11 @@
       <c r="I44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="203" t="str">
+      <c r="K44" s="204" t="str">
         <f>X4</f>
         <v/>
       </c>
-      <c r="L44" s="204"/>
+      <c r="L44" s="205"/>
       <c r="M44" s="21">
         <f ca="1">MATCH(K44,4:4,0)</f>
         <v>23</v>
@@ -33763,11 +33767,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="200" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°2</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -34068,8 +34072,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -40025,11 +40029,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="200" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°3</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -40330,8 +40334,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>
@@ -46287,11 +46291,11 @@
       <c r="BZ2" s="84"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="199" t="str">
+      <c r="B3" s="200" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°4</v>
       </c>
-      <c r="C3" s="200"/>
+      <c r="C3" s="201"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -46592,8 +46596,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
       <c r="D4" s="77">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>0</v>

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -720,9 +720,6 @@
     <t>SFD = ?</t>
   </si>
   <si>
-    <t>Sprint 2 affiche des 0 à la place de cases vides</t>
-  </si>
-  <si>
     <t>Dans les "Sprint". Bandeau noir avec l'avancement théorique ne fonctionne que sur le sprint 1</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
   </si>
   <si>
     <t>N° ToDo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affiche des 0 à la place de cases vides  </t>
   </si>
 </sst>
 </file>
@@ -23864,7 +23864,7 @@
   <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -24308,7 +24308,7 @@
     <row r="16" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B17" s="210" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="211"/>
       <c r="D17" s="187" t="s">
@@ -24319,7 +24319,7 @@
       <c r="G17" s="187"/>
       <c r="H17" s="187"/>
       <c r="I17" s="209" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J17" s="208"/>
     </row>
@@ -24368,7 +24368,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="206"/>
       <c r="F21" s="206"/>
@@ -24376,7 +24376,7 @@
       <c r="H21" s="206"/>
       <c r="I21" s="206"/>
       <c r="J21" s="207" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
@@ -24385,7 +24385,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="206"/>
       <c r="F22" s="206"/>
@@ -24393,7 +24393,7 @@
       <c r="H22" s="206"/>
       <c r="I22" s="206"/>
       <c r="J22" s="207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
@@ -24427,7 +24427,7 @@
       <c r="H24" s="206"/>
       <c r="I24" s="206"/>
       <c r="J24" s="207" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
@@ -24436,7 +24436,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="206" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E25" s="206"/>
       <c r="F25" s="206"/>
@@ -24444,7 +24444,7 @@
       <c r="H25" s="206"/>
       <c r="I25" s="206"/>
       <c r="J25" s="207" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13935" windowHeight="8370" tabRatio="824" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="13935" windowHeight="8370" tabRatio="824" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -5083,15 +5083,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>79945</xdr:colOff>
+      <xdr:colOff>44226</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
+      <xdr:rowOff>90147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>426927</xdr:colOff>
+      <xdr:colOff>391208</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
+      <xdr:rowOff>90147</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23863,8 +23863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -24526,7 +24526,7 @@
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -30703,8 +30703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="13935" windowHeight="8370" tabRatio="824" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12690" windowHeight="7755" tabRatio="824" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="210">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -262,12 +262,6 @@
   </si>
   <si>
     <t>Fonction getParcoursArchitectureById</t>
-  </si>
-  <si>
-    <t>Fonction user.getAuthToken</t>
-  </si>
-  <si>
-    <t>Fonction user.getAccessToken</t>
   </si>
   <si>
     <t>Fonction getParcoursById</t>
@@ -688,6 +682,12 @@
   </si>
   <si>
     <t>??????</t>
+  </si>
+  <si>
+    <t>Implémentation Oauth2</t>
+  </si>
+  <si>
+    <t>Gestion des utilisateurs autorisés</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1822,31 +1822,12 @@
     <xf numFmtId="0" fontId="49" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1882,6 +1863,26 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1984,9 +1985,6 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,6 +1993,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2721,11 +2722,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120899456"/>
-        <c:axId val="120900992"/>
+        <c:axId val="122132352"/>
+        <c:axId val="122133888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120899456"/>
+        <c:axId val="122132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,14 +2734,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120900992"/>
+        <c:crossAx val="122133888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120900992"/>
+        <c:axId val="122133888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2755,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="120899456"/>
+        <c:crossAx val="122132352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,7 +2769,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000866" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000866" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000899" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000899" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3104,11 +3105,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122882304"/>
-        <c:axId val="122896384"/>
+        <c:axId val="122909440"/>
+        <c:axId val="122910976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122882304"/>
+        <c:axId val="122909440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,14 +3117,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122896384"/>
+        <c:crossAx val="122910976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122896384"/>
+        <c:axId val="122910976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3138,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122882304"/>
+        <c:crossAx val="122909440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000888" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000888" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000921" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000921" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3177,6 +3178,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3467,11 +3469,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122581760"/>
-        <c:axId val="122583296"/>
+        <c:axId val="122817536"/>
+        <c:axId val="122839808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="122581760"/>
+        <c:axId val="122817536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,14 +3481,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122583296"/>
+        <c:crossAx val="122839808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122583296"/>
+        <c:axId val="122839808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,20 +3502,21 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122581760"/>
+        <c:crossAx val="122817536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000091" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000091" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000944" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000944" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3539,6 +3542,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3911,11 +3915,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123316864"/>
-        <c:axId val="123076992"/>
+        <c:axId val="123254272"/>
+        <c:axId val="123255808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123316864"/>
+        <c:axId val="123254272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,14 +3927,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123076992"/>
+        <c:crossAx val="123255808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123076992"/>
+        <c:axId val="123255808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,20 +3948,21 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123316864"/>
+        <c:crossAx val="123254272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000933" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000933" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000966" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000966" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3983,6 +3988,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4355,11 +4361,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123532416"/>
-        <c:axId val="123533952"/>
+        <c:axId val="123284864"/>
+        <c:axId val="123556992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123532416"/>
+        <c:axId val="123284864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,14 +4373,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123533952"/>
+        <c:crossAx val="123556992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123533952"/>
+        <c:axId val="123556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,20 +4394,21 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123532416"/>
+        <c:crossAx val="123284864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000955" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000955" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000988" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000988" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4954,17 +4961,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -4973,15 +4980,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -4990,15 +4997,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5073,55 +5080,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="168"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="164"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="171"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="167"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="174"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="170"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5143,341 +5150,341 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175" t="s">
+      <c r="C14" s="171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175" t="s">
+      <c r="I14" s="171"/>
+      <c r="J14" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="159">
+      <c r="C15" s="173">
         <v>41723</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="158" t="s">
+      <c r="D15" s="174"/>
+      <c r="E15" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158" t="s">
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="164" t="s">
+      <c r="I15" s="172"/>
+      <c r="J15" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="5"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="5"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="5"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="5"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="5"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="5"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="5"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="5"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="5"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="5"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
@@ -5501,38 +5508,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
@@ -5549,36 +5554,38 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="60" priority="1">
@@ -6208,11 +6215,11 @@
       <c r="BZ2" s="79"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°5</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -6513,8 +6520,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>50</v>
@@ -14638,812 +14645,812 @@
       <c r="B3" s="213"/>
       <c r="C3" s="213"/>
       <c r="D3" s="213"/>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="211" t="s">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="211"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="211"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
-      <c r="AG3" s="211"/>
-      <c r="AH3" s="211"/>
-      <c r="AI3" s="210" t="s">
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="210"/>
-      <c r="AK3" s="210"/>
-      <c r="AL3" s="210"/>
-      <c r="AM3" s="210"/>
-      <c r="AN3" s="210"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="210"/>
-      <c r="AQ3" s="210"/>
-      <c r="AR3" s="210"/>
-      <c r="AS3" s="210"/>
-      <c r="AT3" s="210"/>
-      <c r="AU3" s="210"/>
-      <c r="AV3" s="210"/>
-      <c r="AW3" s="210"/>
-      <c r="AX3" s="211" t="s">
+      <c r="AJ3" s="211"/>
+      <c r="AK3" s="211"/>
+      <c r="AL3" s="211"/>
+      <c r="AM3" s="211"/>
+      <c r="AN3" s="211"/>
+      <c r="AO3" s="211"/>
+      <c r="AP3" s="211"/>
+      <c r="AQ3" s="211"/>
+      <c r="AR3" s="211"/>
+      <c r="AS3" s="211"/>
+      <c r="AT3" s="211"/>
+      <c r="AU3" s="211"/>
+      <c r="AV3" s="211"/>
+      <c r="AW3" s="211"/>
+      <c r="AX3" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" s="211"/>
-      <c r="AZ3" s="211"/>
-      <c r="BA3" s="211"/>
-      <c r="BB3" s="211"/>
-      <c r="BC3" s="211"/>
-      <c r="BD3" s="211"/>
-      <c r="BE3" s="211"/>
-      <c r="BF3" s="211"/>
-      <c r="BG3" s="211"/>
-      <c r="BH3" s="211"/>
-      <c r="BI3" s="211"/>
-      <c r="BJ3" s="211"/>
-      <c r="BK3" s="211"/>
-      <c r="BL3" s="211"/>
-      <c r="BM3" s="210" t="s">
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="215"/>
+      <c r="BB3" s="215"/>
+      <c r="BC3" s="215"/>
+      <c r="BD3" s="215"/>
+      <c r="BE3" s="215"/>
+      <c r="BF3" s="215"/>
+      <c r="BG3" s="215"/>
+      <c r="BH3" s="215"/>
+      <c r="BI3" s="215"/>
+      <c r="BJ3" s="215"/>
+      <c r="BK3" s="215"/>
+      <c r="BL3" s="215"/>
+      <c r="BM3" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="BN3" s="210"/>
-      <c r="BO3" s="210"/>
-      <c r="BP3" s="210"/>
-      <c r="BQ3" s="210"/>
-      <c r="BR3" s="210"/>
-      <c r="BS3" s="210"/>
-      <c r="BT3" s="210"/>
-      <c r="BU3" s="210"/>
-      <c r="BV3" s="210"/>
-      <c r="BW3" s="210"/>
-      <c r="BX3" s="210"/>
-      <c r="BY3" s="210"/>
-      <c r="BZ3" s="210"/>
-      <c r="CA3" s="210"/>
-      <c r="CB3" s="211" t="s">
+      <c r="BN3" s="211"/>
+      <c r="BO3" s="211"/>
+      <c r="BP3" s="211"/>
+      <c r="BQ3" s="211"/>
+      <c r="BR3" s="211"/>
+      <c r="BS3" s="211"/>
+      <c r="BT3" s="211"/>
+      <c r="BU3" s="211"/>
+      <c r="BV3" s="211"/>
+      <c r="BW3" s="211"/>
+      <c r="BX3" s="211"/>
+      <c r="BY3" s="211"/>
+      <c r="BZ3" s="211"/>
+      <c r="CA3" s="211"/>
+      <c r="CB3" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="211"/>
-      <c r="CD3" s="211"/>
-      <c r="CE3" s="211"/>
-      <c r="CF3" s="211"/>
-      <c r="CG3" s="211"/>
-      <c r="CH3" s="211"/>
-      <c r="CI3" s="211"/>
-      <c r="CJ3" s="211"/>
-      <c r="CK3" s="211"/>
-      <c r="CL3" s="211"/>
-      <c r="CM3" s="211"/>
-      <c r="CN3" s="211"/>
-      <c r="CO3" s="211"/>
-      <c r="CP3" s="211"/>
-      <c r="CQ3" s="210" t="s">
+      <c r="CC3" s="215"/>
+      <c r="CD3" s="215"/>
+      <c r="CE3" s="215"/>
+      <c r="CF3" s="215"/>
+      <c r="CG3" s="215"/>
+      <c r="CH3" s="215"/>
+      <c r="CI3" s="215"/>
+      <c r="CJ3" s="215"/>
+      <c r="CK3" s="215"/>
+      <c r="CL3" s="215"/>
+      <c r="CM3" s="215"/>
+      <c r="CN3" s="215"/>
+      <c r="CO3" s="215"/>
+      <c r="CP3" s="215"/>
+      <c r="CQ3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="CR3" s="210"/>
-      <c r="CS3" s="210"/>
-      <c r="CT3" s="210"/>
-      <c r="CU3" s="210"/>
-      <c r="CV3" s="210"/>
-      <c r="CW3" s="210"/>
-      <c r="CX3" s="210"/>
-      <c r="CY3" s="210"/>
-      <c r="CZ3" s="210"/>
-      <c r="DA3" s="210"/>
-      <c r="DB3" s="210"/>
-      <c r="DC3" s="210"/>
-      <c r="DD3" s="210"/>
-      <c r="DE3" s="210"/>
-      <c r="DF3" s="210" t="s">
+      <c r="CR3" s="211"/>
+      <c r="CS3" s="211"/>
+      <c r="CT3" s="211"/>
+      <c r="CU3" s="211"/>
+      <c r="CV3" s="211"/>
+      <c r="CW3" s="211"/>
+      <c r="CX3" s="211"/>
+      <c r="CY3" s="211"/>
+      <c r="CZ3" s="211"/>
+      <c r="DA3" s="211"/>
+      <c r="DB3" s="211"/>
+      <c r="DC3" s="211"/>
+      <c r="DD3" s="211"/>
+      <c r="DE3" s="211"/>
+      <c r="DF3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="DG3" s="210"/>
-      <c r="DH3" s="210"/>
-      <c r="DI3" s="210"/>
-      <c r="DJ3" s="210"/>
-      <c r="DK3" s="210"/>
-      <c r="DL3" s="210"/>
-      <c r="DM3" s="210"/>
-      <c r="DN3" s="210"/>
-      <c r="DO3" s="210"/>
-      <c r="DP3" s="210"/>
-      <c r="DQ3" s="210"/>
-      <c r="DR3" s="210"/>
-      <c r="DS3" s="210"/>
-      <c r="DT3" s="210"/>
-      <c r="DU3" s="210" t="s">
+      <c r="DG3" s="211"/>
+      <c r="DH3" s="211"/>
+      <c r="DI3" s="211"/>
+      <c r="DJ3" s="211"/>
+      <c r="DK3" s="211"/>
+      <c r="DL3" s="211"/>
+      <c r="DM3" s="211"/>
+      <c r="DN3" s="211"/>
+      <c r="DO3" s="211"/>
+      <c r="DP3" s="211"/>
+      <c r="DQ3" s="211"/>
+      <c r="DR3" s="211"/>
+      <c r="DS3" s="211"/>
+      <c r="DT3" s="211"/>
+      <c r="DU3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="DV3" s="210"/>
-      <c r="DW3" s="210"/>
-      <c r="DX3" s="210"/>
-      <c r="DY3" s="210"/>
-      <c r="DZ3" s="210"/>
-      <c r="EA3" s="210"/>
-      <c r="EB3" s="210"/>
-      <c r="EC3" s="210"/>
-      <c r="ED3" s="210"/>
-      <c r="EE3" s="210"/>
-      <c r="EF3" s="210"/>
-      <c r="EG3" s="210"/>
-      <c r="EH3" s="210"/>
-      <c r="EI3" s="210"/>
-      <c r="EJ3" s="210" t="s">
+      <c r="DV3" s="211"/>
+      <c r="DW3" s="211"/>
+      <c r="DX3" s="211"/>
+      <c r="DY3" s="211"/>
+      <c r="DZ3" s="211"/>
+      <c r="EA3" s="211"/>
+      <c r="EB3" s="211"/>
+      <c r="EC3" s="211"/>
+      <c r="ED3" s="211"/>
+      <c r="EE3" s="211"/>
+      <c r="EF3" s="211"/>
+      <c r="EG3" s="211"/>
+      <c r="EH3" s="211"/>
+      <c r="EI3" s="211"/>
+      <c r="EJ3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="EK3" s="210"/>
-      <c r="EL3" s="210"/>
-      <c r="EM3" s="210"/>
-      <c r="EN3" s="210"/>
-      <c r="EO3" s="210"/>
-      <c r="EP3" s="210"/>
-      <c r="EQ3" s="210"/>
-      <c r="ER3" s="210"/>
-      <c r="ES3" s="210"/>
-      <c r="ET3" s="210"/>
-      <c r="EU3" s="210"/>
-      <c r="EV3" s="210"/>
-      <c r="EW3" s="210"/>
-      <c r="EX3" s="210"/>
-      <c r="EY3" s="210" t="s">
+      <c r="EK3" s="211"/>
+      <c r="EL3" s="211"/>
+      <c r="EM3" s="211"/>
+      <c r="EN3" s="211"/>
+      <c r="EO3" s="211"/>
+      <c r="EP3" s="211"/>
+      <c r="EQ3" s="211"/>
+      <c r="ER3" s="211"/>
+      <c r="ES3" s="211"/>
+      <c r="ET3" s="211"/>
+      <c r="EU3" s="211"/>
+      <c r="EV3" s="211"/>
+      <c r="EW3" s="211"/>
+      <c r="EX3" s="211"/>
+      <c r="EY3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="EZ3" s="210"/>
-      <c r="FA3" s="210"/>
-      <c r="FB3" s="210"/>
-      <c r="FC3" s="210"/>
-      <c r="FD3" s="210"/>
-      <c r="FE3" s="210"/>
-      <c r="FF3" s="210"/>
-      <c r="FG3" s="210"/>
-      <c r="FH3" s="210"/>
-      <c r="FI3" s="210"/>
-      <c r="FJ3" s="210"/>
-      <c r="FK3" s="210"/>
-      <c r="FL3" s="210"/>
-      <c r="FM3" s="210"/>
-      <c r="FN3" s="210" t="s">
+      <c r="EZ3" s="211"/>
+      <c r="FA3" s="211"/>
+      <c r="FB3" s="211"/>
+      <c r="FC3" s="211"/>
+      <c r="FD3" s="211"/>
+      <c r="FE3" s="211"/>
+      <c r="FF3" s="211"/>
+      <c r="FG3" s="211"/>
+      <c r="FH3" s="211"/>
+      <c r="FI3" s="211"/>
+      <c r="FJ3" s="211"/>
+      <c r="FK3" s="211"/>
+      <c r="FL3" s="211"/>
+      <c r="FM3" s="211"/>
+      <c r="FN3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="FO3" s="210"/>
-      <c r="FP3" s="210"/>
-      <c r="FQ3" s="210"/>
-      <c r="FR3" s="210"/>
-      <c r="FS3" s="210"/>
-      <c r="FT3" s="210"/>
-      <c r="FU3" s="210"/>
-      <c r="FV3" s="210"/>
-      <c r="FW3" s="210"/>
-      <c r="FX3" s="210"/>
-      <c r="FY3" s="210"/>
-      <c r="FZ3" s="210"/>
-      <c r="GA3" s="210"/>
-      <c r="GB3" s="210"/>
-      <c r="GC3" s="210" t="s">
+      <c r="FO3" s="211"/>
+      <c r="FP3" s="211"/>
+      <c r="FQ3" s="211"/>
+      <c r="FR3" s="211"/>
+      <c r="FS3" s="211"/>
+      <c r="FT3" s="211"/>
+      <c r="FU3" s="211"/>
+      <c r="FV3" s="211"/>
+      <c r="FW3" s="211"/>
+      <c r="FX3" s="211"/>
+      <c r="FY3" s="211"/>
+      <c r="FZ3" s="211"/>
+      <c r="GA3" s="211"/>
+      <c r="GB3" s="211"/>
+      <c r="GC3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="GD3" s="210"/>
-      <c r="GE3" s="210"/>
-      <c r="GF3" s="210"/>
-      <c r="GG3" s="210"/>
-      <c r="GH3" s="210"/>
-      <c r="GI3" s="210"/>
-      <c r="GJ3" s="210"/>
-      <c r="GK3" s="210"/>
-      <c r="GL3" s="210"/>
-      <c r="GM3" s="210"/>
-      <c r="GN3" s="210"/>
-      <c r="GO3" s="210"/>
-      <c r="GP3" s="210"/>
-      <c r="GQ3" s="210"/>
-      <c r="GR3" s="210" t="s">
+      <c r="GD3" s="211"/>
+      <c r="GE3" s="211"/>
+      <c r="GF3" s="211"/>
+      <c r="GG3" s="211"/>
+      <c r="GH3" s="211"/>
+      <c r="GI3" s="211"/>
+      <c r="GJ3" s="211"/>
+      <c r="GK3" s="211"/>
+      <c r="GL3" s="211"/>
+      <c r="GM3" s="211"/>
+      <c r="GN3" s="211"/>
+      <c r="GO3" s="211"/>
+      <c r="GP3" s="211"/>
+      <c r="GQ3" s="211"/>
+      <c r="GR3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="GS3" s="210"/>
-      <c r="GT3" s="210"/>
-      <c r="GU3" s="210"/>
-      <c r="GV3" s="210"/>
-      <c r="GW3" s="210"/>
-      <c r="GX3" s="210"/>
-      <c r="GY3" s="210"/>
-      <c r="GZ3" s="210"/>
-      <c r="HA3" s="210"/>
-      <c r="HB3" s="210"/>
-      <c r="HC3" s="210"/>
-      <c r="HD3" s="210"/>
-      <c r="HE3" s="210"/>
-      <c r="HF3" s="210"/>
-      <c r="HG3" s="210" t="s">
+      <c r="GS3" s="211"/>
+      <c r="GT3" s="211"/>
+      <c r="GU3" s="211"/>
+      <c r="GV3" s="211"/>
+      <c r="GW3" s="211"/>
+      <c r="GX3" s="211"/>
+      <c r="GY3" s="211"/>
+      <c r="GZ3" s="211"/>
+      <c r="HA3" s="211"/>
+      <c r="HB3" s="211"/>
+      <c r="HC3" s="211"/>
+      <c r="HD3" s="211"/>
+      <c r="HE3" s="211"/>
+      <c r="HF3" s="211"/>
+      <c r="HG3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="HH3" s="210"/>
-      <c r="HI3" s="210"/>
-      <c r="HJ3" s="210"/>
-      <c r="HK3" s="210"/>
-      <c r="HL3" s="210"/>
-      <c r="HM3" s="210"/>
-      <c r="HN3" s="210"/>
-      <c r="HO3" s="210"/>
-      <c r="HP3" s="210"/>
-      <c r="HQ3" s="210"/>
-      <c r="HR3" s="210"/>
-      <c r="HS3" s="210"/>
-      <c r="HT3" s="210"/>
-      <c r="HU3" s="210"/>
-      <c r="HV3" s="210" t="s">
+      <c r="HH3" s="211"/>
+      <c r="HI3" s="211"/>
+      <c r="HJ3" s="211"/>
+      <c r="HK3" s="211"/>
+      <c r="HL3" s="211"/>
+      <c r="HM3" s="211"/>
+      <c r="HN3" s="211"/>
+      <c r="HO3" s="211"/>
+      <c r="HP3" s="211"/>
+      <c r="HQ3" s="211"/>
+      <c r="HR3" s="211"/>
+      <c r="HS3" s="211"/>
+      <c r="HT3" s="211"/>
+      <c r="HU3" s="211"/>
+      <c r="HV3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="HW3" s="210"/>
-      <c r="HX3" s="210"/>
-      <c r="HY3" s="210"/>
-      <c r="HZ3" s="210"/>
-      <c r="IA3" s="210"/>
-      <c r="IB3" s="210"/>
-      <c r="IC3" s="210"/>
-      <c r="ID3" s="210"/>
-      <c r="IE3" s="210"/>
-      <c r="IF3" s="210"/>
-      <c r="IG3" s="210"/>
-      <c r="IH3" s="210"/>
-      <c r="II3" s="210"/>
-      <c r="IJ3" s="210"/>
-      <c r="IK3" s="210" t="s">
+      <c r="HW3" s="211"/>
+      <c r="HX3" s="211"/>
+      <c r="HY3" s="211"/>
+      <c r="HZ3" s="211"/>
+      <c r="IA3" s="211"/>
+      <c r="IB3" s="211"/>
+      <c r="IC3" s="211"/>
+      <c r="ID3" s="211"/>
+      <c r="IE3" s="211"/>
+      <c r="IF3" s="211"/>
+      <c r="IG3" s="211"/>
+      <c r="IH3" s="211"/>
+      <c r="II3" s="211"/>
+      <c r="IJ3" s="211"/>
+      <c r="IK3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="IL3" s="210"/>
-      <c r="IM3" s="210"/>
-      <c r="IN3" s="210"/>
-      <c r="IO3" s="210"/>
-      <c r="IP3" s="210"/>
-      <c r="IQ3" s="210"/>
-      <c r="IR3" s="210"/>
-      <c r="IS3" s="210"/>
-      <c r="IT3" s="210"/>
-      <c r="IU3" s="210"/>
-      <c r="IV3" s="210"/>
-      <c r="IW3" s="210"/>
-      <c r="IX3" s="210"/>
-      <c r="IY3" s="210"/>
-      <c r="IZ3" s="210" t="s">
+      <c r="IL3" s="211"/>
+      <c r="IM3" s="211"/>
+      <c r="IN3" s="211"/>
+      <c r="IO3" s="211"/>
+      <c r="IP3" s="211"/>
+      <c r="IQ3" s="211"/>
+      <c r="IR3" s="211"/>
+      <c r="IS3" s="211"/>
+      <c r="IT3" s="211"/>
+      <c r="IU3" s="211"/>
+      <c r="IV3" s="211"/>
+      <c r="IW3" s="211"/>
+      <c r="IX3" s="211"/>
+      <c r="IY3" s="211"/>
+      <c r="IZ3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="JA3" s="210"/>
-      <c r="JB3" s="210"/>
-      <c r="JC3" s="210"/>
-      <c r="JD3" s="210"/>
-      <c r="JE3" s="210"/>
-      <c r="JF3" s="210"/>
-      <c r="JG3" s="210"/>
-      <c r="JH3" s="210"/>
-      <c r="JI3" s="210"/>
-      <c r="JJ3" s="210"/>
-      <c r="JK3" s="210"/>
-      <c r="JL3" s="210"/>
-      <c r="JM3" s="210"/>
-      <c r="JN3" s="210"/>
-      <c r="JO3" s="210" t="s">
+      <c r="JA3" s="211"/>
+      <c r="JB3" s="211"/>
+      <c r="JC3" s="211"/>
+      <c r="JD3" s="211"/>
+      <c r="JE3" s="211"/>
+      <c r="JF3" s="211"/>
+      <c r="JG3" s="211"/>
+      <c r="JH3" s="211"/>
+      <c r="JI3" s="211"/>
+      <c r="JJ3" s="211"/>
+      <c r="JK3" s="211"/>
+      <c r="JL3" s="211"/>
+      <c r="JM3" s="211"/>
+      <c r="JN3" s="211"/>
+      <c r="JO3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="JP3" s="210"/>
-      <c r="JQ3" s="210"/>
-      <c r="JR3" s="210"/>
-      <c r="JS3" s="210"/>
-      <c r="JT3" s="210"/>
-      <c r="JU3" s="210"/>
-      <c r="JV3" s="210"/>
-      <c r="JW3" s="210"/>
-      <c r="JX3" s="210"/>
-      <c r="JY3" s="210"/>
-      <c r="JZ3" s="210"/>
-      <c r="KA3" s="210"/>
-      <c r="KB3" s="210"/>
-      <c r="KC3" s="210"/>
-      <c r="KD3" s="210" t="s">
+      <c r="JP3" s="211"/>
+      <c r="JQ3" s="211"/>
+      <c r="JR3" s="211"/>
+      <c r="JS3" s="211"/>
+      <c r="JT3" s="211"/>
+      <c r="JU3" s="211"/>
+      <c r="JV3" s="211"/>
+      <c r="JW3" s="211"/>
+      <c r="JX3" s="211"/>
+      <c r="JY3" s="211"/>
+      <c r="JZ3" s="211"/>
+      <c r="KA3" s="211"/>
+      <c r="KB3" s="211"/>
+      <c r="KC3" s="211"/>
+      <c r="KD3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="KE3" s="210"/>
-      <c r="KF3" s="210"/>
-      <c r="KG3" s="210"/>
-      <c r="KH3" s="210"/>
-      <c r="KI3" s="210"/>
-      <c r="KJ3" s="210"/>
-      <c r="KK3" s="210"/>
-      <c r="KL3" s="210"/>
-      <c r="KM3" s="210"/>
-      <c r="KN3" s="210"/>
-      <c r="KO3" s="210"/>
-      <c r="KP3" s="210"/>
-      <c r="KQ3" s="210"/>
-      <c r="KR3" s="210"/>
-      <c r="KS3" s="210" t="s">
+      <c r="KE3" s="211"/>
+      <c r="KF3" s="211"/>
+      <c r="KG3" s="211"/>
+      <c r="KH3" s="211"/>
+      <c r="KI3" s="211"/>
+      <c r="KJ3" s="211"/>
+      <c r="KK3" s="211"/>
+      <c r="KL3" s="211"/>
+      <c r="KM3" s="211"/>
+      <c r="KN3" s="211"/>
+      <c r="KO3" s="211"/>
+      <c r="KP3" s="211"/>
+      <c r="KQ3" s="211"/>
+      <c r="KR3" s="211"/>
+      <c r="KS3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="KT3" s="210"/>
-      <c r="KU3" s="210"/>
-      <c r="KV3" s="210"/>
-      <c r="KW3" s="210"/>
-      <c r="KX3" s="210"/>
-      <c r="KY3" s="210"/>
-      <c r="KZ3" s="210"/>
-      <c r="LA3" s="210"/>
-      <c r="LB3" s="210"/>
-      <c r="LC3" s="210"/>
-      <c r="LD3" s="210"/>
-      <c r="LE3" s="210"/>
-      <c r="LF3" s="210"/>
-      <c r="LG3" s="210"/>
-      <c r="LH3" s="210" t="s">
+      <c r="KT3" s="211"/>
+      <c r="KU3" s="211"/>
+      <c r="KV3" s="211"/>
+      <c r="KW3" s="211"/>
+      <c r="KX3" s="211"/>
+      <c r="KY3" s="211"/>
+      <c r="KZ3" s="211"/>
+      <c r="LA3" s="211"/>
+      <c r="LB3" s="211"/>
+      <c r="LC3" s="211"/>
+      <c r="LD3" s="211"/>
+      <c r="LE3" s="211"/>
+      <c r="LF3" s="211"/>
+      <c r="LG3" s="211"/>
+      <c r="LH3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="LI3" s="210"/>
-      <c r="LJ3" s="210"/>
-      <c r="LK3" s="210"/>
-      <c r="LL3" s="210"/>
-      <c r="LM3" s="210"/>
-      <c r="LN3" s="210"/>
-      <c r="LO3" s="210"/>
-      <c r="LP3" s="210"/>
-      <c r="LQ3" s="210"/>
-      <c r="LR3" s="210"/>
-      <c r="LS3" s="210"/>
-      <c r="LT3" s="210"/>
-      <c r="LU3" s="210"/>
-      <c r="LV3" s="210"/>
-      <c r="LW3" s="210" t="s">
+      <c r="LI3" s="211"/>
+      <c r="LJ3" s="211"/>
+      <c r="LK3" s="211"/>
+      <c r="LL3" s="211"/>
+      <c r="LM3" s="211"/>
+      <c r="LN3" s="211"/>
+      <c r="LO3" s="211"/>
+      <c r="LP3" s="211"/>
+      <c r="LQ3" s="211"/>
+      <c r="LR3" s="211"/>
+      <c r="LS3" s="211"/>
+      <c r="LT3" s="211"/>
+      <c r="LU3" s="211"/>
+      <c r="LV3" s="211"/>
+      <c r="LW3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="LX3" s="210"/>
-      <c r="LY3" s="210"/>
-      <c r="LZ3" s="210"/>
-      <c r="MA3" s="210"/>
-      <c r="MB3" s="210"/>
-      <c r="MC3" s="210"/>
-      <c r="MD3" s="210"/>
-      <c r="ME3" s="210"/>
-      <c r="MF3" s="210"/>
-      <c r="MG3" s="210"/>
-      <c r="MH3" s="210"/>
-      <c r="MI3" s="210"/>
-      <c r="MJ3" s="210"/>
-      <c r="MK3" s="210"/>
-      <c r="ML3" s="210" t="s">
+      <c r="LX3" s="211"/>
+      <c r="LY3" s="211"/>
+      <c r="LZ3" s="211"/>
+      <c r="MA3" s="211"/>
+      <c r="MB3" s="211"/>
+      <c r="MC3" s="211"/>
+      <c r="MD3" s="211"/>
+      <c r="ME3" s="211"/>
+      <c r="MF3" s="211"/>
+      <c r="MG3" s="211"/>
+      <c r="MH3" s="211"/>
+      <c r="MI3" s="211"/>
+      <c r="MJ3" s="211"/>
+      <c r="MK3" s="211"/>
+      <c r="ML3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="MM3" s="210"/>
-      <c r="MN3" s="210"/>
-      <c r="MO3" s="210"/>
-      <c r="MP3" s="210"/>
-      <c r="MQ3" s="210"/>
-      <c r="MR3" s="210"/>
-      <c r="MS3" s="210"/>
-      <c r="MT3" s="210"/>
-      <c r="MU3" s="210"/>
-      <c r="MV3" s="210"/>
-      <c r="MW3" s="210"/>
-      <c r="MX3" s="210"/>
-      <c r="MY3" s="210"/>
-      <c r="MZ3" s="210"/>
-      <c r="NA3" s="210" t="s">
+      <c r="MM3" s="211"/>
+      <c r="MN3" s="211"/>
+      <c r="MO3" s="211"/>
+      <c r="MP3" s="211"/>
+      <c r="MQ3" s="211"/>
+      <c r="MR3" s="211"/>
+      <c r="MS3" s="211"/>
+      <c r="MT3" s="211"/>
+      <c r="MU3" s="211"/>
+      <c r="MV3" s="211"/>
+      <c r="MW3" s="211"/>
+      <c r="MX3" s="211"/>
+      <c r="MY3" s="211"/>
+      <c r="MZ3" s="211"/>
+      <c r="NA3" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="NB3" s="210"/>
-      <c r="NC3" s="210"/>
-      <c r="ND3" s="210"/>
-      <c r="NE3" s="210"/>
-      <c r="NF3" s="210"/>
-      <c r="NG3" s="210"/>
-      <c r="NH3" s="210"/>
-      <c r="NI3" s="210"/>
-      <c r="NJ3" s="210"/>
-      <c r="NK3" s="210"/>
-      <c r="NL3" s="210"/>
-      <c r="NM3" s="210"/>
-      <c r="NN3" s="210"/>
-      <c r="NO3" s="210"/>
+      <c r="NB3" s="211"/>
+      <c r="NC3" s="211"/>
+      <c r="ND3" s="211"/>
+      <c r="NE3" s="211"/>
+      <c r="NF3" s="211"/>
+      <c r="NG3" s="211"/>
+      <c r="NH3" s="211"/>
+      <c r="NI3" s="211"/>
+      <c r="NJ3" s="211"/>
+      <c r="NK3" s="211"/>
+      <c r="NL3" s="211"/>
+      <c r="NM3" s="211"/>
+      <c r="NN3" s="211"/>
+      <c r="NO3" s="211"/>
     </row>
     <row r="4" spans="1:379" s="101" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="214"/>
       <c r="B4" s="214"/>
       <c r="C4" s="214"/>
       <c r="D4" s="214"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="211"/>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="211"/>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="211"/>
-      <c r="AB4" s="211"/>
-      <c r="AC4" s="211"/>
-      <c r="AD4" s="211"/>
-      <c r="AE4" s="211"/>
-      <c r="AF4" s="211"/>
-      <c r="AG4" s="211"/>
-      <c r="AH4" s="211"/>
-      <c r="AI4" s="210"/>
-      <c r="AJ4" s="210"/>
-      <c r="AK4" s="210"/>
-      <c r="AL4" s="210"/>
-      <c r="AM4" s="210"/>
-      <c r="AN4" s="210"/>
-      <c r="AO4" s="210"/>
-      <c r="AP4" s="210"/>
-      <c r="AQ4" s="210"/>
-      <c r="AR4" s="210"/>
-      <c r="AS4" s="210"/>
-      <c r="AT4" s="210"/>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="211"/>
-      <c r="BD4" s="211"/>
-      <c r="BE4" s="211"/>
-      <c r="BF4" s="211"/>
-      <c r="BG4" s="211"/>
-      <c r="BH4" s="211"/>
-      <c r="BI4" s="211"/>
-      <c r="BJ4" s="211"/>
-      <c r="BK4" s="211"/>
-      <c r="BL4" s="211"/>
-      <c r="BM4" s="210"/>
-      <c r="BN4" s="210"/>
-      <c r="BO4" s="210"/>
-      <c r="BP4" s="210"/>
-      <c r="BQ4" s="210"/>
-      <c r="BR4" s="210"/>
-      <c r="BS4" s="210"/>
-      <c r="BT4" s="210"/>
-      <c r="BU4" s="210"/>
-      <c r="BV4" s="210"/>
-      <c r="BW4" s="210"/>
-      <c r="BX4" s="210"/>
-      <c r="BY4" s="210"/>
-      <c r="BZ4" s="210"/>
-      <c r="CA4" s="210"/>
-      <c r="CB4" s="211"/>
-      <c r="CC4" s="211"/>
-      <c r="CD4" s="211"/>
-      <c r="CE4" s="211"/>
-      <c r="CF4" s="211"/>
-      <c r="CG4" s="211"/>
-      <c r="CH4" s="211"/>
-      <c r="CI4" s="211"/>
-      <c r="CJ4" s="211"/>
-      <c r="CK4" s="211"/>
-      <c r="CL4" s="211"/>
-      <c r="CM4" s="211"/>
-      <c r="CN4" s="211"/>
-      <c r="CO4" s="211"/>
-      <c r="CP4" s="211"/>
-      <c r="CQ4" s="210"/>
-      <c r="CR4" s="210"/>
-      <c r="CS4" s="210"/>
-      <c r="CT4" s="210"/>
-      <c r="CU4" s="210"/>
-      <c r="CV4" s="210"/>
-      <c r="CW4" s="210"/>
-      <c r="CX4" s="210"/>
-      <c r="CY4" s="210"/>
-      <c r="CZ4" s="210"/>
-      <c r="DA4" s="210"/>
-      <c r="DB4" s="210"/>
-      <c r="DC4" s="210"/>
-      <c r="DD4" s="210"/>
-      <c r="DE4" s="210"/>
-      <c r="DF4" s="210"/>
-      <c r="DG4" s="210"/>
-      <c r="DH4" s="210"/>
-      <c r="DI4" s="210"/>
-      <c r="DJ4" s="210"/>
-      <c r="DK4" s="210"/>
-      <c r="DL4" s="210"/>
-      <c r="DM4" s="210"/>
-      <c r="DN4" s="210"/>
-      <c r="DO4" s="210"/>
-      <c r="DP4" s="210"/>
-      <c r="DQ4" s="210"/>
-      <c r="DR4" s="210"/>
-      <c r="DS4" s="210"/>
-      <c r="DT4" s="210"/>
-      <c r="DU4" s="210"/>
-      <c r="DV4" s="210"/>
-      <c r="DW4" s="210"/>
-      <c r="DX4" s="210"/>
-      <c r="DY4" s="210"/>
-      <c r="DZ4" s="210"/>
-      <c r="EA4" s="210"/>
-      <c r="EB4" s="210"/>
-      <c r="EC4" s="210"/>
-      <c r="ED4" s="210"/>
-      <c r="EE4" s="210"/>
-      <c r="EF4" s="210"/>
-      <c r="EG4" s="210"/>
-      <c r="EH4" s="210"/>
-      <c r="EI4" s="210"/>
-      <c r="EJ4" s="210"/>
-      <c r="EK4" s="210"/>
-      <c r="EL4" s="210"/>
-      <c r="EM4" s="210"/>
-      <c r="EN4" s="210"/>
-      <c r="EO4" s="210"/>
-      <c r="EP4" s="210"/>
-      <c r="EQ4" s="210"/>
-      <c r="ER4" s="210"/>
-      <c r="ES4" s="210"/>
-      <c r="ET4" s="210"/>
-      <c r="EU4" s="210"/>
-      <c r="EV4" s="210"/>
-      <c r="EW4" s="210"/>
-      <c r="EX4" s="210"/>
-      <c r="EY4" s="210"/>
-      <c r="EZ4" s="210"/>
-      <c r="FA4" s="210"/>
-      <c r="FB4" s="210"/>
-      <c r="FC4" s="210"/>
-      <c r="FD4" s="210"/>
-      <c r="FE4" s="210"/>
-      <c r="FF4" s="210"/>
-      <c r="FG4" s="210"/>
-      <c r="FH4" s="210"/>
-      <c r="FI4" s="210"/>
-      <c r="FJ4" s="210"/>
-      <c r="FK4" s="210"/>
-      <c r="FL4" s="210"/>
-      <c r="FM4" s="210"/>
-      <c r="FN4" s="210"/>
-      <c r="FO4" s="210"/>
-      <c r="FP4" s="210"/>
-      <c r="FQ4" s="210"/>
-      <c r="FR4" s="210"/>
-      <c r="FS4" s="210"/>
-      <c r="FT4" s="210"/>
-      <c r="FU4" s="210"/>
-      <c r="FV4" s="210"/>
-      <c r="FW4" s="210"/>
-      <c r="FX4" s="210"/>
-      <c r="FY4" s="210"/>
-      <c r="FZ4" s="210"/>
-      <c r="GA4" s="210"/>
-      <c r="GB4" s="210"/>
-      <c r="GC4" s="210"/>
-      <c r="GD4" s="210"/>
-      <c r="GE4" s="210"/>
-      <c r="GF4" s="210"/>
-      <c r="GG4" s="210"/>
-      <c r="GH4" s="210"/>
-      <c r="GI4" s="210"/>
-      <c r="GJ4" s="210"/>
-      <c r="GK4" s="210"/>
-      <c r="GL4" s="210"/>
-      <c r="GM4" s="210"/>
-      <c r="GN4" s="210"/>
-      <c r="GO4" s="210"/>
-      <c r="GP4" s="210"/>
-      <c r="GQ4" s="210"/>
-      <c r="GR4" s="210"/>
-      <c r="GS4" s="210"/>
-      <c r="GT4" s="210"/>
-      <c r="GU4" s="210"/>
-      <c r="GV4" s="210"/>
-      <c r="GW4" s="210"/>
-      <c r="GX4" s="210"/>
-      <c r="GY4" s="210"/>
-      <c r="GZ4" s="210"/>
-      <c r="HA4" s="210"/>
-      <c r="HB4" s="210"/>
-      <c r="HC4" s="210"/>
-      <c r="HD4" s="210"/>
-      <c r="HE4" s="210"/>
-      <c r="HF4" s="210"/>
-      <c r="HG4" s="210"/>
-      <c r="HH4" s="210"/>
-      <c r="HI4" s="210"/>
-      <c r="HJ4" s="210"/>
-      <c r="HK4" s="210"/>
-      <c r="HL4" s="210"/>
-      <c r="HM4" s="210"/>
-      <c r="HN4" s="210"/>
-      <c r="HO4" s="210"/>
-      <c r="HP4" s="210"/>
-      <c r="HQ4" s="210"/>
-      <c r="HR4" s="210"/>
-      <c r="HS4" s="210"/>
-      <c r="HT4" s="210"/>
-      <c r="HU4" s="210"/>
-      <c r="HV4" s="210"/>
-      <c r="HW4" s="210"/>
-      <c r="HX4" s="210"/>
-      <c r="HY4" s="210"/>
-      <c r="HZ4" s="210"/>
-      <c r="IA4" s="210"/>
-      <c r="IB4" s="210"/>
-      <c r="IC4" s="210"/>
-      <c r="ID4" s="210"/>
-      <c r="IE4" s="210"/>
-      <c r="IF4" s="210"/>
-      <c r="IG4" s="210"/>
-      <c r="IH4" s="210"/>
-      <c r="II4" s="210"/>
-      <c r="IJ4" s="210"/>
-      <c r="IK4" s="210"/>
-      <c r="IL4" s="210"/>
-      <c r="IM4" s="210"/>
-      <c r="IN4" s="210"/>
-      <c r="IO4" s="210"/>
-      <c r="IP4" s="210"/>
-      <c r="IQ4" s="210"/>
-      <c r="IR4" s="210"/>
-      <c r="IS4" s="210"/>
-      <c r="IT4" s="210"/>
-      <c r="IU4" s="210"/>
-      <c r="IV4" s="210"/>
-      <c r="IW4" s="210"/>
-      <c r="IX4" s="210"/>
-      <c r="IY4" s="210"/>
-      <c r="IZ4" s="210"/>
-      <c r="JA4" s="210"/>
-      <c r="JB4" s="210"/>
-      <c r="JC4" s="210"/>
-      <c r="JD4" s="210"/>
-      <c r="JE4" s="210"/>
-      <c r="JF4" s="210"/>
-      <c r="JG4" s="210"/>
-      <c r="JH4" s="210"/>
-      <c r="JI4" s="210"/>
-      <c r="JJ4" s="210"/>
-      <c r="JK4" s="210"/>
-      <c r="JL4" s="210"/>
-      <c r="JM4" s="210"/>
-      <c r="JN4" s="210"/>
-      <c r="JO4" s="210"/>
-      <c r="JP4" s="210"/>
-      <c r="JQ4" s="210"/>
-      <c r="JR4" s="210"/>
-      <c r="JS4" s="210"/>
-      <c r="JT4" s="210"/>
-      <c r="JU4" s="210"/>
-      <c r="JV4" s="210"/>
-      <c r="JW4" s="210"/>
-      <c r="JX4" s="210"/>
-      <c r="JY4" s="210"/>
-      <c r="JZ4" s="210"/>
-      <c r="KA4" s="210"/>
-      <c r="KB4" s="210"/>
-      <c r="KC4" s="210"/>
-      <c r="KD4" s="210"/>
-      <c r="KE4" s="210"/>
-      <c r="KF4" s="210"/>
-      <c r="KG4" s="210"/>
-      <c r="KH4" s="210"/>
-      <c r="KI4" s="210"/>
-      <c r="KJ4" s="210"/>
-      <c r="KK4" s="210"/>
-      <c r="KL4" s="210"/>
-      <c r="KM4" s="210"/>
-      <c r="KN4" s="210"/>
-      <c r="KO4" s="210"/>
-      <c r="KP4" s="210"/>
-      <c r="KQ4" s="210"/>
-      <c r="KR4" s="210"/>
-      <c r="KS4" s="210"/>
-      <c r="KT4" s="210"/>
-      <c r="KU4" s="210"/>
-      <c r="KV4" s="210"/>
-      <c r="KW4" s="210"/>
-      <c r="KX4" s="210"/>
-      <c r="KY4" s="210"/>
-      <c r="KZ4" s="210"/>
-      <c r="LA4" s="210"/>
-      <c r="LB4" s="210"/>
-      <c r="LC4" s="210"/>
-      <c r="LD4" s="210"/>
-      <c r="LE4" s="210"/>
-      <c r="LF4" s="210"/>
-      <c r="LG4" s="210"/>
-      <c r="LH4" s="210"/>
-      <c r="LI4" s="210"/>
-      <c r="LJ4" s="210"/>
-      <c r="LK4" s="210"/>
-      <c r="LL4" s="210"/>
-      <c r="LM4" s="210"/>
-      <c r="LN4" s="210"/>
-      <c r="LO4" s="210"/>
-      <c r="LP4" s="210"/>
-      <c r="LQ4" s="210"/>
-      <c r="LR4" s="210"/>
-      <c r="LS4" s="210"/>
-      <c r="LT4" s="210"/>
-      <c r="LU4" s="210"/>
-      <c r="LV4" s="210"/>
-      <c r="LW4" s="210"/>
-      <c r="LX4" s="210"/>
-      <c r="LY4" s="210"/>
-      <c r="LZ4" s="210"/>
-      <c r="MA4" s="210"/>
-      <c r="MB4" s="210"/>
-      <c r="MC4" s="210"/>
-      <c r="MD4" s="210"/>
-      <c r="ME4" s="210"/>
-      <c r="MF4" s="210"/>
-      <c r="MG4" s="210"/>
-      <c r="MH4" s="210"/>
-      <c r="MI4" s="210"/>
-      <c r="MJ4" s="210"/>
-      <c r="MK4" s="210"/>
-      <c r="ML4" s="210"/>
-      <c r="MM4" s="210"/>
-      <c r="MN4" s="210"/>
-      <c r="MO4" s="210"/>
-      <c r="MP4" s="210"/>
-      <c r="MQ4" s="210"/>
-      <c r="MR4" s="210"/>
-      <c r="MS4" s="210"/>
-      <c r="MT4" s="210"/>
-      <c r="MU4" s="210"/>
-      <c r="MV4" s="210"/>
-      <c r="MW4" s="210"/>
-      <c r="MX4" s="210"/>
-      <c r="MY4" s="210"/>
-      <c r="MZ4" s="210"/>
-      <c r="NA4" s="210"/>
-      <c r="NB4" s="210"/>
-      <c r="NC4" s="210"/>
-      <c r="ND4" s="210"/>
-      <c r="NE4" s="210"/>
-      <c r="NF4" s="210"/>
-      <c r="NG4" s="210"/>
-      <c r="NH4" s="210"/>
-      <c r="NI4" s="210"/>
-      <c r="NJ4" s="210"/>
-      <c r="NK4" s="210"/>
-      <c r="NL4" s="210"/>
-      <c r="NM4" s="210"/>
-      <c r="NN4" s="210"/>
-      <c r="NO4" s="210"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="215"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="211"/>
+      <c r="AJ4" s="211"/>
+      <c r="AK4" s="211"/>
+      <c r="AL4" s="211"/>
+      <c r="AM4" s="211"/>
+      <c r="AN4" s="211"/>
+      <c r="AO4" s="211"/>
+      <c r="AP4" s="211"/>
+      <c r="AQ4" s="211"/>
+      <c r="AR4" s="211"/>
+      <c r="AS4" s="211"/>
+      <c r="AT4" s="211"/>
+      <c r="AU4" s="211"/>
+      <c r="AV4" s="211"/>
+      <c r="AW4" s="211"/>
+      <c r="AX4" s="215"/>
+      <c r="AY4" s="215"/>
+      <c r="AZ4" s="215"/>
+      <c r="BA4" s="215"/>
+      <c r="BB4" s="215"/>
+      <c r="BC4" s="215"/>
+      <c r="BD4" s="215"/>
+      <c r="BE4" s="215"/>
+      <c r="BF4" s="215"/>
+      <c r="BG4" s="215"/>
+      <c r="BH4" s="215"/>
+      <c r="BI4" s="215"/>
+      <c r="BJ4" s="215"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="215"/>
+      <c r="BM4" s="211"/>
+      <c r="BN4" s="211"/>
+      <c r="BO4" s="211"/>
+      <c r="BP4" s="211"/>
+      <c r="BQ4" s="211"/>
+      <c r="BR4" s="211"/>
+      <c r="BS4" s="211"/>
+      <c r="BT4" s="211"/>
+      <c r="BU4" s="211"/>
+      <c r="BV4" s="211"/>
+      <c r="BW4" s="211"/>
+      <c r="BX4" s="211"/>
+      <c r="BY4" s="211"/>
+      <c r="BZ4" s="211"/>
+      <c r="CA4" s="211"/>
+      <c r="CB4" s="215"/>
+      <c r="CC4" s="215"/>
+      <c r="CD4" s="215"/>
+      <c r="CE4" s="215"/>
+      <c r="CF4" s="215"/>
+      <c r="CG4" s="215"/>
+      <c r="CH4" s="215"/>
+      <c r="CI4" s="215"/>
+      <c r="CJ4" s="215"/>
+      <c r="CK4" s="215"/>
+      <c r="CL4" s="215"/>
+      <c r="CM4" s="215"/>
+      <c r="CN4" s="215"/>
+      <c r="CO4" s="215"/>
+      <c r="CP4" s="215"/>
+      <c r="CQ4" s="211"/>
+      <c r="CR4" s="211"/>
+      <c r="CS4" s="211"/>
+      <c r="CT4" s="211"/>
+      <c r="CU4" s="211"/>
+      <c r="CV4" s="211"/>
+      <c r="CW4" s="211"/>
+      <c r="CX4" s="211"/>
+      <c r="CY4" s="211"/>
+      <c r="CZ4" s="211"/>
+      <c r="DA4" s="211"/>
+      <c r="DB4" s="211"/>
+      <c r="DC4" s="211"/>
+      <c r="DD4" s="211"/>
+      <c r="DE4" s="211"/>
+      <c r="DF4" s="211"/>
+      <c r="DG4" s="211"/>
+      <c r="DH4" s="211"/>
+      <c r="DI4" s="211"/>
+      <c r="DJ4" s="211"/>
+      <c r="DK4" s="211"/>
+      <c r="DL4" s="211"/>
+      <c r="DM4" s="211"/>
+      <c r="DN4" s="211"/>
+      <c r="DO4" s="211"/>
+      <c r="DP4" s="211"/>
+      <c r="DQ4" s="211"/>
+      <c r="DR4" s="211"/>
+      <c r="DS4" s="211"/>
+      <c r="DT4" s="211"/>
+      <c r="DU4" s="211"/>
+      <c r="DV4" s="211"/>
+      <c r="DW4" s="211"/>
+      <c r="DX4" s="211"/>
+      <c r="DY4" s="211"/>
+      <c r="DZ4" s="211"/>
+      <c r="EA4" s="211"/>
+      <c r="EB4" s="211"/>
+      <c r="EC4" s="211"/>
+      <c r="ED4" s="211"/>
+      <c r="EE4" s="211"/>
+      <c r="EF4" s="211"/>
+      <c r="EG4" s="211"/>
+      <c r="EH4" s="211"/>
+      <c r="EI4" s="211"/>
+      <c r="EJ4" s="211"/>
+      <c r="EK4" s="211"/>
+      <c r="EL4" s="211"/>
+      <c r="EM4" s="211"/>
+      <c r="EN4" s="211"/>
+      <c r="EO4" s="211"/>
+      <c r="EP4" s="211"/>
+      <c r="EQ4" s="211"/>
+      <c r="ER4" s="211"/>
+      <c r="ES4" s="211"/>
+      <c r="ET4" s="211"/>
+      <c r="EU4" s="211"/>
+      <c r="EV4" s="211"/>
+      <c r="EW4" s="211"/>
+      <c r="EX4" s="211"/>
+      <c r="EY4" s="211"/>
+      <c r="EZ4" s="211"/>
+      <c r="FA4" s="211"/>
+      <c r="FB4" s="211"/>
+      <c r="FC4" s="211"/>
+      <c r="FD4" s="211"/>
+      <c r="FE4" s="211"/>
+      <c r="FF4" s="211"/>
+      <c r="FG4" s="211"/>
+      <c r="FH4" s="211"/>
+      <c r="FI4" s="211"/>
+      <c r="FJ4" s="211"/>
+      <c r="FK4" s="211"/>
+      <c r="FL4" s="211"/>
+      <c r="FM4" s="211"/>
+      <c r="FN4" s="211"/>
+      <c r="FO4" s="211"/>
+      <c r="FP4" s="211"/>
+      <c r="FQ4" s="211"/>
+      <c r="FR4" s="211"/>
+      <c r="FS4" s="211"/>
+      <c r="FT4" s="211"/>
+      <c r="FU4" s="211"/>
+      <c r="FV4" s="211"/>
+      <c r="FW4" s="211"/>
+      <c r="FX4" s="211"/>
+      <c r="FY4" s="211"/>
+      <c r="FZ4" s="211"/>
+      <c r="GA4" s="211"/>
+      <c r="GB4" s="211"/>
+      <c r="GC4" s="211"/>
+      <c r="GD4" s="211"/>
+      <c r="GE4" s="211"/>
+      <c r="GF4" s="211"/>
+      <c r="GG4" s="211"/>
+      <c r="GH4" s="211"/>
+      <c r="GI4" s="211"/>
+      <c r="GJ4" s="211"/>
+      <c r="GK4" s="211"/>
+      <c r="GL4" s="211"/>
+      <c r="GM4" s="211"/>
+      <c r="GN4" s="211"/>
+      <c r="GO4" s="211"/>
+      <c r="GP4" s="211"/>
+      <c r="GQ4" s="211"/>
+      <c r="GR4" s="211"/>
+      <c r="GS4" s="211"/>
+      <c r="GT4" s="211"/>
+      <c r="GU4" s="211"/>
+      <c r="GV4" s="211"/>
+      <c r="GW4" s="211"/>
+      <c r="GX4" s="211"/>
+      <c r="GY4" s="211"/>
+      <c r="GZ4" s="211"/>
+      <c r="HA4" s="211"/>
+      <c r="HB4" s="211"/>
+      <c r="HC4" s="211"/>
+      <c r="HD4" s="211"/>
+      <c r="HE4" s="211"/>
+      <c r="HF4" s="211"/>
+      <c r="HG4" s="211"/>
+      <c r="HH4" s="211"/>
+      <c r="HI4" s="211"/>
+      <c r="HJ4" s="211"/>
+      <c r="HK4" s="211"/>
+      <c r="HL4" s="211"/>
+      <c r="HM4" s="211"/>
+      <c r="HN4" s="211"/>
+      <c r="HO4" s="211"/>
+      <c r="HP4" s="211"/>
+      <c r="HQ4" s="211"/>
+      <c r="HR4" s="211"/>
+      <c r="HS4" s="211"/>
+      <c r="HT4" s="211"/>
+      <c r="HU4" s="211"/>
+      <c r="HV4" s="211"/>
+      <c r="HW4" s="211"/>
+      <c r="HX4" s="211"/>
+      <c r="HY4" s="211"/>
+      <c r="HZ4" s="211"/>
+      <c r="IA4" s="211"/>
+      <c r="IB4" s="211"/>
+      <c r="IC4" s="211"/>
+      <c r="ID4" s="211"/>
+      <c r="IE4" s="211"/>
+      <c r="IF4" s="211"/>
+      <c r="IG4" s="211"/>
+      <c r="IH4" s="211"/>
+      <c r="II4" s="211"/>
+      <c r="IJ4" s="211"/>
+      <c r="IK4" s="211"/>
+      <c r="IL4" s="211"/>
+      <c r="IM4" s="211"/>
+      <c r="IN4" s="211"/>
+      <c r="IO4" s="211"/>
+      <c r="IP4" s="211"/>
+      <c r="IQ4" s="211"/>
+      <c r="IR4" s="211"/>
+      <c r="IS4" s="211"/>
+      <c r="IT4" s="211"/>
+      <c r="IU4" s="211"/>
+      <c r="IV4" s="211"/>
+      <c r="IW4" s="211"/>
+      <c r="IX4" s="211"/>
+      <c r="IY4" s="211"/>
+      <c r="IZ4" s="211"/>
+      <c r="JA4" s="211"/>
+      <c r="JB4" s="211"/>
+      <c r="JC4" s="211"/>
+      <c r="JD4" s="211"/>
+      <c r="JE4" s="211"/>
+      <c r="JF4" s="211"/>
+      <c r="JG4" s="211"/>
+      <c r="JH4" s="211"/>
+      <c r="JI4" s="211"/>
+      <c r="JJ4" s="211"/>
+      <c r="JK4" s="211"/>
+      <c r="JL4" s="211"/>
+      <c r="JM4" s="211"/>
+      <c r="JN4" s="211"/>
+      <c r="JO4" s="211"/>
+      <c r="JP4" s="211"/>
+      <c r="JQ4" s="211"/>
+      <c r="JR4" s="211"/>
+      <c r="JS4" s="211"/>
+      <c r="JT4" s="211"/>
+      <c r="JU4" s="211"/>
+      <c r="JV4" s="211"/>
+      <c r="JW4" s="211"/>
+      <c r="JX4" s="211"/>
+      <c r="JY4" s="211"/>
+      <c r="JZ4" s="211"/>
+      <c r="KA4" s="211"/>
+      <c r="KB4" s="211"/>
+      <c r="KC4" s="211"/>
+      <c r="KD4" s="211"/>
+      <c r="KE4" s="211"/>
+      <c r="KF4" s="211"/>
+      <c r="KG4" s="211"/>
+      <c r="KH4" s="211"/>
+      <c r="KI4" s="211"/>
+      <c r="KJ4" s="211"/>
+      <c r="KK4" s="211"/>
+      <c r="KL4" s="211"/>
+      <c r="KM4" s="211"/>
+      <c r="KN4" s="211"/>
+      <c r="KO4" s="211"/>
+      <c r="KP4" s="211"/>
+      <c r="KQ4" s="211"/>
+      <c r="KR4" s="211"/>
+      <c r="KS4" s="211"/>
+      <c r="KT4" s="211"/>
+      <c r="KU4" s="211"/>
+      <c r="KV4" s="211"/>
+      <c r="KW4" s="211"/>
+      <c r="KX4" s="211"/>
+      <c r="KY4" s="211"/>
+      <c r="KZ4" s="211"/>
+      <c r="LA4" s="211"/>
+      <c r="LB4" s="211"/>
+      <c r="LC4" s="211"/>
+      <c r="LD4" s="211"/>
+      <c r="LE4" s="211"/>
+      <c r="LF4" s="211"/>
+      <c r="LG4" s="211"/>
+      <c r="LH4" s="211"/>
+      <c r="LI4" s="211"/>
+      <c r="LJ4" s="211"/>
+      <c r="LK4" s="211"/>
+      <c r="LL4" s="211"/>
+      <c r="LM4" s="211"/>
+      <c r="LN4" s="211"/>
+      <c r="LO4" s="211"/>
+      <c r="LP4" s="211"/>
+      <c r="LQ4" s="211"/>
+      <c r="LR4" s="211"/>
+      <c r="LS4" s="211"/>
+      <c r="LT4" s="211"/>
+      <c r="LU4" s="211"/>
+      <c r="LV4" s="211"/>
+      <c r="LW4" s="211"/>
+      <c r="LX4" s="211"/>
+      <c r="LY4" s="211"/>
+      <c r="LZ4" s="211"/>
+      <c r="MA4" s="211"/>
+      <c r="MB4" s="211"/>
+      <c r="MC4" s="211"/>
+      <c r="MD4" s="211"/>
+      <c r="ME4" s="211"/>
+      <c r="MF4" s="211"/>
+      <c r="MG4" s="211"/>
+      <c r="MH4" s="211"/>
+      <c r="MI4" s="211"/>
+      <c r="MJ4" s="211"/>
+      <c r="MK4" s="211"/>
+      <c r="ML4" s="211"/>
+      <c r="MM4" s="211"/>
+      <c r="MN4" s="211"/>
+      <c r="MO4" s="211"/>
+      <c r="MP4" s="211"/>
+      <c r="MQ4" s="211"/>
+      <c r="MR4" s="211"/>
+      <c r="MS4" s="211"/>
+      <c r="MT4" s="211"/>
+      <c r="MU4" s="211"/>
+      <c r="MV4" s="211"/>
+      <c r="MW4" s="211"/>
+      <c r="MX4" s="211"/>
+      <c r="MY4" s="211"/>
+      <c r="MZ4" s="211"/>
+      <c r="NA4" s="211"/>
+      <c r="NB4" s="211"/>
+      <c r="NC4" s="211"/>
+      <c r="ND4" s="211"/>
+      <c r="NE4" s="211"/>
+      <c r="NF4" s="211"/>
+      <c r="NG4" s="211"/>
+      <c r="NH4" s="211"/>
+      <c r="NI4" s="211"/>
+      <c r="NJ4" s="211"/>
+      <c r="NK4" s="211"/>
+      <c r="NL4" s="211"/>
+      <c r="NM4" s="211"/>
+      <c r="NN4" s="211"/>
+      <c r="NO4" s="211"/>
     </row>
     <row r="5" spans="1:379" s="102" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="212" t="s">
@@ -18386,16 +18393,16 @@
     </row>
     <row r="7" spans="1:379" s="147" customFormat="1">
       <c r="A7" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="D7" s="145" t="s">
         <v>194</v>
-      </c>
-      <c r="C7" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="145" t="s">
-        <v>196</v>
       </c>
       <c r="E7" s="146">
         <v>1</v>
@@ -18945,16 +18952,16 @@
     </row>
     <row r="8" spans="1:379" s="147" customFormat="1">
       <c r="A8" s="145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="145" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="146">
         <v>0</v>
@@ -19454,16 +19461,16 @@
     </row>
     <row r="9" spans="1:379" s="147" customFormat="1">
       <c r="A9" s="145" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="145" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="146">
         <v>1</v>
@@ -19963,16 +19970,16 @@
     </row>
     <row r="10" spans="1:379" s="147" customFormat="1">
       <c r="A10" s="145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="145" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="145" t="s">
-        <v>209</v>
-      </c>
       <c r="C10" s="145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="145" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="146">
         <v>0</v>
@@ -20512,16 +20519,16 @@
     </row>
     <row r="11" spans="1:379" s="147" customFormat="1">
       <c r="A11" s="145" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="145" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="146">
         <v>0</v>
@@ -23287,26 +23294,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="IK3:IY4"/>
-    <mergeCell ref="IZ3:JN4"/>
-    <mergeCell ref="JO3:KC4"/>
-    <mergeCell ref="NA3:NO4"/>
-    <mergeCell ref="KD3:KR4"/>
-    <mergeCell ref="KS3:LG4"/>
-    <mergeCell ref="LH3:LV4"/>
-    <mergeCell ref="LW3:MK4"/>
-    <mergeCell ref="ML3:MZ4"/>
-    <mergeCell ref="HG3:HU4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -23317,6 +23304,26 @@
     <mergeCell ref="CQ3:DE4"/>
     <mergeCell ref="DF3:DT4"/>
     <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="IK3:IY4"/>
+    <mergeCell ref="IZ3:JN4"/>
+    <mergeCell ref="JO3:KC4"/>
+    <mergeCell ref="NA3:NO4"/>
+    <mergeCell ref="KD3:KR4"/>
+    <mergeCell ref="KS3:LG4"/>
+    <mergeCell ref="LH3:LV4"/>
+    <mergeCell ref="LW3:MK4"/>
+    <mergeCell ref="ML3:MZ4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:NE6 AQ7:AQ8 IX7:IX8 JC7:JC8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 JM7:JM8 JH7:JH8 JW7:JW8 JR7:JR8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -23389,7 +23396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
@@ -23408,18 +23415,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="181"/>
       <c r="AF1">
         <v>7</v>
       </c>
@@ -23428,40 +23435,40 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="183"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="184"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="187"/>
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" ht="42.75">
       <c r="A6" s="19" t="s">
@@ -23792,14 +23799,14 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="109">
         <f ca="1">SUM(G7:G11)</f>
         <v>299</v>
@@ -23818,92 +23825,92 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="18.75">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="190">
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191">
         <f>SUM(Backlog!H:H)</f>
         <v>452</v>
       </c>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
     </row>
     <row r="16" spans="1:33" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
-      <c r="B17" s="191" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="192"/>
-      <c r="D17" s="199" t="s">
+      <c r="B17" s="192" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="193"/>
+      <c r="D17" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="195" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="196"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="196" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="197"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="198"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="198"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
       <c r="B20" s="148"/>
       <c r="C20" s="154"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
       <c r="J20" s="155"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
       <c r="B21" s="148"/>
       <c r="C21" s="154"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
       <c r="J21" s="155"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
       <c r="B22" s="148"/>
       <c r="C22" s="154"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
       <c r="J22" s="155"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
@@ -23911,16 +23918,16 @@
       <c r="C23" s="154">
         <v>4</v>
       </c>
-      <c r="D23" s="176" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
+      <c r="D23" s="177" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
       <c r="J23" s="155" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
@@ -23928,27 +23935,27 @@
       <c r="C24" s="154">
         <v>5</v>
       </c>
-      <c r="D24" s="176" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
+      <c r="D24" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
       <c r="J24" s="155" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="148"/>
       <c r="C25" s="154"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
       <c r="J25" s="155"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
@@ -23993,6 +24000,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="158" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0"/>
   <mergeCells count="13">
@@ -24030,8 +24042,8 @@
   <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -24055,42 +24067,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E1" s="201" t="s">
+      <c r="E1" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E2" s="203"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="E3" s="203"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
     </row>
     <row r="5" spans="1:15" s="53" customFormat="1" ht="30">
       <c r="A5" s="49" t="s">
@@ -24139,7 +24151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="6" spans="1:15" s="41" customFormat="1">
       <c r="A6" s="50" t="str">
         <f>IF($N6="","??",INDEX('Liste SFD'!$A:$A,MATCH($N6,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24153,34 +24165,34 @@
       <c r="D6" s="50">
         <v>1</v>
       </c>
-      <c r="E6" s="32" t="str">
-        <f t="shared" ref="E6:E37" si="0">TEXT(B6,"#") &amp; "." &amp; TEXT(C6,"#") &amp; "." &amp; TEXT(D6,"#")</f>
+      <c r="E6" s="143" t="str">
+        <f>TEXT(B6,"#") &amp; "." &amp; TEXT(C6,"#") &amp; "." &amp; TEXT(D6,"#")</f>
         <v>1.1.1</v>
       </c>
-      <c r="F6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="H6" s="76">
+      <c r="F6" s="143">
+        <v>1</v>
+      </c>
+      <c r="G6" s="143">
+        <v>1</v>
+      </c>
+      <c r="H6" s="141">
         <v>5</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="142" t="s">
         <v>63</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="52"/>
+      <c r="K6" s="142" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="142"/>
       <c r="M6" s="51"/>
-      <c r="N6" s="96"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="41" t="str">
         <f>TEXT(E6,"#") &amp; " : " &amp; TEXT(I6,"#") &amp; " \ " &amp; TEXT(J6,"#") &amp; " \ " &amp; TEXT(K6,"#")</f>
-        <v>1.1.1 : BackOffice \ Webservices Authentification \ Fonction user.getAuthToken</v>
+        <v>1.1.1 : BackOffice \ Webservices Authentification \ Conception architecture auth/access token</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24198,7 +24210,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7:E37" si="0">TEXT(B7,"#") &amp; "." &amp; TEXT(C7,"#") &amp; "." &amp; TEXT(D7,"#")</f>
         <v>1.1.2</v>
       </c>
       <c r="F7" s="32">
@@ -24217,14 +24229,14 @@
         <v>65</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L7" s="52"/>
       <c r="M7" s="51"/>
       <c r="N7" s="96"/>
       <c r="O7" s="41" t="str">
         <f t="shared" ref="O7:O25" si="1">TEXT(E7,"#") &amp; " : " &amp; TEXT(I7,"#") &amp; " \ " &amp; TEXT(J7,"#") &amp; " \ " &amp; TEXT(K7,"#")</f>
-        <v>1.1.2 : BackOffice \ Webservices Authentification \ Fonction user.getAccessToken</v>
+        <v>1.1.2 : BackOffice \ Webservices Authentification \ Gestion des utilisateurs autorisés</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24236,39 +24248,39 @@
         <v>1</v>
       </c>
       <c r="C8" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.1</v>
+        <f>TEXT(B8,"#") &amp; "." &amp; TEXT(C8,"#") &amp; "." &amp; TEXT(D8,"#")</f>
+        <v>1.1.3</v>
       </c>
       <c r="F8" s="32">
         <v>1</v>
       </c>
       <c r="G8" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="51"/>
       <c r="N8" s="96"/>
       <c r="O8" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>1.2.1 : BackOffice \ Webservices Read \ Fonction getListAllParcours</v>
+        <f>TEXT(E8,"#") &amp; " : " &amp; TEXT(I8,"#") &amp; " \ " &amp; TEXT(J8,"#") &amp; " \ " &amp; TEXT(K8,"#")</f>
+        <v>1.1.3 : BackOffice \ Webservices Authentification \ Implémentation Oauth2</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24283,36 +24295,36 @@
         <v>2</v>
       </c>
       <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2.1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="143" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.2</v>
-      </c>
-      <c r="F9" s="143">
-        <v>1</v>
-      </c>
-      <c r="G9" s="143">
-        <v>2</v>
-      </c>
-      <c r="H9" s="141">
-        <v>1</v>
-      </c>
-      <c r="I9" s="142" t="s">
+      <c r="H9" s="76">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="142" t="s">
+      <c r="J9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="142"/>
+      <c r="K9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="52"/>
       <c r="M9" s="51"/>
       <c r="N9" s="96"/>
       <c r="O9" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.2 : BackOffice \ Webservices Read \ Fonction getParcoursArchitectureById</v>
+        <v>1.2.1 : BackOffice \ Webservices Read \ Fonction getListAllParcours</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24327,11 +24339,11 @@
         <v>2</v>
       </c>
       <c r="D10" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.3</v>
+        <v>1.2.2</v>
       </c>
       <c r="F10" s="143">
         <v>1</v>
@@ -24349,14 +24361,14 @@
         <v>64</v>
       </c>
       <c r="K10" s="142" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L10" s="142"/>
       <c r="M10" s="51"/>
       <c r="N10" s="96"/>
       <c r="O10" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.3 : BackOffice \ Webservices Read \ Fonction getParcoursById</v>
+        <v>1.2.2 : BackOffice \ Webservices Read \ Fonction getParcoursArchitectureById</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24371,11 +24383,11 @@
         <v>2</v>
       </c>
       <c r="D11" s="50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.4</v>
+        <v>1.2.3</v>
       </c>
       <c r="F11" s="143">
         <v>1</v>
@@ -24393,17 +24405,17 @@
         <v>64</v>
       </c>
       <c r="K11" s="142" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L11" s="142"/>
       <c r="M11" s="51"/>
       <c r="N11" s="96"/>
       <c r="O11" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.4 : BackOffice \ Webservices Read \ Fonction getSousParcoursById</v>
+        <v>1.2.3 : BackOffice \ Webservices Read \ Fonction getParcoursById</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="41" customFormat="1">
+    <row r="12" spans="1:15" s="41" customFormat="1" ht="15">
       <c r="A12" s="50" t="str">
         <f>IF($N12="","??",INDEX('Liste SFD'!$A:$A,MATCH($N12,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24415,11 +24427,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.5</v>
+        <v>1.2.4</v>
       </c>
       <c r="F12" s="143">
         <v>1</v>
@@ -24437,17 +24449,17 @@
         <v>64</v>
       </c>
       <c r="K12" s="142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L12" s="142"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="96"/>
       <c r="O12" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.5 : BackOffice \ Webservices Read \ Fonction getSceneById</v>
+        <v>1.2.4 : BackOffice \ Webservices Read \ Fonction getSousParcoursById</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="13" spans="1:15" s="41" customFormat="1">
       <c r="A13" s="50" t="str">
         <f>IF($N13="","??",INDEX('Liste SFD'!$A:$A,MATCH($N13,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24459,11 +24471,11 @@
         <v>2</v>
       </c>
       <c r="D13" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.6</v>
+        <v>1.2.5</v>
       </c>
       <c r="F13" s="143">
         <v>1</v>
@@ -24481,14 +24493,14 @@
         <v>64</v>
       </c>
       <c r="K13" s="142" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="142"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="96"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.6 : BackOffice \ Webservices Read \ Fonction getTransitionById</v>
+        <v>1.2.5 : BackOffice \ Webservices Read \ Fonction getSceneById</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24503,11 +24515,11 @@
         <v>2</v>
       </c>
       <c r="D14" s="50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.8</v>
+        <v>1.2.6</v>
       </c>
       <c r="F14" s="143">
         <v>1</v>
@@ -24525,14 +24537,14 @@
         <v>64</v>
       </c>
       <c r="K14" s="142" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="L14" s="142"/>
       <c r="M14" s="51"/>
       <c r="N14" s="96"/>
       <c r="O14" s="41" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">1.2.8 : BackOffice \ Webservices Read \ Fonction getElementById/getMediaByID/getArtefactById </v>
+        <v>1.2.6 : BackOffice \ Webservices Read \ Fonction getTransitionById</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24547,11 +24559,11 @@
         <v>2</v>
       </c>
       <c r="D15" s="50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.10</v>
+        <v>1.2.8</v>
       </c>
       <c r="F15" s="143">
         <v>1</v>
@@ -24569,14 +24581,14 @@
         <v>64</v>
       </c>
       <c r="K15" s="142" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="L15" s="142"/>
       <c r="M15" s="51"/>
       <c r="N15" s="96"/>
       <c r="O15" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.10 : BackOffice \ Webservices Read \ Fonction getPointOfInterestByTag</v>
+        <v xml:space="preserve">1.2.8 : BackOffice \ Webservices Read \ Fonction getElementById/getMediaByID/getArtefactById </v>
       </c>
     </row>
     <row r="16" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24591,11 +24603,11 @@
         <v>2</v>
       </c>
       <c r="D16" s="50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.11</v>
+        <v>1.2.10</v>
       </c>
       <c r="F16" s="143">
         <v>1</v>
@@ -24604,7 +24616,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="142" t="s">
         <v>63</v>
@@ -24613,14 +24625,14 @@
         <v>64</v>
       </c>
       <c r="K16" s="142" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L16" s="142"/>
       <c r="M16" s="51"/>
       <c r="N16" s="96"/>
       <c r="O16" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.2.11 : BackOffice \ Webservices Read \ Documentation WSDL</v>
+        <v>1.2.10 : BackOffice \ Webservices Read \ Fonction getPointOfInterestByTag</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24632,41 +24644,39 @@
         <v>1</v>
       </c>
       <c r="C17" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.3.1</v>
+        <v>1.2.11</v>
       </c>
       <c r="F17" s="143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17" s="143">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H17" s="141">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I17" s="142" t="s">
         <v>63</v>
       </c>
       <c r="J17" s="142" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K17" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="142" t="s">
-        <v>189</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="L17" s="142"/>
       <c r="M17" s="51"/>
       <c r="N17" s="96"/>
       <c r="O17" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.3.1 : BackOffice \ Webservices Post \ Architecture Webservices POST</v>
+        <v>1.2.11 : BackOffice \ Webservices Read \ Documentation WSDL</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24678,39 +24688,41 @@
         <v>1</v>
       </c>
       <c r="C18" s="50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="50">
         <v>1</v>
       </c>
       <c r="E18" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.4.1</v>
+        <v>1.3.1</v>
       </c>
       <c r="F18" s="143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18" s="143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18" s="141">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I18" s="142" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="142" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K18" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="142"/>
+        <v>76</v>
+      </c>
+      <c r="L18" s="142" t="s">
+        <v>187</v>
+      </c>
       <c r="M18" s="51"/>
       <c r="N18" s="96"/>
       <c r="O18" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.4.1 : BackOffice \ Points d'intérêt \ Conception architecture ID Tag-&gt;Point d'intérêt</v>
+        <v>1.3.1 : BackOffice \ Webservices Post \ Architecture Webservices POST</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="41" customFormat="1" ht="15">
@@ -24725,11 +24737,11 @@
         <v>4</v>
       </c>
       <c r="D19" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.4.2</v>
+        <v>1.4.1</v>
       </c>
       <c r="F19" s="143">
         <v>2</v>
@@ -24738,26 +24750,26 @@
         <v>5</v>
       </c>
       <c r="H19" s="141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="142" t="s">
         <v>63</v>
       </c>
       <c r="J19" s="142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K19" s="142" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L19" s="142"/>
       <c r="M19" s="51"/>
       <c r="N19" s="96"/>
       <c r="O19" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.4.2 : BackOffice \ Points d'intérêt \ Administration relation ID Tag-&gt; Point d'intérêt</v>
+        <v>1.4.1 : BackOffice \ Points d'intérêt \ Conception architecture ID Tag-&gt;Point d'intérêt</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="41" customFormat="1" ht="28.5">
+    <row r="20" spans="1:15" s="41" customFormat="1" ht="15">
       <c r="A20" s="50" t="str">
         <f>IF($N20="","??",INDEX('Liste SFD'!$A:$A,MATCH($N20,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24769,39 +24781,39 @@
         <v>4</v>
       </c>
       <c r="D20" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.4.3</v>
+        <v>1.4.2</v>
       </c>
       <c r="F20" s="143">
         <v>2</v>
       </c>
       <c r="G20" s="143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="142" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="142" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="L20" s="142"/>
       <c r="M20" s="51"/>
-      <c r="N20" s="59"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.4.3 : BackOffice \ Points d'intérêt \ Gestions des droits de modif relation ID Tag -&gt; Point d'intérêt et Coordonnées GPS -&gt; Point d'intérêt</v>
+        <v>1.4.2 : BackOffice \ Points d'intérêt \ Administration relation ID Tag-&gt; Point d'intérêt</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="41" customFormat="1">
+    <row r="21" spans="1:15" s="41" customFormat="1" ht="28.5">
       <c r="A21" s="50" t="str">
         <f>IF($N21="","??",INDEX('Liste SFD'!$A:$A,MATCH($N21,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24810,39 +24822,39 @@
         <v>1</v>
       </c>
       <c r="C21" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" s="50">
         <v>3</v>
       </c>
       <c r="E21" s="143" t="str">
         <f t="shared" si="0"/>
-        <v>1.1.3</v>
+        <v>1.4.3</v>
       </c>
       <c r="F21" s="143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21" s="141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>65</v>
+      <c r="J21" s="142" t="s">
+        <v>93</v>
       </c>
       <c r="K21" s="142" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="L21" s="142"/>
       <c r="M21" s="51"/>
       <c r="N21" s="59"/>
       <c r="O21" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1.1.3 : BackOffice \ Webservices Authentification \ Conception architecture auth/access token</v>
+        <v>1.4.3 : BackOffice \ Points d'intérêt \ Gestions des droits de modif relation ID Tag -&gt; Point d'intérêt et Coordonnées GPS -&gt; Point d'intérêt</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="41" customFormat="1">
@@ -24876,10 +24888,10 @@
         <v>63</v>
       </c>
       <c r="J22" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K22" s="142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L22" s="142"/>
       <c r="M22" s="51"/>
@@ -24920,10 +24932,10 @@
         <v>63</v>
       </c>
       <c r="J23" s="142" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K23" s="142" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L23" s="142"/>
       <c r="M23" s="51"/>
@@ -24964,10 +24976,10 @@
         <v>63</v>
       </c>
       <c r="J24" s="142" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K24" s="142" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L24" s="142"/>
       <c r="M24" s="51"/>
@@ -25008,10 +25020,10 @@
         <v>63</v>
       </c>
       <c r="J25" s="142" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" s="142" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L25" s="142"/>
       <c r="M25" s="51"/>
@@ -25052,10 +25064,10 @@
         <v>63</v>
       </c>
       <c r="J26" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K26" s="142" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L26" s="142"/>
       <c r="M26" s="51"/>
@@ -25096,10 +25108,10 @@
         <v>63</v>
       </c>
       <c r="J27" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K27" s="142" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L27" s="142"/>
       <c r="M27" s="51"/>
@@ -25140,10 +25152,10 @@
         <v>63</v>
       </c>
       <c r="J28" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K28" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L28" s="142"/>
       <c r="M28" s="51"/>
@@ -25184,10 +25196,10 @@
         <v>63</v>
       </c>
       <c r="J29" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K29" s="142" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L29" s="142"/>
       <c r="M29" s="51"/>
@@ -25228,10 +25240,10 @@
         <v>63</v>
       </c>
       <c r="J30" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K30" s="142" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L30" s="142"/>
       <c r="M30" s="51"/>
@@ -25272,10 +25284,10 @@
         <v>63</v>
       </c>
       <c r="J31" s="142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K31" s="142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L31" s="142"/>
       <c r="M31" s="51"/>
@@ -25316,10 +25328,10 @@
         <v>63</v>
       </c>
       <c r="J32" s="142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K32" s="142" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" s="142"/>
       <c r="M32" s="51"/>
@@ -25360,10 +25372,10 @@
         <v>63</v>
       </c>
       <c r="J33" s="142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K33" s="142" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L33" s="142"/>
       <c r="M33" s="51"/>
@@ -25404,10 +25416,10 @@
         <v>63</v>
       </c>
       <c r="J34" s="142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K34" s="142" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L34" s="142"/>
       <c r="M34" s="51"/>
@@ -25448,10 +25460,10 @@
         <v>63</v>
       </c>
       <c r="J35" s="142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K35" s="142" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L35" s="142"/>
       <c r="M35" s="32"/>
@@ -25492,10 +25504,10 @@
         <v>63</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K36" s="142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L36" s="52"/>
       <c r="M36" s="32"/>
@@ -25533,13 +25545,13 @@
         <v>5</v>
       </c>
       <c r="I37" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="142" t="s">
         <v>99</v>
-      </c>
-      <c r="J37" s="142" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="142" t="s">
-        <v>101</v>
       </c>
       <c r="L37" s="142"/>
       <c r="M37" s="51"/>
@@ -25577,10 +25589,10 @@
         <v>1</v>
       </c>
       <c r="I38" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J38" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K38" s="142" t="s">
         <v>66</v>
@@ -25621,10 +25633,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J39" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K39" s="142" t="s">
         <v>67</v>
@@ -25665,13 +25677,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J40" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K40" s="142" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L40" s="142"/>
       <c r="M40" s="51"/>
@@ -25709,13 +25721,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J41" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K41" s="142" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L41" s="142"/>
       <c r="M41" s="51"/>
@@ -25753,13 +25765,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J42" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K42" s="142" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L42" s="142"/>
       <c r="M42" s="51"/>
@@ -25797,13 +25809,13 @@
         <v>1</v>
       </c>
       <c r="I43" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J43" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K43" s="142" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L43" s="142"/>
       <c r="M43" s="121"/>
@@ -25841,13 +25853,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J44" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K44" s="142" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L44" s="142"/>
       <c r="M44" s="121"/>
@@ -25885,13 +25897,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J45" s="142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K45" s="142" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L45" s="142"/>
       <c r="M45" s="51"/>
@@ -25929,13 +25941,13 @@
         <v>2</v>
       </c>
       <c r="I46" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="142" t="s">
         <v>103</v>
-      </c>
-      <c r="J46" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" s="142" t="s">
-        <v>105</v>
       </c>
       <c r="L46" s="142"/>
       <c r="M46" s="51"/>
@@ -25973,13 +25985,13 @@
         <v>3</v>
       </c>
       <c r="I47" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J47" s="142" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="142" t="s">
         <v>104</v>
-      </c>
-      <c r="K47" s="142" t="s">
-        <v>106</v>
       </c>
       <c r="L47" s="142"/>
       <c r="M47" s="51"/>
@@ -26017,13 +26029,13 @@
         <v>3</v>
       </c>
       <c r="I48" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J48" s="142" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K48" s="142" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L48" s="142"/>
       <c r="M48" s="121"/>
@@ -26061,13 +26073,13 @@
         <v>2</v>
       </c>
       <c r="I49" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J49" s="142" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K49" s="142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L49" s="142"/>
       <c r="M49" s="121"/>
@@ -26105,13 +26117,13 @@
         <v>2</v>
       </c>
       <c r="I50" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J50" s="142" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K50" s="142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L50" s="142"/>
       <c r="M50" s="121"/>
@@ -26149,13 +26161,13 @@
         <v>1</v>
       </c>
       <c r="I51" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J51" s="142" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K51" s="142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L51" s="142"/>
       <c r="M51" s="121"/>
@@ -26193,13 +26205,13 @@
         <v>3</v>
       </c>
       <c r="I52" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J52" s="142" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K52" s="142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L52" s="142"/>
       <c r="M52" s="121"/>
@@ -26237,13 +26249,13 @@
         <v>2</v>
       </c>
       <c r="I53" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J53" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K53" s="142" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L53" s="142"/>
       <c r="M53" s="121"/>
@@ -26281,13 +26293,13 @@
         <v>2</v>
       </c>
       <c r="I54" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J54" s="142" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="142" t="s">
         <v>112</v>
-      </c>
-      <c r="K54" s="142" t="s">
-        <v>114</v>
       </c>
       <c r="L54" s="142"/>
       <c r="M54" s="121"/>
@@ -26325,13 +26337,13 @@
         <v>2</v>
       </c>
       <c r="I55" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J55" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K55" s="142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L55" s="142"/>
       <c r="M55" s="121"/>
@@ -26369,13 +26381,13 @@
         <v>4</v>
       </c>
       <c r="I56" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J56" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K56" s="142" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L56" s="142"/>
       <c r="M56" s="121"/>
@@ -26413,13 +26425,13 @@
         <v>2</v>
       </c>
       <c r="I57" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J57" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K57" s="142" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L57" s="142"/>
       <c r="M57" s="121"/>
@@ -26457,13 +26469,13 @@
         <v>3</v>
       </c>
       <c r="I58" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J58" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K58" s="142" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L58" s="142"/>
       <c r="M58" s="121"/>
@@ -26501,13 +26513,13 @@
         <v>6</v>
       </c>
       <c r="I59" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J59" s="142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K59" s="142" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L59" s="142"/>
       <c r="M59" s="32"/>
@@ -26545,13 +26557,13 @@
         <v>4</v>
       </c>
       <c r="I60" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J60" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="K60" s="142" t="s">
         <v>119</v>
-      </c>
-      <c r="K60" s="142" t="s">
-        <v>121</v>
       </c>
       <c r="L60" s="142"/>
       <c r="M60" s="32"/>
@@ -26589,13 +26601,13 @@
         <v>8</v>
       </c>
       <c r="I61" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J61" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K61" s="142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L61" s="142"/>
       <c r="M61" s="32"/>
@@ -26633,13 +26645,13 @@
         <v>8</v>
       </c>
       <c r="I62" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J62" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K62" s="142" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L62" s="142"/>
       <c r="M62" s="32"/>
@@ -26677,13 +26689,13 @@
         <v>3</v>
       </c>
       <c r="I63" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J63" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K63" s="142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L63" s="142"/>
       <c r="M63" s="32"/>
@@ -26721,13 +26733,13 @@
         <v>6</v>
       </c>
       <c r="I64" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J64" s="142" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K64" s="142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L64" s="142"/>
       <c r="M64" s="32"/>
@@ -26765,13 +26777,13 @@
         <v>5</v>
       </c>
       <c r="I65" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J65" s="142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K65" s="142" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L65" s="142"/>
       <c r="M65" s="32"/>
@@ -26809,13 +26821,13 @@
         <v>6</v>
       </c>
       <c r="I66" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J66" s="142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K66" s="142" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L66" s="142"/>
       <c r="M66" s="32"/>
@@ -26853,13 +26865,13 @@
         <v>5</v>
       </c>
       <c r="I67" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J67" s="142" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K67" s="142" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L67" s="142"/>
       <c r="M67" s="32"/>
@@ -26897,13 +26909,13 @@
         <v>3</v>
       </c>
       <c r="I68" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J68" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K68" s="142" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L68" s="142"/>
       <c r="M68" s="32"/>
@@ -26941,13 +26953,13 @@
         <v>3</v>
       </c>
       <c r="I69" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J69" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K69" s="142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L69" s="142"/>
       <c r="M69" s="32"/>
@@ -26985,13 +26997,13 @@
         <v>8</v>
       </c>
       <c r="I70" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J70" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K70" s="142" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L70" s="142"/>
       <c r="M70" s="32"/>
@@ -27029,13 +27041,13 @@
         <v>4</v>
       </c>
       <c r="I71" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J71" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K71" s="142" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L71" s="142"/>
       <c r="M71" s="32"/>
@@ -27073,13 +27085,13 @@
         <v>3</v>
       </c>
       <c r="I72" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J72" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K72" s="142" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L72" s="142"/>
       <c r="M72" s="32"/>
@@ -27117,13 +27129,13 @@
         <v>10</v>
       </c>
       <c r="I73" s="142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J73" s="142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K73" s="142" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L73" s="142"/>
       <c r="M73" s="32"/>
@@ -27161,13 +27173,13 @@
         <v>8</v>
       </c>
       <c r="I74" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J74" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K74" s="142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L74" s="142"/>
       <c r="M74" s="32"/>
@@ -27205,13 +27217,13 @@
         <v>8</v>
       </c>
       <c r="I75" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J75" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="K75" s="142" t="s">
         <v>139</v>
-      </c>
-      <c r="K75" s="142" t="s">
-        <v>141</v>
       </c>
       <c r="L75" s="142"/>
       <c r="M75" s="32"/>
@@ -27249,13 +27261,13 @@
         <v>8</v>
       </c>
       <c r="I76" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J76" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K76" s="142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L76" s="142"/>
       <c r="M76" s="32"/>
@@ -27293,13 +27305,13 @@
         <v>8</v>
       </c>
       <c r="I77" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J77" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K77" s="142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L77" s="142"/>
       <c r="M77" s="51"/>
@@ -27337,13 +27349,13 @@
         <v>8</v>
       </c>
       <c r="I78" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J78" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K78" s="142" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L78" s="142"/>
       <c r="M78" s="51"/>
@@ -27381,13 +27393,13 @@
         <v>2</v>
       </c>
       <c r="I79" s="142" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="K79" s="142" t="s">
         <v>145</v>
-      </c>
-      <c r="J79" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="K79" s="142" t="s">
-        <v>147</v>
       </c>
       <c r="L79" s="142"/>
       <c r="M79" s="51"/>
@@ -27425,13 +27437,13 @@
         <v>2</v>
       </c>
       <c r="I80" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J80" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="K80" s="142" t="s">
         <v>146</v>
-      </c>
-      <c r="K80" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="L80" s="142"/>
       <c r="M80" s="51"/>
@@ -27469,13 +27481,13 @@
         <v>2</v>
       </c>
       <c r="I81" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J81" s="142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K81" s="142" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L81" s="142"/>
       <c r="M81" s="51"/>
@@ -27513,13 +27525,13 @@
         <v>2</v>
       </c>
       <c r="I82" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J82" s="142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K82" s="142" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L82" s="142"/>
       <c r="M82" s="51"/>
@@ -27557,13 +27569,13 @@
         <v>2</v>
       </c>
       <c r="I83" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J83" s="142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K83" s="142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L83" s="142"/>
       <c r="M83" s="51"/>
@@ -27601,13 +27613,13 @@
         <v>1</v>
       </c>
       <c r="I84" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J84" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K84" s="142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L84" s="142"/>
       <c r="M84" s="51"/>
@@ -27645,13 +27657,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J85" s="142" t="s">
+        <v>169</v>
+      </c>
+      <c r="K85" s="142" t="s">
         <v>171</v>
-      </c>
-      <c r="K85" s="142" t="s">
-        <v>173</v>
       </c>
       <c r="L85" s="142"/>
       <c r="M85" s="51"/>
@@ -27689,13 +27701,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J86" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K86" s="142" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L86" s="142"/>
       <c r="M86" s="51"/>
@@ -27733,13 +27745,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J87" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K87" s="142" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L87" s="142"/>
       <c r="M87" s="51"/>
@@ -27777,13 +27789,13 @@
         <v>1</v>
       </c>
       <c r="I88" s="142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J88" s="142" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K88" s="142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L88" s="142"/>
       <c r="M88" s="51"/>
@@ -27819,13 +27831,13 @@
         <v>3</v>
       </c>
       <c r="I89" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J89" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K89" s="142" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L89" s="142"/>
       <c r="M89" s="51"/>
@@ -27863,13 +27875,13 @@
         <v>3</v>
       </c>
       <c r="I90" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J90" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K90" s="142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L90" s="142"/>
       <c r="M90" s="51"/>
@@ -27907,13 +27919,13 @@
         <v>3</v>
       </c>
       <c r="I91" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J91" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K91" s="142" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L91" s="142"/>
       <c r="M91" s="51"/>
@@ -27951,13 +27963,13 @@
         <v>3</v>
       </c>
       <c r="I92" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J92" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K92" s="142" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L92" s="142"/>
       <c r="M92" s="51"/>
@@ -27995,13 +28007,13 @@
         <v>3</v>
       </c>
       <c r="I93" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J93" s="142" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K93" s="142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L93" s="142"/>
       <c r="M93" s="51"/>
@@ -28037,13 +28049,13 @@
         <v>3</v>
       </c>
       <c r="I94" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J94" s="142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K94" s="142" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L94" s="142"/>
       <c r="M94" s="51"/>
@@ -28081,13 +28093,13 @@
         <v>3</v>
       </c>
       <c r="I95" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J95" s="142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K95" s="142" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L95" s="142"/>
       <c r="M95" s="51"/>
@@ -28125,13 +28137,13 @@
         <v>3</v>
       </c>
       <c r="I96" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J96" s="142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K96" s="142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L96" s="142"/>
       <c r="M96" s="51"/>
@@ -28169,13 +28181,13 @@
         <v>3</v>
       </c>
       <c r="I97" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J97" s="142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K97" s="142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L97" s="142"/>
       <c r="M97" s="51"/>
@@ -28213,13 +28225,13 @@
         <v>3</v>
       </c>
       <c r="I98" s="142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J98" s="142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K98" s="142" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L98" s="142"/>
       <c r="M98" s="51"/>
@@ -28257,13 +28269,13 @@
         <v>2</v>
       </c>
       <c r="I99" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J99" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K99" s="142" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L99" s="142"/>
       <c r="M99" s="51"/>
@@ -28301,13 +28313,13 @@
         <v>2</v>
       </c>
       <c r="I100" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J100" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K100" s="142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L100" s="142"/>
       <c r="M100" s="114"/>
@@ -28345,13 +28357,13 @@
         <v>2</v>
       </c>
       <c r="I101" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J101" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K101" s="142" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L101" s="142"/>
       <c r="M101" s="114"/>
@@ -28389,13 +28401,13 @@
         <v>2</v>
       </c>
       <c r="I102" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J102" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K102" s="142" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L102" s="142"/>
       <c r="M102" s="51"/>
@@ -28433,13 +28445,13 @@
         <v>2</v>
       </c>
       <c r="I103" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J103" s="142" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K103" s="142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L103" s="142"/>
       <c r="M103" s="51"/>
@@ -28477,13 +28489,13 @@
         <v>2</v>
       </c>
       <c r="I104" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J104" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K104" s="142" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L104" s="142"/>
       <c r="M104" s="51"/>
@@ -28521,13 +28533,13 @@
         <v>2</v>
       </c>
       <c r="I105" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J105" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K105" s="142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L105" s="142"/>
       <c r="M105" s="121"/>
@@ -28565,13 +28577,13 @@
         <v>2</v>
       </c>
       <c r="I106" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J106" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K106" s="142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L106" s="142"/>
       <c r="M106" s="121"/>
@@ -28609,13 +28621,13 @@
         <v>2</v>
       </c>
       <c r="I107" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J107" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K107" s="142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L107" s="142"/>
       <c r="M107" s="121"/>
@@ -28653,13 +28665,13 @@
         <v>2</v>
       </c>
       <c r="I108" s="142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J108" s="142" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K108" s="142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L108" s="142"/>
       <c r="M108" s="121"/>
@@ -28697,13 +28709,13 @@
         <v>3</v>
       </c>
       <c r="I109" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J109" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K109" s="142" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L109" s="142"/>
       <c r="M109" s="121"/>
@@ -28741,13 +28753,13 @@
         <v>4</v>
       </c>
       <c r="I110" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="J110" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="K110" s="142" t="s">
         <v>154</v>
-      </c>
-      <c r="J110" s="142" t="s">
-        <v>154</v>
-      </c>
-      <c r="K110" s="142" t="s">
-        <v>156</v>
       </c>
       <c r="L110" s="142"/>
       <c r="M110" s="121"/>
@@ -28785,13 +28797,13 @@
         <v>4</v>
       </c>
       <c r="I111" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J111" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K111" s="142" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L111" s="142"/>
       <c r="M111" s="121"/>
@@ -28829,13 +28841,13 @@
         <v>4</v>
       </c>
       <c r="I112" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J112" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K112" s="142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L112" s="144"/>
       <c r="M112" s="51"/>
@@ -28873,13 +28885,13 @@
         <v>4</v>
       </c>
       <c r="I113" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J113" s="142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K113" s="142" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L113" s="144"/>
       <c r="M113" s="51"/>
@@ -30031,7 +30043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -30641,11 +30653,11 @@
       </c>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°1</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -30946,8 +30958,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH($K$44,H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>42</v>
@@ -31896,7 +31908,7 @@
       </c>
       <c r="E7" s="73" t="str">
         <f ca="1">IF($B7="","",INDEX(Backlog!$A:$M,$A7,E$5))</f>
-        <v>Fonction user.getAuthToken</v>
+        <v>Conception architecture auth/access token</v>
       </c>
       <c r="F7" s="48">
         <f ca="1">IF($B7="","",INDEX(Backlog!$A:$M,$A7,F$5))</f>
@@ -32017,7 +32029,7 @@
       </c>
       <c r="E8" s="73" t="str">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,E$5))</f>
-        <v>Fonction user.getAccessToken</v>
+        <v>Gestion des utilisateurs autorisés</v>
       </c>
       <c r="F8" s="48">
         <f ca="1">IF($B8="","",INDEX(Backlog!$A:$M,$A8,F$5))</f>
@@ -32126,7 +32138,7 @@
       </c>
       <c r="B9" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A9),INDEX(Backlog!$A:$M,$A9,B$5),"")</f>
-        <v>1.2.1</v>
+        <v>1.1.3</v>
       </c>
       <c r="C9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,C$5))</f>
@@ -32134,19 +32146,19 @@
       </c>
       <c r="D9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,D$5))</f>
-        <v>Webservices Read</v>
+        <v>Webservices Authentification</v>
       </c>
       <c r="E9" s="73" t="str">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,E$5))</f>
-        <v>Fonction getListAllParcours</v>
+        <v>Implémentation Oauth2</v>
       </c>
       <c r="F9" s="48">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,F$5))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="66">
         <f ca="1">IF($B9="","",INDEX(Backlog!$A:$M,$A9,G$5))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -32247,7 +32259,7 @@
       </c>
       <c r="B10" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A10),INDEX(Backlog!$A:$M,$A10,B$5),"")</f>
-        <v>1.2.2</v>
+        <v>1.2.1</v>
       </c>
       <c r="C10" s="73" t="str">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,C$5))</f>
@@ -32259,7 +32271,7 @@
       </c>
       <c r="E10" s="73" t="str">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,E$5))</f>
-        <v>Fonction getParcoursArchitectureById</v>
+        <v>Fonction getListAllParcours</v>
       </c>
       <c r="F10" s="48">
         <f ca="1">IF($B10="","",INDEX(Backlog!$A:$M,$A10,F$5))</f>
@@ -32368,7 +32380,7 @@
       </c>
       <c r="B11" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A11),INDEX(Backlog!$A:$M,$A11,B$5),"")</f>
-        <v>1.2.3</v>
+        <v>1.2.2</v>
       </c>
       <c r="C11" s="73" t="str">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,C$5))</f>
@@ -32380,7 +32392,7 @@
       </c>
       <c r="E11" s="73" t="str">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,E$5))</f>
-        <v>Fonction getParcoursById</v>
+        <v>Fonction getParcoursArchitectureById</v>
       </c>
       <c r="F11" s="48">
         <f ca="1">IF($B11="","",INDEX(Backlog!$A:$M,$A11,F$5))</f>
@@ -32489,7 +32501,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A12),INDEX(Backlog!$A:$M,$A12,B$5),"")</f>
-        <v>1.2.4</v>
+        <v>1.2.3</v>
       </c>
       <c r="C12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,C$5))</f>
@@ -32501,7 +32513,7 @@
       </c>
       <c r="E12" s="73" t="str">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,E$5))</f>
-        <v>Fonction getSousParcoursById</v>
+        <v>Fonction getParcoursById</v>
       </c>
       <c r="F12" s="48">
         <f ca="1">IF($B12="","",INDEX(Backlog!$A:$M,$A12,F$5))</f>
@@ -32610,7 +32622,7 @@
       </c>
       <c r="B13" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A13),INDEX(Backlog!$A:$M,$A13,B$5),"")</f>
-        <v>1.2.5</v>
+        <v>1.2.4</v>
       </c>
       <c r="C13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,C$5))</f>
@@ -32622,7 +32634,7 @@
       </c>
       <c r="E13" s="73" t="str">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,E$5))</f>
-        <v>Fonction getSceneById</v>
+        <v>Fonction getSousParcoursById</v>
       </c>
       <c r="F13" s="48">
         <f ca="1">IF($B13="","",INDEX(Backlog!$A:$M,$A13,F$5))</f>
@@ -32731,7 +32743,7 @@
       </c>
       <c r="B14" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A14),INDEX(Backlog!$A:$M,$A14,B$5),"")</f>
-        <v>1.2.6</v>
+        <v>1.2.5</v>
       </c>
       <c r="C14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,C$5))</f>
@@ -32743,7 +32755,7 @@
       </c>
       <c r="E14" s="73" t="str">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,E$5))</f>
-        <v>Fonction getTransitionById</v>
+        <v>Fonction getSceneById</v>
       </c>
       <c r="F14" s="48">
         <f ca="1">IF($B14="","",INDEX(Backlog!$A:$M,$A14,F$5))</f>
@@ -32852,7 +32864,7 @@
       </c>
       <c r="B15" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A15),INDEX(Backlog!$A:$M,$A15,B$5),"")</f>
-        <v>1.2.8</v>
+        <v>1.2.6</v>
       </c>
       <c r="C15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,C$5))</f>
@@ -32864,7 +32876,7 @@
       </c>
       <c r="E15" s="73" t="str">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,E$5))</f>
-        <v xml:space="preserve">Fonction getElementById/getMediaByID/getArtefactById </v>
+        <v>Fonction getTransitionById</v>
       </c>
       <c r="F15" s="48">
         <f ca="1">IF($B15="","",INDEX(Backlog!$A:$M,$A15,F$5))</f>
@@ -32973,7 +32985,7 @@
       </c>
       <c r="B16" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A16),INDEX(Backlog!$A:$M,$A16,B$5),"")</f>
-        <v>1.2.10</v>
+        <v>1.2.8</v>
       </c>
       <c r="C16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,C$5))</f>
@@ -32985,7 +32997,7 @@
       </c>
       <c r="E16" s="73" t="str">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,E$5))</f>
-        <v>Fonction getPointOfInterestByTag</v>
+        <v xml:space="preserve">Fonction getElementById/getMediaByID/getArtefactById </v>
       </c>
       <c r="F16" s="48">
         <f ca="1">IF($B16="","",INDEX(Backlog!$A:$M,$A16,F$5))</f>
@@ -33094,7 +33106,7 @@
       </c>
       <c r="B17" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A17),INDEX(Backlog!$A:$M,$A17,B$5),"")</f>
-        <v>1.2.11</v>
+        <v>1.2.10</v>
       </c>
       <c r="C17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,C$5))</f>
@@ -33106,7 +33118,7 @@
       </c>
       <c r="E17" s="73" t="str">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,E$5))</f>
-        <v>Documentation WSDL</v>
+        <v>Fonction getPointOfInterestByTag</v>
       </c>
       <c r="F17" s="48">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,F$5))</f>
@@ -33114,7 +33126,7 @@
       </c>
       <c r="G17" s="66">
         <f ca="1">IF($B17="","",INDEX(Backlog!$A:$M,$A17,G$5))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -33211,11 +33223,11 @@
     <row r="18" spans="1:83">
       <c r="A18" s="90">
         <f t="shared" ca="1" si="91"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A18),INDEX(Backlog!$A:$M,$A18,B$5),"")</f>
-        <v>1.1.3</v>
+        <v>1.2.11</v>
       </c>
       <c r="C18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,C$5))</f>
@@ -33223,19 +33235,19 @@
       </c>
       <c r="D18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,D$5))</f>
-        <v>Webservices Authentification</v>
+        <v>Webservices Read</v>
       </c>
       <c r="E18" s="73" t="str">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,E$5))</f>
-        <v>Conception architecture auth/access token</v>
+        <v>Documentation WSDL</v>
       </c>
       <c r="F18" s="48">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,F$5))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="66">
         <f ca="1">IF($B18="","",INDEX(Backlog!$A:$M,$A18,G$5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -33310,7 +33322,7 @@
       <c r="BZ18" s="84"/>
       <c r="CA18" s="21">
         <f t="shared" ca="1" si="92"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="CB18" s="21">
         <f t="shared" ca="1" si="87"/>
@@ -33318,15 +33330,15 @@
       </c>
       <c r="CC18" s="21" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>Backlog!$F$22:$F$113</v>
+        <v>Backlog!$F$18:$F$113</v>
       </c>
       <c r="CD18" s="21">
         <f t="shared" ca="1" si="89"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE18" s="21">
         <f t="shared" ca="1" si="93"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:83">
@@ -33443,7 +33455,7 @@
       </c>
       <c r="CD19" s="21">
         <f t="shared" ca="1" si="89"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="CE19" s="21">
         <f t="shared" ca="1" si="93"/>
@@ -36239,11 +36251,11 @@
       <c r="E43" s="74"/>
     </row>
     <row r="44" spans="1:83">
-      <c r="K44" s="208" t="str">
+      <c r="K44" s="209" t="str">
         <f>X4</f>
         <v/>
       </c>
-      <c r="L44" s="209"/>
+      <c r="L44" s="210"/>
     </row>
     <row r="45" spans="1:83">
       <c r="M45" s="125"/>
@@ -36948,11 +36960,11 @@
       <c r="BZ2" s="79"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°2</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -37253,8 +37265,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>75</v>
@@ -38187,7 +38199,7 @@
     <row r="7" spans="1:83">
       <c r="A7" s="90">
         <f ca="1">CA7-1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A7),INDEX(Backlog!$A:$M,$A7,B$5),"")</f>
@@ -38286,7 +38298,7 @@
       <c r="BZ7" s="84"/>
       <c r="CA7" s="21">
         <f t="shared" ref="CA7:CA9" ca="1" si="12">IF($CE7="","",CE7)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CB7" s="21">
         <f t="shared" ref="CB7:CB42" ca="1" si="13">IF($CE7="","",Nb_Items)</f>
@@ -38294,21 +38306,21 @@
       </c>
       <c r="CC7" s="21" t="str">
         <f t="shared" ref="CC7:CC42" ca="1" si="14">"Backlog!" &amp; ADDRESS(CA7,$CC$4) &amp; ":" &amp; ADDRESS(CB7,$CC$4)</f>
-        <v>Backlog!$F$19:$F$113</v>
+        <v>Backlog!$F$20:$F$113</v>
       </c>
       <c r="CD7" s="21">
         <f t="shared" ref="CD7:CD42" ca="1" si="15">IF(CC6="","",MATCH($B$2,INDIRECT(CC6),0))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CE7" s="21">
         <f t="shared" ref="CE7:CE9" ca="1" si="16">IF(ISNA($CD7),"",CE6+CD7)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:83">
       <c r="A8" s="90">
         <f t="shared" ref="A8:A42" ca="1" si="17">CA8-1</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A8),INDEX(Backlog!$A:$M,$A8,B$5),"")</f>
@@ -38407,7 +38419,7 @@
       <c r="BZ8" s="84"/>
       <c r="CA8" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CB8" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -38415,7 +38427,7 @@
       </c>
       <c r="CC8" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Backlog!$F$20:$F$113</v>
+        <v>Backlog!$F$21:$F$113</v>
       </c>
       <c r="CD8" s="21">
         <f t="shared" ca="1" si="15"/>
@@ -38423,13 +38435,13 @@
       </c>
       <c r="CE8" s="21">
         <f t="shared" ca="1" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:83" ht="25.5">
+    <row r="9" spans="1:83">
       <c r="A9" s="90">
         <f t="shared" ca="1" si="17"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="18" t="str">
         <f ca="1">IF(ISNUMBER(A9),INDEX(Backlog!$A:$M,$A9,B$5),"")</f>
@@ -38528,7 +38540,7 @@
       <c r="BZ9" s="84"/>
       <c r="CA9" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CB9" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -38536,7 +38548,7 @@
       </c>
       <c r="CC9" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Backlog!$F$21:$F$113</v>
+        <v>Backlog!$F$22:$F$113</v>
       </c>
       <c r="CD9" s="21">
         <f t="shared" ca="1" si="15"/>
@@ -38544,7 +38556,7 @@
       </c>
       <c r="CE9" s="21">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:83">
@@ -38661,7 +38673,7 @@
       </c>
       <c r="CD10" s="21">
         <f t="shared" ca="1" si="15"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CE10" s="21">
         <f ca="1">IF(ISNA($CD10),"",CE9+CD10)</f>
@@ -43210,11 +43222,11 @@
       <c r="BZ2" s="79"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°3</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -43515,8 +43527,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>70</v>
@@ -48860,7 +48872,7 @@
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -49472,11 +49484,11 @@
       <c r="BZ2" s="79"/>
     </row>
     <row r="3" spans="1:83" ht="27.75" customHeight="1">
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="205" t="str">
         <f ca="1">MID(CELL("nomfichier",B3),FIND("]",CELL("nomfichier",B3),1)+1,30)</f>
         <v>SPRINT N°4</v>
       </c>
-      <c r="C3" s="205"/>
+      <c r="C3" s="206"/>
       <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
@@ -49777,8 +49789,8 @@
       </c>
     </row>
     <row r="4" spans="1:83" ht="21.75" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
         <v>62</v>
@@ -51434,7 +51446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:83" ht="25.5">
+    <row r="13" spans="1:83">
       <c r="A13" s="90">
         <f t="shared" ca="1" si="17"/>
         <v>76</v>

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="211">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>Gestion des utilisateurs autorisés</t>
+  </si>
+  <si>
+    <t>Badin</t>
   </si>
 </sst>
 </file>
@@ -2574,7 +2577,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2722,11 +2724,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122132352"/>
-        <c:axId val="122133888"/>
+        <c:axId val="120436608"/>
+        <c:axId val="120438144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122132352"/>
+        <c:axId val="120436608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,14 +2736,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122133888"/>
+        <c:crossAx val="120438144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122133888"/>
+        <c:axId val="120438144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,21 +2757,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122132352"/>
+        <c:crossAx val="120436608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000899" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000899" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000921" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000921" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2795,7 +2796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3105,11 +3105,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122909440"/>
-        <c:axId val="122910976"/>
+        <c:axId val="123233024"/>
+        <c:axId val="123234560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122909440"/>
+        <c:axId val="123233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,14 +3117,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122910976"/>
+        <c:crossAx val="123234560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122910976"/>
+        <c:axId val="123234560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,21 +3138,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122909440"/>
+        <c:crossAx val="123233024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000921" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000921" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000944" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000944" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3178,7 +3177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3469,11 +3467,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122817536"/>
-        <c:axId val="122839808"/>
+        <c:axId val="123354112"/>
+        <c:axId val="123384576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="122817536"/>
+        <c:axId val="123354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,14 +3479,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122839808"/>
+        <c:crossAx val="123384576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122839808"/>
+        <c:axId val="123384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,21 +3500,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="122817536"/>
+        <c:crossAx val="123354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000944" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000944" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000966" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000966" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3542,7 +3539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3915,11 +3911,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123254272"/>
-        <c:axId val="123255808"/>
+        <c:axId val="123549184"/>
+        <c:axId val="123550720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123254272"/>
+        <c:axId val="123549184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,14 +3923,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123255808"/>
+        <c:crossAx val="123550720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123255808"/>
+        <c:axId val="123550720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,21 +3944,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123254272"/>
+        <c:crossAx val="123549184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000966" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000966" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000988" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000988" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3988,7 +3983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4361,11 +4355,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123284864"/>
-        <c:axId val="123556992"/>
+        <c:axId val="123559296"/>
+        <c:axId val="123831424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123284864"/>
+        <c:axId val="123559296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,14 +4367,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123556992"/>
+        <c:crossAx val="123831424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123556992"/>
+        <c:axId val="123831424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,21 +4388,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123284864"/>
+        <c:crossAx val="123559296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000988" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000988" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.7500000000000101" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000101" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12066,7 +12059,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21067,80 +21060,228 @@
       <c r="NE11" s="146"/>
     </row>
     <row r="12" spans="1:379" s="147" customFormat="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="146"/>
-      <c r="AJ12" s="146"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="146"/>
-      <c r="AO12" s="146"/>
-      <c r="AP12" s="146"/>
-      <c r="AQ12" s="146"/>
-      <c r="AR12" s="146"/>
-      <c r="AS12" s="146"/>
-      <c r="AT12" s="146"/>
-      <c r="AU12" s="146"/>
-      <c r="AV12" s="146"/>
-      <c r="AW12" s="146"/>
-      <c r="AX12" s="146"/>
-      <c r="AY12" s="146"/>
-      <c r="AZ12" s="146"/>
-      <c r="BA12" s="146"/>
-      <c r="BB12" s="146"/>
-      <c r="BC12" s="146"/>
-      <c r="BD12" s="146"/>
-      <c r="BE12" s="146"/>
-      <c r="BF12" s="146"/>
-      <c r="BG12" s="146"/>
-      <c r="BH12" s="146"/>
-      <c r="BI12" s="146"/>
-      <c r="BJ12" s="146"/>
-      <c r="BK12" s="146"/>
-      <c r="BL12" s="146"/>
-      <c r="BM12" s="146"/>
-      <c r="BN12" s="146"/>
-      <c r="BO12" s="146"/>
-      <c r="BP12" s="146"/>
-      <c r="BQ12" s="146"/>
-      <c r="BR12" s="146"/>
-      <c r="BS12" s="146"/>
-      <c r="BT12" s="146"/>
-      <c r="BU12" s="146"/>
-      <c r="BV12" s="146"/>
+      <c r="A12" s="145" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="145" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="146">
+        <v>1</v>
+      </c>
+      <c r="F12" s="146">
+        <v>1</v>
+      </c>
+      <c r="G12" s="146">
+        <v>1</v>
+      </c>
+      <c r="H12" s="146">
+        <v>1</v>
+      </c>
+      <c r="I12" s="146">
+        <v>1</v>
+      </c>
+      <c r="J12" s="146">
+        <v>1</v>
+      </c>
+      <c r="K12" s="146">
+        <v>1</v>
+      </c>
+      <c r="L12" s="146">
+        <v>1</v>
+      </c>
+      <c r="M12" s="146">
+        <v>1</v>
+      </c>
+      <c r="N12" s="146">
+        <v>1</v>
+      </c>
+      <c r="O12" s="146">
+        <v>1</v>
+      </c>
+      <c r="P12" s="146">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="146">
+        <v>1</v>
+      </c>
+      <c r="R12" s="146">
+        <v>1</v>
+      </c>
+      <c r="S12" s="146">
+        <v>1</v>
+      </c>
+      <c r="T12" s="146">
+        <v>1</v>
+      </c>
+      <c r="U12" s="146">
+        <v>1</v>
+      </c>
+      <c r="V12" s="146">
+        <v>1</v>
+      </c>
+      <c r="W12" s="146">
+        <v>1</v>
+      </c>
+      <c r="X12" s="146">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="146">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="146">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="146">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="146">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="146">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="146">
+        <v>1</v>
+      </c>
       <c r="BW12" s="146"/>
       <c r="BX12" s="146"/>
       <c r="BY12" s="146"/>
@@ -23399,7 +23540,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -23533,7 +23674,7 @@
       </c>
       <c r="I7" s="15">
         <f ca="1">IF($AD7,SUM(INDIRECT(AG7)),"")</f>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J7" s="22">
         <v>0</v>
@@ -23592,7 +23733,7 @@
       </c>
       <c r="I8" s="15">
         <f t="shared" ref="I8:I11" ca="1" si="6">IF($AD8,SUM(INDIRECT(AG8)),"")</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J8" s="22">
         <v>0</v>
@@ -23651,7 +23792,7 @@
       </c>
       <c r="I9" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J9" s="22">
         <v>0</v>
@@ -23711,7 +23852,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J10" s="22">
         <v>0</v>
@@ -23771,7 +23912,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
@@ -23817,7 +23958,7 @@
       </c>
       <c r="I12" s="108">
         <f ca="1">SUM(I7:I11)</f>
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="J12" s="110">
         <f>AVERAGE(J7:J11)</f>
@@ -38438,7 +38579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:83" ht="25.5">
       <c r="A9" s="90">
         <f t="shared" ca="1" si="17"/>
         <v>21</v>
@@ -51446,7 +51587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:83">
+    <row r="13" spans="1:83" ht="25.5">
       <c r="A13" s="90">
         <f t="shared" ca="1" si="17"/>
         <v>76</v>

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12690" windowHeight="7755" tabRatio="824" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12690" windowHeight="7755" tabRatio="824" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="218">
   <si>
     <t>Rédacteur</t>
   </si>
@@ -691,6 +691,27 @@
   </si>
   <si>
     <t>Badin</t>
+  </si>
+  <si>
+    <t>Historique</t>
+  </si>
+  <si>
+    <t>Historique de contributions de médias</t>
+  </si>
+  <si>
+    <t>Historique de consultations de scènes</t>
+  </si>
+  <si>
+    <t>Recommandations</t>
+  </si>
+  <si>
+    <t>GetHistoriqueContributionsByIdUser</t>
+  </si>
+  <si>
+    <t>GetHistoriqueConsultationsByIdUser</t>
+  </si>
+  <si>
+    <t>Système de recommandation de scènes basé sur historique consult</t>
   </si>
 </sst>
 </file>
@@ -1826,11 +1847,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1866,26 +1907,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,6 +2009,9 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1996,9 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2724,11 +2745,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120436608"/>
-        <c:axId val="120438144"/>
+        <c:axId val="115128192"/>
+        <c:axId val="115129728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120436608"/>
+        <c:axId val="115128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,14 +2757,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120438144"/>
+        <c:crossAx val="115129728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120438144"/>
+        <c:axId val="115129728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2778,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="120436608"/>
+        <c:crossAx val="115128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2770,7 +2791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000921" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000921" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000933" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000933" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3105,11 +3126,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123233024"/>
-        <c:axId val="123234560"/>
+        <c:axId val="115827456"/>
+        <c:axId val="115828992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123233024"/>
+        <c:axId val="115827456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,14 +3138,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123234560"/>
+        <c:crossAx val="115828992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123234560"/>
+        <c:axId val="115828992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3159,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123233024"/>
+        <c:crossAx val="115827456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3172,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000944" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000944" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000955" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000955" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3467,11 +3488,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123354112"/>
-        <c:axId val="123384576"/>
+        <c:axId val="115948544"/>
+        <c:axId val="115979008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="123354112"/>
+        <c:axId val="115948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,14 +3500,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123384576"/>
+        <c:crossAx val="115979008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="123384576"/>
+        <c:axId val="115979008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,7 +3521,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123354112"/>
+        <c:crossAx val="115948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,7 +3534,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000966" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000966" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000977" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000977" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3911,11 +3932,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123549184"/>
-        <c:axId val="123550720"/>
+        <c:axId val="116143616"/>
+        <c:axId val="116145152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123549184"/>
+        <c:axId val="116143616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,14 +3944,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123550720"/>
+        <c:crossAx val="116145152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123550720"/>
+        <c:axId val="116145152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +3965,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123549184"/>
+        <c:crossAx val="116143616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,7 +3978,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000988" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000988" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000999" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000999" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4069,61 +4090,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.368421052631575</c:v>
+                  <c:v>56.842105263157897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.73684210526315</c:v>
+                  <c:v>53.684210526315795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.105263157894726</c:v>
+                  <c:v>50.526315789473692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.473684210526301</c:v>
+                  <c:v>47.368421052631589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.842105263157876</c:v>
+                  <c:v>44.210526315789487</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.210526315789451</c:v>
+                  <c:v>41.052631578947384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.57894736842103</c:v>
+                  <c:v>37.894736842105281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.947368421052609</c:v>
+                  <c:v>34.736842105263179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.315789473684188</c:v>
+                  <c:v>31.578947368421073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.684210526315766</c:v>
+                  <c:v>28.421052631578966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.052631578947345</c:v>
+                  <c:v>25.26315789473686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.421052631578924</c:v>
+                  <c:v>22.105263157894754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.789473684210503</c:v>
+                  <c:v>18.947368421052648</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.157894736842081</c:v>
+                  <c:v>15.789473684210542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.52631578947366</c:v>
+                  <c:v>12.631578947368435</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8947368421052388</c:v>
+                  <c:v>9.4736842105263293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2631578947368176</c:v>
+                  <c:v>6.3157894736842239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6315789473683964</c:v>
+                  <c:v>3.1578947368421186</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4355,11 +4376,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123559296"/>
-        <c:axId val="123831424"/>
+        <c:axId val="116153728"/>
+        <c:axId val="116425856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123559296"/>
+        <c:axId val="116153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,14 +4388,14 @@
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123831424"/>
+        <c:crossAx val="116425856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123831424"/>
+        <c:axId val="116425856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +4409,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="123559296"/>
+        <c:crossAx val="116153728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,7 +4422,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.7500000000000101" l="0.70000000000000062" r="0.70000000000000062" t="0.7500000000000101" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001021" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001021" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4954,17 +4975,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -4973,15 +4994,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -4990,15 +5011,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5073,55 +5094,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="164"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="169"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="167"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="170"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="175"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5143,341 +5164,341 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="171" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171" t="s">
+      <c r="C14" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171" t="s">
+      <c r="I14" s="176"/>
+      <c r="J14" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="173">
+      <c r="C15" s="160">
         <v>41723</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="172" t="s">
+      <c r="D15" s="161"/>
+      <c r="E15" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172" t="s">
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="172"/>
-      <c r="J15" s="175" t="s">
+      <c r="I15" s="159"/>
+      <c r="J15" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="5"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="5"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="5"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="5"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="5"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="5"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="5"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="5"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="5"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="5"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
@@ -5501,36 +5522,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
@@ -5547,38 +5570,36 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="60" priority="1">
@@ -6517,7 +6538,7 @@
       <c r="C4" s="208"/>
       <c r="D4" s="72">
         <f ca="1">IF(AND(TODAY()&gt;=F3,TODAY()&lt;=F4),INDIRECT(ADDRESS(6,7+MATCH(TODAY(),H4:BZ4,0))),IF(TODAY()&lt;F3,G4,0))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>10</v>
@@ -6527,7 +6548,7 @@
       </c>
       <c r="G4" s="63">
         <f ca="1">SUM(G7:G42)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" s="25">
         <f>H3</f>
@@ -6842,79 +6863,79 @@
       </c>
       <c r="H5" s="156">
         <f ca="1">G4</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5" s="157">
         <f ca="1">IF(I2,H5-$H$5/$F$2,"")</f>
-        <v>47.368421052631575</v>
+        <v>56.842105263157897</v>
       </c>
       <c r="J5" s="157">
         <f t="shared" ref="J5:BU5" ca="1" si="8">IF(J2,I5-$H$5/$F$2,"")</f>
-        <v>44.73684210526315</v>
+        <v>53.684210526315795</v>
       </c>
       <c r="K5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>42.105263157894726</v>
+        <v>50.526315789473692</v>
       </c>
       <c r="L5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>39.473684210526301</v>
+        <v>47.368421052631589</v>
       </c>
       <c r="M5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>36.842105263157876</v>
+        <v>44.210526315789487</v>
       </c>
       <c r="N5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>34.210526315789451</v>
+        <v>41.052631578947384</v>
       </c>
       <c r="O5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>31.57894736842103</v>
+        <v>37.894736842105281</v>
       </c>
       <c r="P5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>28.947368421052609</v>
+        <v>34.736842105263179</v>
       </c>
       <c r="Q5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>26.315789473684188</v>
+        <v>31.578947368421073</v>
       </c>
       <c r="R5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>23.684210526315766</v>
+        <v>28.421052631578966</v>
       </c>
       <c r="S5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>21.052631578947345</v>
+        <v>25.26315789473686</v>
       </c>
       <c r="T5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>18.421052631578924</v>
+        <v>22.105263157894754</v>
       </c>
       <c r="U5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>15.789473684210503</v>
+        <v>18.947368421052648</v>
       </c>
       <c r="V5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>13.157894736842081</v>
+        <v>15.789473684210542</v>
       </c>
       <c r="W5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>10.52631578947366</v>
+        <v>12.631578947368435</v>
       </c>
       <c r="X5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8947368421052388</v>
+        <v>9.4736842105263293</v>
       </c>
       <c r="Y5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2631578947368176</v>
+        <v>6.3157894736842239</v>
       </c>
       <c r="Z5" s="157">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6315789473683964</v>
+        <v>3.1578947368421186</v>
       </c>
       <c r="AA5" s="44" t="str">
         <f t="shared" si="8"/>
@@ -8905,17 +8926,17 @@
         <f ca="1">IF(ISNUMBER(A19),INDEX(Backlog!$A:$M,$A19,B$5),"")</f>
         <v>0</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="73">
+        <v>BackOffice</v>
+      </c>
+      <c r="D19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="73">
+        <v>Historique</v>
+      </c>
+      <c r="E19" s="73" t="str">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,E$5))</f>
-        <v>0</v>
+        <v>Historique de consultations de scènes</v>
       </c>
       <c r="F19" s="48">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,F$5))</f>
@@ -8923,7 +8944,7 @@
       </c>
       <c r="G19" s="66">
         <f ca="1">IF($B19="","",INDEX(Backlog!$A:$M,$A19,G$5))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9026,17 +9047,17 @@
         <f ca="1">IF(ISNUMBER(A20),INDEX(Backlog!$A:$M,$A20,B$5),"")</f>
         <v>0</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="73">
+        <v>BackOffice</v>
+      </c>
+      <c r="D20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="73">
+        <v>Historique</v>
+      </c>
+      <c r="E20" s="73" t="str">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,E$5))</f>
-        <v>0</v>
+        <v>Historique de contributions de médias</v>
       </c>
       <c r="F20" s="48">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,F$5))</f>
@@ -9044,7 +9065,7 @@
       </c>
       <c r="G20" s="66">
         <f ca="1">IF($B20="","",INDEX(Backlog!$A:$M,$A20,G$5))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -9147,17 +9168,17 @@
         <f ca="1">IF(ISNUMBER(A21),INDEX(Backlog!$A:$M,$A21,B$5),"")</f>
         <v>0</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="73">
+        <v>BackOffice</v>
+      </c>
+      <c r="D21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="73">
+        <v>Webservices Read</v>
+      </c>
+      <c r="E21" s="73" t="str">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,E$5))</f>
-        <v>0</v>
+        <v>GetHistoriqueConsultationsByIdUser</v>
       </c>
       <c r="F21" s="48">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,F$5))</f>
@@ -9165,7 +9186,7 @@
       </c>
       <c r="G21" s="66">
         <f ca="1">IF($B21="","",INDEX(Backlog!$A:$M,$A21,G$5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -9268,17 +9289,17 @@
         <f ca="1">IF(ISNUMBER(A22),INDEX(Backlog!$A:$M,$A22,B$5),"")</f>
         <v>0</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="73">
+        <v>BackOffice</v>
+      </c>
+      <c r="D22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="73">
+        <v>Webservices Read</v>
+      </c>
+      <c r="E22" s="73" t="str">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,E$5))</f>
-        <v>0</v>
+        <v>GetHistoriqueContributionsByIdUser</v>
       </c>
       <c r="F22" s="48">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,F$5))</f>
@@ -9286,7 +9307,7 @@
       </c>
       <c r="G22" s="66">
         <f ca="1">IF($B22="","",INDEX(Backlog!$A:$M,$A22,G$5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -9389,17 +9410,17 @@
         <f ca="1">IF(ISNUMBER(A23),INDEX(Backlog!$A:$M,$A23,B$5),"")</f>
         <v>0</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,C$5))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="73">
+        <v>BackOffice</v>
+      </c>
+      <c r="D23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,D$5))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="73">
+        <v>Recommandations</v>
+      </c>
+      <c r="E23" s="73" t="str">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,E$5))</f>
-        <v>0</v>
+        <v>Système de recommandation de scènes basé sur historique consult</v>
       </c>
       <c r="F23" s="48">
         <f ca="1">IF($B23="","",INDEX(Backlog!$A:$M,$A23,F$5))</f>
@@ -14634,10 +14655,10 @@
       </c>
     </row>
     <row r="3" spans="1:379" s="101" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="213"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
+      <c r="A3" s="214"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="211" t="s">
         <v>34</v>
       </c>
@@ -14655,23 +14676,23 @@
       <c r="Q3" s="211"/>
       <c r="R3" s="211"/>
       <c r="S3" s="211"/>
-      <c r="T3" s="215" t="s">
+      <c r="T3" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="215"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="212"/>
+      <c r="AH3" s="212"/>
       <c r="AI3" s="211" t="s">
         <v>38</v>
       </c>
@@ -14689,23 +14710,23 @@
       <c r="AU3" s="211"/>
       <c r="AV3" s="211"/>
       <c r="AW3" s="211"/>
-      <c r="AX3" s="215" t="s">
+      <c r="AX3" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" s="215"/>
-      <c r="AZ3" s="215"/>
-      <c r="BA3" s="215"/>
-      <c r="BB3" s="215"/>
-      <c r="BC3" s="215"/>
-      <c r="BD3" s="215"/>
-      <c r="BE3" s="215"/>
-      <c r="BF3" s="215"/>
-      <c r="BG3" s="215"/>
-      <c r="BH3" s="215"/>
-      <c r="BI3" s="215"/>
-      <c r="BJ3" s="215"/>
-      <c r="BK3" s="215"/>
-      <c r="BL3" s="215"/>
+      <c r="AY3" s="212"/>
+      <c r="AZ3" s="212"/>
+      <c r="BA3" s="212"/>
+      <c r="BB3" s="212"/>
+      <c r="BC3" s="212"/>
+      <c r="BD3" s="212"/>
+      <c r="BE3" s="212"/>
+      <c r="BF3" s="212"/>
+      <c r="BG3" s="212"/>
+      <c r="BH3" s="212"/>
+      <c r="BI3" s="212"/>
+      <c r="BJ3" s="212"/>
+      <c r="BK3" s="212"/>
+      <c r="BL3" s="212"/>
       <c r="BM3" s="211" t="s">
         <v>40</v>
       </c>
@@ -14723,23 +14744,23 @@
       <c r="BY3" s="211"/>
       <c r="BZ3" s="211"/>
       <c r="CA3" s="211"/>
-      <c r="CB3" s="215" t="s">
+      <c r="CB3" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="215"/>
-      <c r="CD3" s="215"/>
-      <c r="CE3" s="215"/>
-      <c r="CF3" s="215"/>
-      <c r="CG3" s="215"/>
-      <c r="CH3" s="215"/>
-      <c r="CI3" s="215"/>
-      <c r="CJ3" s="215"/>
-      <c r="CK3" s="215"/>
-      <c r="CL3" s="215"/>
-      <c r="CM3" s="215"/>
-      <c r="CN3" s="215"/>
-      <c r="CO3" s="215"/>
-      <c r="CP3" s="215"/>
+      <c r="CC3" s="212"/>
+      <c r="CD3" s="212"/>
+      <c r="CE3" s="212"/>
+      <c r="CF3" s="212"/>
+      <c r="CG3" s="212"/>
+      <c r="CH3" s="212"/>
+      <c r="CI3" s="212"/>
+      <c r="CJ3" s="212"/>
+      <c r="CK3" s="212"/>
+      <c r="CL3" s="212"/>
+      <c r="CM3" s="212"/>
+      <c r="CN3" s="212"/>
+      <c r="CO3" s="212"/>
+      <c r="CP3" s="212"/>
       <c r="CQ3" s="211" t="s">
         <v>42</v>
       </c>
@@ -15065,10 +15086,10 @@
       <c r="NO3" s="211"/>
     </row>
     <row r="4" spans="1:379" s="101" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="211"/>
       <c r="F4" s="211"/>
       <c r="G4" s="211"/>
@@ -15084,21 +15105,21 @@
       <c r="Q4" s="211"/>
       <c r="R4" s="211"/>
       <c r="S4" s="211"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="215"/>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="212"/>
+      <c r="V4" s="212"/>
+      <c r="W4" s="212"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="212"/>
+      <c r="Z4" s="212"/>
+      <c r="AA4" s="212"/>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
+      <c r="AE4" s="212"/>
+      <c r="AF4" s="212"/>
+      <c r="AG4" s="212"/>
+      <c r="AH4" s="212"/>
       <c r="AI4" s="211"/>
       <c r="AJ4" s="211"/>
       <c r="AK4" s="211"/>
@@ -15114,21 +15135,21 @@
       <c r="AU4" s="211"/>
       <c r="AV4" s="211"/>
       <c r="AW4" s="211"/>
-      <c r="AX4" s="215"/>
-      <c r="AY4" s="215"/>
-      <c r="AZ4" s="215"/>
-      <c r="BA4" s="215"/>
-      <c r="BB4" s="215"/>
-      <c r="BC4" s="215"/>
-      <c r="BD4" s="215"/>
-      <c r="BE4" s="215"/>
-      <c r="BF4" s="215"/>
-      <c r="BG4" s="215"/>
-      <c r="BH4" s="215"/>
-      <c r="BI4" s="215"/>
-      <c r="BJ4" s="215"/>
-      <c r="BK4" s="215"/>
-      <c r="BL4" s="215"/>
+      <c r="AX4" s="212"/>
+      <c r="AY4" s="212"/>
+      <c r="AZ4" s="212"/>
+      <c r="BA4" s="212"/>
+      <c r="BB4" s="212"/>
+      <c r="BC4" s="212"/>
+      <c r="BD4" s="212"/>
+      <c r="BE4" s="212"/>
+      <c r="BF4" s="212"/>
+      <c r="BG4" s="212"/>
+      <c r="BH4" s="212"/>
+      <c r="BI4" s="212"/>
+      <c r="BJ4" s="212"/>
+      <c r="BK4" s="212"/>
+      <c r="BL4" s="212"/>
       <c r="BM4" s="211"/>
       <c r="BN4" s="211"/>
       <c r="BO4" s="211"/>
@@ -15144,21 +15165,21 @@
       <c r="BY4" s="211"/>
       <c r="BZ4" s="211"/>
       <c r="CA4" s="211"/>
-      <c r="CB4" s="215"/>
-      <c r="CC4" s="215"/>
-      <c r="CD4" s="215"/>
-      <c r="CE4" s="215"/>
-      <c r="CF4" s="215"/>
-      <c r="CG4" s="215"/>
-      <c r="CH4" s="215"/>
-      <c r="CI4" s="215"/>
-      <c r="CJ4" s="215"/>
-      <c r="CK4" s="215"/>
-      <c r="CL4" s="215"/>
-      <c r="CM4" s="215"/>
-      <c r="CN4" s="215"/>
-      <c r="CO4" s="215"/>
-      <c r="CP4" s="215"/>
+      <c r="CB4" s="212"/>
+      <c r="CC4" s="212"/>
+      <c r="CD4" s="212"/>
+      <c r="CE4" s="212"/>
+      <c r="CF4" s="212"/>
+      <c r="CG4" s="212"/>
+      <c r="CH4" s="212"/>
+      <c r="CI4" s="212"/>
+      <c r="CJ4" s="212"/>
+      <c r="CK4" s="212"/>
+      <c r="CL4" s="212"/>
+      <c r="CM4" s="212"/>
+      <c r="CN4" s="212"/>
+      <c r="CO4" s="212"/>
+      <c r="CP4" s="212"/>
       <c r="CQ4" s="211"/>
       <c r="CR4" s="211"/>
       <c r="CS4" s="211"/>
@@ -15446,16 +15467,16 @@
       <c r="NO4" s="211"/>
     </row>
     <row r="5" spans="1:379" s="102" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="213" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="68">
@@ -16919,10 +16940,10 @@
       </c>
     </row>
     <row r="6" spans="1:379" s="102" customFormat="1" ht="12.75">
-      <c r="A6" s="212"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="69">
         <f>E5</f>
         <v>41792</v>
@@ -23435,6 +23456,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="IK3:IY4"/>
+    <mergeCell ref="IZ3:JN4"/>
+    <mergeCell ref="JO3:KC4"/>
+    <mergeCell ref="NA3:NO4"/>
+    <mergeCell ref="KD3:KR4"/>
+    <mergeCell ref="KS3:LG4"/>
+    <mergeCell ref="LH3:LV4"/>
+    <mergeCell ref="LW3:MK4"/>
+    <mergeCell ref="ML3:MZ4"/>
+    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -23445,26 +23486,6 @@
     <mergeCell ref="CQ3:DE4"/>
     <mergeCell ref="DF3:DT4"/>
     <mergeCell ref="DU3:EI4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="HG3:HU4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="IK3:IY4"/>
-    <mergeCell ref="IZ3:JN4"/>
-    <mergeCell ref="JO3:KC4"/>
-    <mergeCell ref="NA3:NO4"/>
-    <mergeCell ref="KD3:KR4"/>
-    <mergeCell ref="KS3:LG4"/>
-    <mergeCell ref="LH3:LV4"/>
-    <mergeCell ref="LW3:MK4"/>
-    <mergeCell ref="ML3:MZ4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:NE6 AQ7:AQ8 IX7:IX8 JC7:JC8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 JM7:JM8 JH7:JH8 JW7:JW8 JR7:JR8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -23539,7 +23560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -23904,11 +23925,11 @@
       </c>
       <c r="G11" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="6"/>
@@ -23950,11 +23971,11 @@
       <c r="F12" s="178"/>
       <c r="G12" s="109">
         <f ca="1">SUM(G7:G11)</f>
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H12" s="105">
         <f ca="1">SUM(H7:H11)</f>
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I12" s="108">
         <f ca="1">SUM(I7:I11)</f>
@@ -23975,7 +23996,7 @@
       <c r="F14" s="190"/>
       <c r="G14" s="191">
         <f>SUM(Backlog!H:H)</f>
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H14" s="191"/>
       <c r="I14" s="191"/>
@@ -24182,9 +24203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -24199,7 +24220,7 @@
     <col min="8" max="8" width="14.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" style="37" customWidth="1"/>
     <col min="10" max="10" width="33.7109375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="57" style="37" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="37" customWidth="1"/>
     <col min="12" max="12" width="57" style="35" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="36" customWidth="1"/>
     <col min="14" max="14" width="107.140625" style="35" customWidth="1"/>
@@ -29053,16 +29074,24 @@
       <c r="E114" s="32"/>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
+      <c r="H114" s="32">
+        <v>4</v>
+      </c>
+      <c r="I114" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J114" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="K114" s="40" t="s">
+        <v>213</v>
+      </c>
       <c r="L114" s="52"/>
       <c r="M114" s="32"/>
       <c r="N114" s="59"/>
       <c r="O114" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> :  \  \ </v>
+        <v xml:space="preserve"> : BackOffice \ Historique \ Historique de consultations de scènes</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="41" customFormat="1">
@@ -29076,16 +29105,24 @@
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="40"/>
-      <c r="K115" s="40"/>
+      <c r="H115" s="32">
+        <v>4</v>
+      </c>
+      <c r="I115" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J115" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="K115" s="40" t="s">
+        <v>212</v>
+      </c>
       <c r="L115" s="52"/>
       <c r="M115" s="32"/>
       <c r="N115" s="59"/>
       <c r="O115" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> :  \  \ </v>
+        <v xml:space="preserve"> : BackOffice \ Historique \ Historique de contributions de médias</v>
       </c>
     </row>
     <row r="116" spans="1:15" s="41" customFormat="1">
@@ -29099,16 +29136,24 @@
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40"/>
-      <c r="K116" s="40"/>
+      <c r="H116" s="32">
+        <v>1</v>
+      </c>
+      <c r="I116" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J116" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K116" s="40" t="s">
+        <v>216</v>
+      </c>
       <c r="L116" s="52"/>
       <c r="M116" s="32"/>
       <c r="N116" s="59"/>
       <c r="O116" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> :  \  \ </v>
+        <v xml:space="preserve"> : BackOffice \ Webservices Read \ GetHistoriqueConsultationsByIdUser</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="41" customFormat="1">
@@ -29122,19 +29167,27 @@
       <c r="E117" s="32"/>
       <c r="F117" s="32"/>
       <c r="G117" s="32"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="40"/>
-      <c r="K117" s="40"/>
+      <c r="H117" s="76">
+        <v>1</v>
+      </c>
+      <c r="I117" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J117" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K117" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="L117" s="52"/>
       <c r="M117" s="32"/>
       <c r="N117" s="59"/>
       <c r="O117" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> :  \  \ </v>
+        <v xml:space="preserve"> : BackOffice \ Webservices Read \ GetHistoriqueContributionsByIdUser</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="41" customFormat="1">
+    <row r="118" spans="1:15" s="41" customFormat="1" ht="25.5">
       <c r="A118" s="50" t="str">
         <f>IF($N118="","??",INDEX('Liste SFD'!$A:$A,MATCH($N118,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -29146,15 +29199,21 @@
       <c r="F118" s="32"/>
       <c r="G118" s="32"/>
       <c r="H118" s="76"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
+      <c r="I118" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J118" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K118" s="40" t="s">
+        <v>217</v>
+      </c>
       <c r="L118" s="52"/>
       <c r="M118" s="32"/>
       <c r="N118" s="59"/>
       <c r="O118" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> :  \  \ </v>
+        <v xml:space="preserve"> : BackOffice \ Recommandations \ Système de recommandation de scènes basé sur historique consult</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="41" customFormat="1">

--- a/doc/2014/AconitBacklog.xlsx
+++ b/doc/2014/AconitBacklog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12690" windowHeight="7755" tabRatio="824" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28340" windowHeight="16500" tabRatio="824" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,12 @@
     <definedName name="test_theorique" localSheetId="8">OFFSET('SPRINT N°4'!$H$5,0,0,1,'SPRINT N°4'!$F$2)</definedName>
     <definedName name="test_theorique" localSheetId="9">OFFSET('SPRINT N°5'!$H$5,0,0,1,'SPRINT N°5'!$F$2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -717,13 +722,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1066,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1243,26 +1264,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1271,7 +1292,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1279,17 +1300,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1299,7 +1320,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1307,12 +1328,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,69 +1342,69 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1391,26 +1412,26 @@
     <border>
       <left/>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,10 +1439,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,10 +1462,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1847,31 +1872,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1907,6 +1912,26 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,9 +2034,6 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2021,8 +2043,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
     <cellStyle name="Sortie" xfId="2" builtinId="21"/>
@@ -2580,7 +2609,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2598,21 +2637,24 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.6174065876248806E-2"/>
-          <c:y val="9.7088692755988235E-2"/>
-          <c:w val="0.96069639519800865"/>
-          <c:h val="0.78953945347197263"/>
+          <c:x val="0.0261740658762488"/>
+          <c:y val="0.0970886927559882"/>
+          <c:w val="0.960696395198009"/>
+          <c:h val="0.789539453471973"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2629,53 +2671,54 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.200000000000003</c:v>
+                  <c:v>39.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.400000000000006</c:v>
+                  <c:v>36.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.600000000000009</c:v>
+                  <c:v>33.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.800000000000008</c:v>
+                  <c:v>30.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.000000000000007</c:v>
+                  <c:v>28.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.200000000000006</c:v>
+                  <c:v>25.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.400000000000006</c:v>
+                  <c:v>22.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.600000000000005</c:v>
+                  <c:v>19.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.800000000000004</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.000000000000004</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.200000000000003</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4000000000000021</c:v>
+                  <c:v>8.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000000000000023</c:v>
+                  <c:v>5.600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8000000000000025</c:v>
+                  <c:v>2.800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2693,105 +2736,122 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115128192"/>
-        <c:axId val="115129728"/>
+        <c:smooth val="0"/>
+        <c:axId val="484603672"/>
+        <c:axId val="484606648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115128192"/>
+        <c:axId val="484603672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115129728"/>
+        <c:crossAx val="484606648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115129728"/>
+        <c:axId val="484606648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115128192"/>
+        <c:crossAx val="484603672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000933" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000933" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000009" l="0.700000000000001" r="0.700000000000001" t="0.750000000000009" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2799,7 +2859,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2817,11 +2887,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2903,7 +2976,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>71.05263157894737</c:v>
@@ -2918,50 +2991,51 @@
                   <c:v>59.21052631578948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.26315789473685</c:v>
+                  <c:v>55.26315789473684</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.31578947368422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.368421052631589</c:v>
+                  <c:v>47.36842105263159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.421052631578959</c:v>
+                  <c:v>43.42105263157895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.473684210526329</c:v>
+                  <c:v>39.47368421052633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.526315789473699</c:v>
+                  <c:v>35.5263157894737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.578947368421069</c:v>
+                  <c:v>31.57894736842107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.631578947368439</c:v>
+                  <c:v>27.63157894736844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.684210526315809</c:v>
+                  <c:v>23.68421052631581</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.736842105263179</c:v>
+                  <c:v>19.73684210526318</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.789473684210547</c:v>
+                  <c:v>15.78947368421055</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.842105263157915</c:v>
+                  <c:v>11.84210526315792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8947368421052833</c:v>
+                  <c:v>7.894736842105283</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9473684210526518</c:v>
+                  <c:v>3.947368421052652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3044,135 +3118,152 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115827456"/>
-        <c:axId val="115828992"/>
+        <c:smooth val="0"/>
+        <c:axId val="484727352"/>
+        <c:axId val="484730408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115827456"/>
+        <c:axId val="484727352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115828992"/>
+        <c:crossAx val="484730408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115828992"/>
+        <c:axId val="484730408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115827456"/>
+        <c:crossAx val="484727352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000955" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000955" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001" l="0.700000000000001" r="0.700000000000001" t="0.75000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3180,7 +3271,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3198,11 +3299,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3219,61 +3323,61 @@
                 <c:formatCode>dd/mm</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>41834</c:v>
+                  <c:v>41834.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41835</c:v>
+                  <c:v>41835.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41836</c:v>
+                  <c:v>41836.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41837</c:v>
+                  <c:v>41837.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41838</c:v>
+                  <c:v>41838.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41839</c:v>
+                  <c:v>41839.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41840</c:v>
+                  <c:v>41840.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41841</c:v>
+                  <c:v>41841.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41842</c:v>
+                  <c:v>41842.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41843</c:v>
+                  <c:v>41843.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41844</c:v>
+                  <c:v>41844.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41845</c:v>
+                  <c:v>41845.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41846</c:v>
+                  <c:v>41846.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41847</c:v>
+                  <c:v>41847.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41848</c:v>
+                  <c:v>41848.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41849</c:v>
+                  <c:v>41849.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41850</c:v>
+                  <c:v>41850.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41851</c:v>
+                  <c:v>41851.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41852</c:v>
+                  <c:v>41852.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3285,65 +3389,66 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.315789473684205</c:v>
+                  <c:v>66.31578947368421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.631578947368418</c:v>
+                  <c:v>62.63157894736842</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58.94736842105263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.263157894736842</c:v>
+                  <c:v>55.26315789473684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.578947368421055</c:v>
+                  <c:v>51.57894736842105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.894736842105267</c:v>
+                  <c:v>47.89473684210526</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>44.21052631578948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.526315789473692</c:v>
+                  <c:v>40.5263157894737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.842105263157904</c:v>
+                  <c:v>36.8421052631579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.157894736842117</c:v>
+                  <c:v>33.15789473684212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.473684210526329</c:v>
+                  <c:v>29.47368421052633</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.789473684210542</c:v>
+                  <c:v>25.78947368421054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.105263157894754</c:v>
+                  <c:v>22.10526315789475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.421052631578966</c:v>
+                  <c:v>18.42105263157897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.736842105263177</c:v>
+                  <c:v>14.73684210526318</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.052631578947388</c:v>
+                  <c:v>11.05263157894739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3684210526315983</c:v>
+                  <c:v>7.368421052631598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6842105263158089</c:v>
+                  <c:v>3.684210526315809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3361,61 +3466,61 @@
                 <c:formatCode>dd/mm</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>41834</c:v>
+                  <c:v>41834.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41835</c:v>
+                  <c:v>41835.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41836</c:v>
+                  <c:v>41836.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41837</c:v>
+                  <c:v>41837.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41838</c:v>
+                  <c:v>41838.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41839</c:v>
+                  <c:v>41839.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41840</c:v>
+                  <c:v>41840.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41841</c:v>
+                  <c:v>41841.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41842</c:v>
+                  <c:v>41842.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41843</c:v>
+                  <c:v>41843.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41844</c:v>
+                  <c:v>41844.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41845</c:v>
+                  <c:v>41845.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41846</c:v>
+                  <c:v>41846.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41847</c:v>
+                  <c:v>41847.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41848</c:v>
+                  <c:v>41848.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41849</c:v>
+                  <c:v>41849.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41850</c:v>
+                  <c:v>41850.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41851</c:v>
+                  <c:v>41851.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41852</c:v>
+                  <c:v>41852.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,114 +3532,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="115948544"/>
-        <c:axId val="115979008"/>
+        <c:smooth val="0"/>
+        <c:axId val="484846392"/>
+        <c:axId val="484849416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115948544"/>
+        <c:axId val="484846392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115979008"/>
+        <c:crossAx val="484849416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115979008"/>
+        <c:axId val="484849416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115948544"/>
+        <c:crossAx val="484846392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000977" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000977" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001" l="0.700000000000001" r="0.700000000000001" t="0.75000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3542,7 +3663,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3560,11 +3691,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3646,107 +3780,108 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.736842105263158</c:v>
+                  <c:v>58.73684210526316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.473684210526315</c:v>
+                  <c:v>55.47368421052632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.210526315789473</c:v>
+                  <c:v>52.21052631578947</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>48.94736842105263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.684210526315788</c:v>
+                  <c:v>45.68421052631579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.421052631578945</c:v>
+                  <c:v>42.42105263157894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.157894736842103</c:v>
+                  <c:v>39.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>35.89473684210526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.631578947368418</c:v>
+                  <c:v>32.63157894736842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.368421052631575</c:v>
+                  <c:v>29.36842105263158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.105263157894733</c:v>
+                  <c:v>26.10526315789473</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22.84210526315789</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.578947368421048</c:v>
+                  <c:v>19.57894736842105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.315789473684205</c:v>
+                  <c:v>16.31578947368421</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.052631578947363</c:v>
+                  <c:v>13.05263157894736</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7894736842105203</c:v>
+                  <c:v>9.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5263157894736779</c:v>
+                  <c:v>6.526315789473677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2631578947368358</c:v>
+                  <c:v>3.263157894736836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3829,156 +3964,173 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116143616"/>
-        <c:axId val="116145152"/>
+        <c:smooth val="0"/>
+        <c:axId val="484965480"/>
+        <c:axId val="484968536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116143616"/>
+        <c:axId val="484965480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116145152"/>
+        <c:crossAx val="484968536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116145152"/>
+        <c:axId val="484968536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116143616"/>
+        <c:crossAx val="484965480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000999" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000999" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001" l="0.700000000000001" r="0.700000000000001" t="0.75000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3986,7 +4138,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4004,11 +4166,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4090,107 +4255,108 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.842105263157897</c:v>
+                  <c:v>56.8421052631579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.684210526315795</c:v>
+                  <c:v>53.6842105263158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.526315789473692</c:v>
+                  <c:v>50.5263157894737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.368421052631589</c:v>
+                  <c:v>47.36842105263159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.210526315789487</c:v>
+                  <c:v>44.21052631578949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.052631578947384</c:v>
+                  <c:v>41.05263157894738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.894736842105281</c:v>
+                  <c:v>37.89473684210528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.736842105263179</c:v>
+                  <c:v>34.73684210526318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.578947368421073</c:v>
+                  <c:v>31.57894736842107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.421052631578966</c:v>
+                  <c:v>28.42105263157897</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>25.26315789473686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.105263157894754</c:v>
+                  <c:v>22.10526315789475</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.947368421052648</c:v>
+                  <c:v>18.94736842105265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.789473684210542</c:v>
+                  <c:v>15.78947368421054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.631578947368435</c:v>
+                  <c:v>12.63157894736844</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4736842105263293</c:v>
+                  <c:v>9.47368421052633</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3157894736842239</c:v>
+                  <c:v>6.315789473684224</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1578947368421186</c:v>
+                  <c:v>3.157894736842118</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4273,156 +4439,173 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="116153728"/>
-        <c:axId val="116425856"/>
+        <c:smooth val="0"/>
+        <c:axId val="485085272"/>
+        <c:axId val="485088312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116153728"/>
+        <c:axId val="485085272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116425856"/>
+        <c:crossAx val="485088312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116425856"/>
+        <c:axId val="485088312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="116153728"/>
+        <c:crossAx val="485085272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001021" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001021" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001" l="0.700000000000001" r="0.700000000000001" t="0.75000000000001" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4938,19 +5121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="21.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="21.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1"/>
@@ -4975,17 +5158,17 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
@@ -4994,15 +5177,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
@@ -5011,15 +5194,15 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
@@ -5094,55 +5277,55 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="169"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="164"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="172"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="167"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="5"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="170"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
@@ -5164,341 +5347,341 @@
     </row>
     <row r="14" spans="2:16">
       <c r="B14" s="5"/>
-      <c r="C14" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176" t="s">
+      <c r="C14" s="171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176" t="s">
+      <c r="I14" s="171"/>
+      <c r="J14" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="5"/>
-      <c r="C15" s="160">
+      <c r="C15" s="173">
         <v>41723</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="159" t="s">
+      <c r="D15" s="174"/>
+      <c r="E15" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159" t="s">
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="159"/>
-      <c r="J15" s="165" t="s">
+      <c r="I15" s="172"/>
+      <c r="J15" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="5"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="5"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="5"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="5"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="5"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="5"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="5"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="5"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="5"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="5"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="5"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="5"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="5"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="5"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="5"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="5"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="5"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
@@ -5522,38 +5705,36 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:I26"/>
@@ -5570,36 +5751,38 @@
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:O19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:O32">
     <cfRule type="expression" dxfId="60" priority="1">
@@ -5607,16 +5790,21 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
@@ -5624,28 +5812,28 @@
       <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="80" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="77" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.28515625" style="21" hidden="1" customWidth="1"/>
-    <col min="82" max="83" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="84" max="104" width="11.42578125" style="21"/>
-    <col min="105" max="105" width="11.42578125" style="21" customWidth="1"/>
-    <col min="106" max="16384" width="11.42578125" style="21"/>
+    <col min="6" max="6" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="77" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="82" max="83" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="84" max="104" width="10.83203125" style="21"/>
+    <col min="105" max="105" width="11.5" style="21" customWidth="1"/>
+    <col min="106" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" s="28" customFormat="1" hidden="1">
@@ -6245,8 +6433,7 @@
       </c>
       <c r="G3" s="62" t="str">
         <f>Synthèse!G6</f>
-        <v>Total Charges
-RTU Planifiées (J.H)</v>
+        <v>Total Charges_x000D_RTU Planifiées (J.H)</v>
       </c>
       <c r="H3" s="24">
         <f>F3</f>
@@ -7143,15 +7330,14 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" ht="25.5">
+    <row r="6" spans="1:83">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
       </c>
       <c r="C6" s="47" t="str">
         <f>Backlog!I5</f>
-        <v>Fonction
-Majeure</v>
+        <v>Fonction_x000D_Majeure</v>
       </c>
       <c r="D6" s="47" t="str">
         <f>Backlog!J5</f>
@@ -11869,27 +12055,32 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="54"/>
-    <col min="2" max="2" width="93.28515625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="54"/>
+    <col min="1" max="1" width="10.83203125" style="54"/>
+    <col min="2" max="2" width="93.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12067,15 +12258,20 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NO17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="E3" sqref="E3"/>
@@ -12083,16 +12279,16 @@
       <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" style="99" customWidth="1"/>
     <col min="2" max="2" width="23" style="99" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="99" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="99" customWidth="1"/>
-    <col min="5" max="54" width="6.28515625" style="99" customWidth="1"/>
-    <col min="55" max="337" width="6.28515625" style="99" bestFit="1" customWidth="1"/>
-    <col min="338" max="369" width="6.28515625" style="99" customWidth="1"/>
-    <col min="370" max="16384" width="11.42578125" style="99"/>
+    <col min="3" max="3" width="12.83203125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="99" customWidth="1"/>
+    <col min="5" max="54" width="6.33203125" style="99" customWidth="1"/>
+    <col min="55" max="337" width="6.33203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="338" max="369" width="6.33203125" style="99" customWidth="1"/>
+    <col min="370" max="16384" width="10.83203125" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:379" s="100" customFormat="1">
@@ -14655,10 +14851,10 @@
       </c>
     </row>
     <row r="3" spans="1:379" s="101" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
+      <c r="A3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
       <c r="E3" s="211" t="s">
         <v>34</v>
       </c>
@@ -14676,23 +14872,23 @@
       <c r="Q3" s="211"/>
       <c r="R3" s="211"/>
       <c r="S3" s="211"/>
-      <c r="T3" s="212" t="s">
+      <c r="T3" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="212"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="212"/>
-      <c r="AG3" s="212"/>
-      <c r="AH3" s="212"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="215"/>
       <c r="AI3" s="211" t="s">
         <v>38</v>
       </c>
@@ -14710,23 +14906,23 @@
       <c r="AU3" s="211"/>
       <c r="AV3" s="211"/>
       <c r="AW3" s="211"/>
-      <c r="AX3" s="212" t="s">
+      <c r="AX3" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" s="212"/>
-      <c r="AZ3" s="212"/>
-      <c r="BA3" s="212"/>
-      <c r="BB3" s="212"/>
-      <c r="BC3" s="212"/>
-      <c r="BD3" s="212"/>
-      <c r="BE3" s="212"/>
-      <c r="BF3" s="212"/>
-      <c r="BG3" s="212"/>
-      <c r="BH3" s="212"/>
-      <c r="BI3" s="212"/>
-      <c r="BJ3" s="212"/>
-      <c r="BK3" s="212"/>
-      <c r="BL3" s="212"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="215"/>
+      <c r="BB3" s="215"/>
+      <c r="BC3" s="215"/>
+      <c r="BD3" s="215"/>
+      <c r="BE3" s="215"/>
+      <c r="BF3" s="215"/>
+      <c r="BG3" s="215"/>
+      <c r="BH3" s="215"/>
+      <c r="BI3" s="215"/>
+      <c r="BJ3" s="215"/>
+      <c r="BK3" s="215"/>
+      <c r="BL3" s="215"/>
       <c r="BM3" s="211" t="s">
         <v>40</v>
       </c>
@@ -14744,23 +14940,23 @@
       <c r="BY3" s="211"/>
       <c r="BZ3" s="211"/>
       <c r="CA3" s="211"/>
-      <c r="CB3" s="212" t="s">
+      <c r="CB3" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="CC3" s="212"/>
-      <c r="CD3" s="212"/>
-      <c r="CE3" s="212"/>
-      <c r="CF3" s="212"/>
-      <c r="CG3" s="212"/>
-      <c r="CH3" s="212"/>
-      <c r="CI3" s="212"/>
-      <c r="CJ3" s="212"/>
-      <c r="CK3" s="212"/>
-      <c r="CL3" s="212"/>
-      <c r="CM3" s="212"/>
-      <c r="CN3" s="212"/>
-      <c r="CO3" s="212"/>
-      <c r="CP3" s="212"/>
+      <c r="CC3" s="215"/>
+      <c r="CD3" s="215"/>
+      <c r="CE3" s="215"/>
+      <c r="CF3" s="215"/>
+      <c r="CG3" s="215"/>
+      <c r="CH3" s="215"/>
+      <c r="CI3" s="215"/>
+      <c r="CJ3" s="215"/>
+      <c r="CK3" s="215"/>
+      <c r="CL3" s="215"/>
+      <c r="CM3" s="215"/>
+      <c r="CN3" s="215"/>
+      <c r="CO3" s="215"/>
+      <c r="CP3" s="215"/>
       <c r="CQ3" s="211" t="s">
         <v>42</v>
       </c>
@@ -15086,10 +15282,10 @@
       <c r="NO3" s="211"/>
     </row>
     <row r="4" spans="1:379" s="101" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="215"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
       <c r="E4" s="211"/>
       <c r="F4" s="211"/>
       <c r="G4" s="211"/>
@@ -15105,21 +15301,21 @@
       <c r="Q4" s="211"/>
       <c r="R4" s="211"/>
       <c r="S4" s="211"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="212"/>
-      <c r="Y4" s="212"/>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="212"/>
-      <c r="AD4" s="212"/>
-      <c r="AE4" s="212"/>
-      <c r="AF4" s="212"/>
-      <c r="AG4" s="212"/>
-      <c r="AH4" s="212"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="215"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
       <c r="AI4" s="211"/>
       <c r="AJ4" s="211"/>
       <c r="AK4" s="211"/>
@@ -15135,21 +15331,21 @@
       <c r="AU4" s="211"/>
       <c r="AV4" s="211"/>
       <c r="AW4" s="211"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="212"/>
-      <c r="BA4" s="212"/>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="212"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="212"/>
-      <c r="BF4" s="212"/>
-      <c r="BG4" s="212"/>
-      <c r="BH4" s="212"/>
-      <c r="BI4" s="212"/>
-      <c r="BJ4" s="212"/>
-      <c r="BK4" s="212"/>
-      <c r="BL4" s="212"/>
+      <c r="AX4" s="215"/>
+      <c r="AY4" s="215"/>
+      <c r="AZ4" s="215"/>
+      <c r="BA4" s="215"/>
+      <c r="BB4" s="215"/>
+      <c r="BC4" s="215"/>
+      <c r="BD4" s="215"/>
+      <c r="BE4" s="215"/>
+      <c r="BF4" s="215"/>
+      <c r="BG4" s="215"/>
+      <c r="BH4" s="215"/>
+      <c r="BI4" s="215"/>
+      <c r="BJ4" s="215"/>
+      <c r="BK4" s="215"/>
+      <c r="BL4" s="215"/>
       <c r="BM4" s="211"/>
       <c r="BN4" s="211"/>
       <c r="BO4" s="211"/>
@@ -15165,21 +15361,21 @@
       <c r="BY4" s="211"/>
       <c r="BZ4" s="211"/>
       <c r="CA4" s="211"/>
-      <c r="CB4" s="212"/>
-      <c r="CC4" s="212"/>
-      <c r="CD4" s="212"/>
-      <c r="CE4" s="212"/>
-      <c r="CF4" s="212"/>
-      <c r="CG4" s="212"/>
-      <c r="CH4" s="212"/>
-      <c r="CI4" s="212"/>
-      <c r="CJ4" s="212"/>
-      <c r="CK4" s="212"/>
-      <c r="CL4" s="212"/>
-      <c r="CM4" s="212"/>
-      <c r="CN4" s="212"/>
-      <c r="CO4" s="212"/>
-      <c r="CP4" s="212"/>
+      <c r="CB4" s="215"/>
+      <c r="CC4" s="215"/>
+      <c r="CD4" s="215"/>
+      <c r="CE4" s="215"/>
+      <c r="CF4" s="215"/>
+      <c r="CG4" s="215"/>
+      <c r="CH4" s="215"/>
+      <c r="CI4" s="215"/>
+      <c r="CJ4" s="215"/>
+      <c r="CK4" s="215"/>
+      <c r="CL4" s="215"/>
+      <c r="CM4" s="215"/>
+      <c r="CN4" s="215"/>
+      <c r="CO4" s="215"/>
+      <c r="CP4" s="215"/>
       <c r="CQ4" s="211"/>
       <c r="CR4" s="211"/>
       <c r="CS4" s="211"/>
@@ -15467,16 +15663,16 @@
       <c r="NO4" s="211"/>
     </row>
     <row r="5" spans="1:379" s="102" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="68">
@@ -16939,11 +17135,11 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="6" spans="1:379" s="102" customFormat="1" ht="12.75">
-      <c r="A6" s="213"/>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+    <row r="6" spans="1:379" s="102" customFormat="1">
+      <c r="A6" s="212"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
       <c r="E6" s="69">
         <f>E5</f>
         <v>41792</v>
@@ -23456,26 +23652,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="IK3:IY4"/>
-    <mergeCell ref="IZ3:JN4"/>
-    <mergeCell ref="JO3:KC4"/>
-    <mergeCell ref="NA3:NO4"/>
-    <mergeCell ref="KD3:KR4"/>
-    <mergeCell ref="KS3:LG4"/>
-    <mergeCell ref="LH3:LV4"/>
-    <mergeCell ref="LW3:MK4"/>
-    <mergeCell ref="ML3:MZ4"/>
-    <mergeCell ref="HG3:HU4"/>
-    <mergeCell ref="HV3:IJ4"/>
-    <mergeCell ref="EY3:FM4"/>
-    <mergeCell ref="FN3:GB4"/>
-    <mergeCell ref="GC3:GQ4"/>
-    <mergeCell ref="GR3:HF4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:S4"/>
     <mergeCell ref="T3:AH4"/>
     <mergeCell ref="AI3:AW4"/>
@@ -23486,6 +23662,26 @@
     <mergeCell ref="CQ3:DE4"/>
     <mergeCell ref="DF3:DT4"/>
     <mergeCell ref="DU3:EI4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="HG3:HU4"/>
+    <mergeCell ref="HV3:IJ4"/>
+    <mergeCell ref="EY3:FM4"/>
+    <mergeCell ref="FN3:GB4"/>
+    <mergeCell ref="GC3:GQ4"/>
+    <mergeCell ref="GR3:HF4"/>
+    <mergeCell ref="IK3:IY4"/>
+    <mergeCell ref="IZ3:JN4"/>
+    <mergeCell ref="JO3:KC4"/>
+    <mergeCell ref="NA3:NO4"/>
+    <mergeCell ref="KD3:KR4"/>
+    <mergeCell ref="KS3:LG4"/>
+    <mergeCell ref="LH3:LV4"/>
+    <mergeCell ref="LW3:MK4"/>
+    <mergeCell ref="ML3:MZ4"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:NE6 AQ7:AQ8 IX7:IX8 JC7:JC8 AV7:AV8 BA7:BA8 BF7:BF8 BK7:BK8 BP7:BP8 BU7:BU8 BZ7:BZ8 FG7:FG8 GZ7:GZ8 HE7:HE8 HJ7:HJ8 HO7:HO8 HT7:HT8 HY7:HY8 ID7:ID8 II7:II8 IN7:IN8 IS7:IS8 JM7:JM8 JH7:JH8 JW7:JW8 JR7:JR8 CC7:CC8 N7:N8 FB7:FB8 FL7:FL8 FQ7:FQ8 FV7:FV8 GA7:GA8 GF7:GF8 GK7:GK8 GP7:GP8 GU7:GU8 CE7:CF8 CI7:CJ8 CL7:CL8 CO7:CO8 CR7:CR8 CT7:CU8 CX7:CY8 DA7:DA8 DD7:DE8 DG7:DI8 EG7:EK8 DK7:DL8 EM7:EN8 DN7:DN8 EP7:EP8 DQ7:DQ8 ER7:ES8 DS7:DT8 DV7:DX8 EV7:EX8 DZ7:EA8 EC7:EC8">
     <cfRule type="expression" dxfId="15" priority="143">
@@ -23552,28 +23748,32 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="111" customWidth="1"/>
-    <col min="3" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="27" width="26"/>
-    <col min="28" max="28" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="111" customWidth="1"/>
+    <col min="3" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="10" width="23.5" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" customWidth="1"/>
     <col min="29" max="33" width="26" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" customWidth="1"/>
+    <col min="34" max="35" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
@@ -23632,7 +23832,7 @@
       <c r="I4" s="186"/>
       <c r="J4" s="187"/>
     </row>
-    <row r="6" spans="1:33" s="20" customFormat="1" ht="42.75">
+    <row r="6" spans="1:33" s="20" customFormat="1" ht="28">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -23960,7 +24160,7 @@
         <v>'Charges Disponibles'!$BM$7:$CA$20</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75">
+    <row r="12" spans="1:33" ht="16">
       <c r="A12" s="178" t="s">
         <v>13</v>
       </c>
@@ -23986,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18.75">
+    <row r="14" spans="1:33" ht="18">
       <c r="B14" s="188" t="s">
         <v>49</v>
       </c>
@@ -24002,7 +24202,7 @@
       <c r="I14" s="191"/>
       <c r="J14" s="191"/>
     </row>
-    <row r="16" spans="1:33" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:33" ht="15" thickBot="1"/>
     <row r="17" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B17" s="192" t="s">
         <v>200</v>
@@ -24153,7 +24353,7 @@
       <c r="I28" s="152"/>
       <c r="J28" s="153"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="29" spans="2:10" ht="15" thickTop="1"/>
     <row r="32" spans="2:10">
       <c r="D32" s="139" t="s">
         <v>62</v>
@@ -24195,37 +24395,42 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="33.7109375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="77.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="77.1640625" style="37" customWidth="1"/>
     <col min="12" max="12" width="57" style="35" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="36" customWidth="1"/>
-    <col min="14" max="14" width="107.140625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="129.42578125" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="35"/>
+    <col min="13" max="13" width="9.6640625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="107.1640625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="129.5" style="35" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
@@ -24266,7 +24471,7 @@
       <c r="M3" s="203"/>
       <c r="N3" s="203"/>
     </row>
-    <row r="5" spans="1:15" s="53" customFormat="1" ht="30">
+    <row r="5" spans="1:15" s="53" customFormat="1" ht="26">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
@@ -24357,7 +24562,7 @@
         <v>1.1.1 : BackOffice \ Webservices Authentification \ Conception architecture auth/access token</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="7" spans="1:15" s="41" customFormat="1">
       <c r="A7" s="50" t="str">
         <f>IF($N7="","??",INDEX('Liste SFD'!$A:$A,MATCH($N7,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24401,7 +24606,7 @@
         <v>1.1.2 : BackOffice \ Webservices Authentification \ Gestion des utilisateurs autorisés</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="8" spans="1:15" s="41" customFormat="1">
       <c r="A8" s="50" t="str">
         <f>IF($N8="","??",INDEX('Liste SFD'!$A:$A,MATCH($N8,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24445,7 +24650,7 @@
         <v>1.1.3 : BackOffice \ Webservices Authentification \ Implémentation Oauth2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="9" spans="1:15" s="41" customFormat="1">
       <c r="A9" s="50" t="str">
         <f>IF($N9="","??",INDEX('Liste SFD'!$A:$A,MATCH($N9,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24489,7 +24694,7 @@
         <v>1.2.1 : BackOffice \ Webservices Read \ Fonction getListAllParcours</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="10" spans="1:15" s="41" customFormat="1">
       <c r="A10" s="50" t="str">
         <f>IF($N10="","??",INDEX('Liste SFD'!$A:$A,MATCH($N10,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24533,7 +24738,7 @@
         <v>1.2.2 : BackOffice \ Webservices Read \ Fonction getParcoursArchitectureById</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="11" spans="1:15" s="41" customFormat="1">
       <c r="A11" s="50" t="str">
         <f>IF($N11="","??",INDEX('Liste SFD'!$A:$A,MATCH($N11,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24577,7 +24782,7 @@
         <v>1.2.3 : BackOffice \ Webservices Read \ Fonction getParcoursById</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="12" spans="1:15" s="41" customFormat="1">
       <c r="A12" s="50" t="str">
         <f>IF($N12="","??",INDEX('Liste SFD'!$A:$A,MATCH($N12,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24665,7 +24870,7 @@
         <v>1.2.5 : BackOffice \ Webservices Read \ Fonction getSceneById</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="14" spans="1:15" s="41" customFormat="1">
       <c r="A14" s="50" t="str">
         <f>IF($N14="","??",INDEX('Liste SFD'!$A:$A,MATCH($N14,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24709,7 +24914,7 @@
         <v>1.2.6 : BackOffice \ Webservices Read \ Fonction getTransitionById</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="15" spans="1:15" s="41" customFormat="1">
       <c r="A15" s="50" t="str">
         <f>IF($N15="","??",INDEX('Liste SFD'!$A:$A,MATCH($N15,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24753,7 +24958,7 @@
         <v xml:space="preserve">1.2.8 : BackOffice \ Webservices Read \ Fonction getElementById/getMediaByID/getArtefactById </v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="16" spans="1:15" s="41" customFormat="1">
       <c r="A16" s="50" t="str">
         <f>IF($N16="","??",INDEX('Liste SFD'!$A:$A,MATCH($N16,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24797,7 +25002,7 @@
         <v>1.2.10 : BackOffice \ Webservices Read \ Fonction getPointOfInterestByTag</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="17" spans="1:15" s="41" customFormat="1">
       <c r="A17" s="50" t="str">
         <f>IF($N17="","??",INDEX('Liste SFD'!$A:$A,MATCH($N17,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24841,7 +25046,7 @@
         <v>1.2.11 : BackOffice \ Webservices Read \ Documentation WSDL</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="18" spans="1:15" s="41" customFormat="1">
       <c r="A18" s="50" t="str">
         <f>IF($N18="","??",INDEX('Liste SFD'!$A:$A,MATCH($N18,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24887,7 +25092,7 @@
         <v>1.3.1 : BackOffice \ Webservices Post \ Architecture Webservices POST</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="41" customFormat="1">
       <c r="A19" s="50" t="str">
         <f>IF($N19="","??",INDEX('Liste SFD'!$A:$A,MATCH($N19,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24931,7 +25136,7 @@
         <v>1.4.1 : BackOffice \ Points d'intérêt \ Conception architecture ID Tag-&gt;Point d'intérêt</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="41" customFormat="1">
       <c r="A20" s="50" t="str">
         <f>IF($N20="","??",INDEX('Liste SFD'!$A:$A,MATCH($N20,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -24975,7 +25180,7 @@
         <v>1.4.2 : BackOffice \ Points d'intérêt \ Administration relation ID Tag-&gt; Point d'intérêt</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="41" customFormat="1" ht="28.5">
+    <row r="21" spans="1:15" s="41" customFormat="1" ht="24">
       <c r="A21" s="50" t="str">
         <f>IF($N21="","??",INDEX('Liste SFD'!$A:$A,MATCH($N21,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25063,7 +25268,7 @@
         <v>1.5.2 : BackOffice \ IHM \ Ergonomie ajout de contenu - Affichage du graph parcours</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="23" spans="1:15" s="41" customFormat="1">
       <c r="A23" s="50" t="str">
         <f>IF($N23="","??",INDEX('Liste SFD'!$A:$A,MATCH($N23,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25107,7 +25312,7 @@
         <v>1.6.1 : BackOffice \ Versionning Elements \ Système de contexte des éléments</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="24" spans="1:15" s="41" customFormat="1">
       <c r="A24" s="50" t="str">
         <f>IF($N24="","??",INDEX('Liste SFD'!$A:$A,MATCH($N24,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25151,7 +25356,7 @@
         <v>1.6.2 : BackOffice \ Versionning Elements \ Système d'internationalisation des éléments</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="25" spans="1:15" s="41" customFormat="1">
       <c r="A25" s="50" t="str">
         <f>IF($N25="","??",INDEX('Liste SFD'!$A:$A,MATCH($N25,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25195,7 +25400,7 @@
         <v>1.6.3 : BackOffice \ Versionning Elements \ IHM Gestion context et internationalisation des éléments</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="26" spans="1:15" s="41" customFormat="1">
       <c r="A26" s="50" t="str">
         <f>IF($N26="","??",INDEX('Liste SFD'!$A:$A,MATCH($N26,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25239,7 +25444,7 @@
         <v>1.7.1 : BackOffice \ Datas Critiques \ Gestion de l'état 'critique' des datas</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="27" spans="1:15" s="41" customFormat="1">
       <c r="A27" s="50" t="str">
         <f>IF($N27="","??",INDEX('Liste SFD'!$A:$A,MATCH($N27,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25283,7 +25488,7 @@
         <v>1.7.2 : BackOffice \ Datas Critiques \ Système d'identification des doublons</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="28" spans="1:15" s="41" customFormat="1">
       <c r="A28" s="50" t="str">
         <f>IF($N28="","??",INDEX('Liste SFD'!$A:$A,MATCH($N28,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25371,7 +25576,7 @@
         <v>1.7.4 : BackOffice \ Datas Critiques \ IHM validation de chantier</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="30" spans="1:15" s="41" customFormat="1">
       <c r="A30" s="50" t="str">
         <f>IF($N30="","??",INDEX('Liste SFD'!$A:$A,MATCH($N30,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25415,7 +25620,7 @@
         <v>1.7.5 : BackOffice \ Datas Critiques \ Système de clonage d'un élément</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="31" spans="1:15" s="41" customFormat="1">
       <c r="A31" s="50" t="str">
         <f>IF($N31="","??",INDEX('Liste SFD'!$A:$A,MATCH($N31,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25459,7 +25664,7 @@
         <v>1.8.1 : BackOffice \ Import Export \ Export Précis des données</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="32" spans="1:15" s="41" customFormat="1">
       <c r="A32" s="50" t="str">
         <f>IF($N32="","??",INDEX('Liste SFD'!$A:$A,MATCH($N32,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25503,7 +25708,7 @@
         <v>1.8.2 : BackOffice \ Import Export \ Import des données</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="33" spans="1:15" s="41" customFormat="1">
       <c r="A33" s="50" t="str">
         <f>IF($N33="","??",INDEX('Liste SFD'!$A:$A,MATCH($N33,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25679,7 +25884,7 @@
         <v>1.4.5 : BackOffice \ Points d'intérêt \ Administration relation Coordonnées GPS-&gt; Point d'intérêt</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="37" spans="1:15" s="41" customFormat="1">
       <c r="A37" s="50" t="str">
         <f>IF($N37="","??",INDEX('Liste SFD'!$A:$A,MATCH($N37,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25723,7 +25928,7 @@
         <v>2.1.1 : API \ API Java \ Architecture de l'API Java</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="38" spans="1:15" s="41" customFormat="1">
       <c r="A38" s="50" t="str">
         <f>IF($N38="","??",INDEX('Liste SFD'!$A:$A,MATCH($N38,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25767,7 +25972,7 @@
         <v>2.2.1 : API \ API Java: Read \ Fonction getListAllParcours</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="39" spans="1:15" s="41" customFormat="1">
       <c r="A39" s="50" t="str">
         <f>IF($N39="","??",INDEX('Liste SFD'!$A:$A,MATCH($N39,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25811,7 +26016,7 @@
         <v>2.2.2 : API \ API Java: Read \ Fonction getParcoursArchitectureById</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="40" spans="1:15" s="41" customFormat="1">
       <c r="A40" s="50" t="str">
         <f>IF($N40="","??",INDEX('Liste SFD'!$A:$A,MATCH($N40,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25855,7 +26060,7 @@
         <v>2.2.3 : API \ API Java: Read \ Fonction getParcoursById</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="41" spans="1:15" s="41" customFormat="1">
       <c r="A41" s="50" t="str">
         <f>IF($N41="","??",INDEX('Liste SFD'!$A:$A,MATCH($N41,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25899,7 +26104,7 @@
         <v>2.2.4 : API \ API Java: Read \ Fonction getSousParcoursById</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="42" spans="1:15" s="41" customFormat="1">
       <c r="A42" s="50" t="str">
         <f>IF($N42="","??",INDEX('Liste SFD'!$A:$A,MATCH($N42,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25943,7 +26148,7 @@
         <v>2.2.5 : API \ API Java: Read \ Fonction getSceneById</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="136" customFormat="1" ht="15">
+    <row r="43" spans="1:15" s="136" customFormat="1">
       <c r="A43" s="50" t="str">
         <f>IF($N43="","??",INDEX('Liste SFD'!$A:$A,MATCH($N43,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -25987,7 +26192,7 @@
         <v>2.2.6 : API \ API Java: Read \ Fonction getTransitionById</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="136" customFormat="1" ht="15">
+    <row r="44" spans="1:15" s="136" customFormat="1">
       <c r="A44" s="50" t="str">
         <f>IF($N44="","??",INDEX('Liste SFD'!$A:$A,MATCH($N44,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26031,7 +26236,7 @@
         <v>2.2.8 : API \ API Java: Read \ Fonction getElementById</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="45" spans="1:15" s="41" customFormat="1">
       <c r="A45" s="50" t="str">
         <f>IF($N45="","??",INDEX('Liste SFD'!$A:$A,MATCH($N45,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26075,7 +26280,7 @@
         <v>2.2.10 : API \ API Java: Read \ Fonction getPointOfInterestByTag</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="46" spans="1:15" s="41" customFormat="1">
       <c r="A46" s="50" t="str">
         <f>IF($N46="","??",INDEX('Liste SFD'!$A:$A,MATCH($N46,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26119,7 +26324,7 @@
         <v>3.1.1 : Android \ Capteurs \ Lire un QRCode</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="47" spans="1:15" s="41" customFormat="1">
       <c r="A47" s="50" t="str">
         <f>IF($N47="","??",INDEX('Liste SFD'!$A:$A,MATCH($N47,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26163,7 +26368,7 @@
         <v>3.1.2 : Android \ Capteurs \ Lire un NFC</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="48" spans="1:15" s="41" customFormat="1">
       <c r="A48" s="50" t="str">
         <f>IF($N48="","??",INDEX('Liste SFD'!$A:$A,MATCH($N48,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26207,7 +26412,7 @@
         <v>3.1.3 : Android \ Capteurs \ Lire les coordonnées GPS</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="49" spans="1:15" s="41" customFormat="1">
       <c r="A49" s="50" t="str">
         <f>IF($N49="","??",INDEX('Liste SFD'!$A:$A,MATCH($N49,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26251,7 +26456,7 @@
         <v>3.1.4 : Android \ Capteurs \ Gestion de modes</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="50" spans="1:15" s="41" customFormat="1">
       <c r="A50" s="50" t="str">
         <f>IF($N50="","??",INDEX('Liste SFD'!$A:$A,MATCH($N50,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26295,7 +26500,7 @@
         <v>3.1.5 : Android \ Capteurs \ Mode intérieur</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="51" spans="1:15" s="41" customFormat="1">
       <c r="A51" s="50" t="str">
         <f>IF($N51="","??",INDEX('Liste SFD'!$A:$A,MATCH($N51,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26339,7 +26544,7 @@
         <v>3.1.6 : Android \ Capteurs \ Mode extérieur</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="52" spans="1:15" s="41" customFormat="1">
       <c r="A52" s="50" t="str">
         <f>IF($N52="","??",INDEX('Liste SFD'!$A:$A,MATCH($N52,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26383,7 +26588,7 @@
         <v>3.1.7 : Android \ Capteurs \ Lire un Ibeacon</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="53" spans="1:15" s="41" customFormat="1">
       <c r="A53" s="50" t="str">
         <f>IF($N53="","??",INDEX('Liste SFD'!$A:$A,MATCH($N53,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26427,7 +26632,7 @@
         <v>3.2.1 : Android \ Media \ Afficher une vidéo YouTube</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="54" spans="1:15" s="41" customFormat="1">
       <c r="A54" s="50" t="str">
         <f>IF($N54="","??",INDEX('Liste SFD'!$A:$A,MATCH($N54,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26471,7 +26676,7 @@
         <v>3.2.2 : Android \ Media \ Afficher un PDF</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="55" spans="1:15" s="41" customFormat="1">
       <c r="A55" s="50" t="str">
         <f>IF($N55="","??",INDEX('Liste SFD'!$A:$A,MATCH($N55,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26515,7 +26720,7 @@
         <v>3.2.3 : Android \ Media \ Jouer un MP3 ( streaming)</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="56" spans="1:15" s="41" customFormat="1">
       <c r="A56" s="50" t="str">
         <f>IF($N56="","??",INDEX('Liste SFD'!$A:$A,MATCH($N56,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26559,7 +26764,7 @@
         <v>3.2.4 : Android \ Media \ Jouer une vidéo (streaming)</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="57" spans="1:15" s="41" customFormat="1">
       <c r="A57" s="50" t="str">
         <f>IF($N57="","??",INDEX('Liste SFD'!$A:$A,MATCH($N57,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26603,7 +26808,7 @@
         <v>3.2.5 : Android \ Media \ Afficher une vidéo Dailymotion</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="58" spans="1:15" s="41" customFormat="1">
       <c r="A58" s="50" t="str">
         <f>IF($N58="","??",INDEX('Liste SFD'!$A:$A,MATCH($N58,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26647,7 +26852,7 @@
         <v>3.2.6 : Android \ Media \ Afficher une page Web</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="59" spans="1:15" s="41" customFormat="1">
       <c r="A59" s="50" t="str">
         <f>IF($N59="","??",INDEX('Liste SFD'!$A:$A,MATCH($N59,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26691,7 +26896,7 @@
         <v>3.2.7 : Android \ Media \ Afficher un média du BO</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="60" spans="1:15" s="41" customFormat="1">
       <c r="A60" s="50" t="str">
         <f>IF($N60="","??",INDEX('Liste SFD'!$A:$A,MATCH($N60,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26735,7 +26940,7 @@
         <v>3.3.1 : Android \ IHM \ Afficher une scène (simple) du BO</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="61" spans="1:15" s="41" customFormat="1">
       <c r="A61" s="50" t="str">
         <f>IF($N61="","??",INDEX('Liste SFD'!$A:$A,MATCH($N61,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26779,7 +26984,7 @@
         <v>3.3.2 : Android \ IHM \ Afficher une scène (avancée) du BO</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="62" spans="1:15" s="41" customFormat="1">
       <c r="A62" s="50" t="str">
         <f>IF($N62="","??",INDEX('Liste SFD'!$A:$A,MATCH($N62,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26823,7 +27028,7 @@
         <v>3.3.3 : Android \ IHM \ Afficher un parcours du BO</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="63" spans="1:15" s="41" customFormat="1">
       <c r="A63" s="50" t="str">
         <f>IF($N63="","??",INDEX('Liste SFD'!$A:$A,MATCH($N63,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26867,7 +27072,7 @@
         <v>3.3.4 : Android \ IHM \ Navigation Simple</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="64" spans="1:15" s="41" customFormat="1">
       <c r="A64" s="50" t="str">
         <f>IF($N64="","??",INDEX('Liste SFD'!$A:$A,MATCH($N64,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26911,7 +27116,7 @@
         <v>3.3.5 : Android \ IHM \ Navigation Avancée</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="65" spans="1:15" s="41" customFormat="1">
       <c r="A65" s="50" t="str">
         <f>IF($N65="","??",INDEX('Liste SFD'!$A:$A,MATCH($N65,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26955,7 +27160,7 @@
         <v>3.4.1 : Android \ Général \ Conception archi Evenements, Capteurs, Points d'intérêt</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="66" spans="1:15" s="41" customFormat="1">
       <c r="A66" s="50" t="str">
         <f>IF($N66="","??",INDEX('Liste SFD'!$A:$A,MATCH($N66,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -26999,7 +27204,7 @@
         <v>3.4.2 : Android \ Général \ Réactions aux événements</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="67" spans="1:15" s="41" customFormat="1">
       <c r="A67" s="50" t="str">
         <f>IF($N67="","??",INDEX('Liste SFD'!$A:$A,MATCH($N67,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27043,7 +27248,7 @@
         <v>3.4.3 : Android \ Général \ Connexion/Deconnexion via API</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="68" spans="1:15" s="41" customFormat="1">
       <c r="A68" s="50" t="str">
         <f>IF($N68="","??",INDEX('Liste SFD'!$A:$A,MATCH($N68,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27087,7 +27292,7 @@
         <v>3.5.1 : Android \ Admin \ Upload PDF</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="69" spans="1:15" s="41" customFormat="1">
       <c r="A69" s="50" t="str">
         <f>IF($N69="","??",INDEX('Liste SFD'!$A:$A,MATCH($N69,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27131,7 +27336,7 @@
         <v>3.5.2 : Android \ Admin \ Upload MP3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="70" spans="1:15" s="41" customFormat="1">
       <c r="A70" s="50" t="str">
         <f>IF($N70="","??",INDEX('Liste SFD'!$A:$A,MATCH($N70,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27175,7 +27380,7 @@
         <v>3.5.3 : Android \ Admin \ Upload Dailymotion</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="71" spans="1:15" s="41" customFormat="1">
       <c r="A71" s="50" t="str">
         <f>IF($N71="","??",INDEX('Liste SFD'!$A:$A,MATCH($N71,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27219,7 +27424,7 @@
         <v>3.5.4 : Android \ Admin \ Upload autres fichiers</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="72" spans="1:15" s="41" customFormat="1">
       <c r="A72" s="50" t="str">
         <f>IF($N72="","??",INDEX('Liste SFD'!$A:$A,MATCH($N72,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27263,7 +27468,7 @@
         <v>3.5.5 : Android \ Admin \ Upload Video Youtube</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="73" spans="1:15" s="41" customFormat="1">
       <c r="A73" s="50" t="str">
         <f>IF($N73="","??",INDEX('Liste SFD'!$A:$A,MATCH($N73,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27307,7 +27512,7 @@
         <v>3.5.6 : Android \ Admin \ CRUD Scene via API</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="74" spans="1:15" s="41" customFormat="1">
       <c r="A74" s="50" t="str">
         <f>IF($N74="","??",INDEX('Liste SFD'!$A:$A,MATCH($N74,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27351,7 +27556,7 @@
         <v>4.1.1 : Contrôle &amp; Tests \ Retours sur itération précédente \ Retours sur itération 1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="75" spans="1:15" s="41" customFormat="1">
       <c r="A75" s="50" t="str">
         <f>IF($N75="","??",INDEX('Liste SFD'!$A:$A,MATCH($N75,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27395,7 +27600,7 @@
         <v>4.1.2 : Contrôle &amp; Tests \ Retours sur itération précédente \ Retours sur itération 2</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="76" spans="1:15" s="41" customFormat="1">
       <c r="A76" s="50" t="str">
         <f>IF($N76="","??",INDEX('Liste SFD'!$A:$A,MATCH($N76,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27439,7 +27644,7 @@
         <v>4.1.3 : Contrôle &amp; Tests \ Retours sur itération précédente \ Retours sur itération 3</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="77" spans="1:15" s="41" customFormat="1">
       <c r="A77" s="50" t="str">
         <f>IF($N77="","??",INDEX('Liste SFD'!$A:$A,MATCH($N77,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27923,7 +28128,7 @@
         <v>4.3.4 : Contrôle &amp; Tests \ Livraison &amp; Packaging \ Livraison &amp; Packaging itération 4</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="88" spans="1:15" s="41" customFormat="1">
       <c r="A88" s="50" t="str">
         <f>IF($N88="","??",INDEX('Liste SFD'!$A:$A,MATCH($N88,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -27967,7 +28172,7 @@
         <v>4.3.5 : Contrôle &amp; Tests \ Livraison &amp; Packaging \ Livraison &amp; Packaging itération 5</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="89" spans="1:15" s="41" customFormat="1">
       <c r="A89" s="50" t="str">
         <f>IF($N89="","??",INDEX('Liste SFD'!$A:$A,MATCH($N89,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28009,7 +28214,7 @@
         <v>5.1.1 : Conception &amp; Spec \ Conception \ Conception pré-itération 1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="90" spans="1:15" s="41" customFormat="1">
       <c r="A90" s="50" t="str">
         <f>IF($N90="","??",INDEX('Liste SFD'!$A:$A,MATCH($N90,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28053,7 +28258,7 @@
         <v>5.1.2 : Conception &amp; Spec \ Conception \ Conception pré-itération 2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="91" spans="1:15" s="41" customFormat="1">
       <c r="A91" s="50" t="str">
         <f>IF($N91="","??",INDEX('Liste SFD'!$A:$A,MATCH($N91,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28097,7 +28302,7 @@
         <v>5.1.3 : Conception &amp; Spec \ Conception \ Conception pré-itération 3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="92" spans="1:15" s="41" customFormat="1">
       <c r="A92" s="50" t="str">
         <f>IF($N92="","??",INDEX('Liste SFD'!$A:$A,MATCH($N92,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28141,7 +28346,7 @@
         <v>5.1.4 : Conception &amp; Spec \ Conception \ Conception pré-itération 4</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="93" spans="1:15" s="41" customFormat="1">
       <c r="A93" s="50" t="str">
         <f>IF($N93="","??",INDEX('Liste SFD'!$A:$A,MATCH($N93,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28185,7 +28390,7 @@
         <v>5.1.5 : Conception &amp; Spec \ Conception \ Conception pré-itération 5</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="94" spans="1:15" s="41" customFormat="1">
       <c r="A94" s="50" t="str">
         <f>IF($N94="","??",INDEX('Liste SFD'!$A:$A,MATCH($N94,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28227,7 +28432,7 @@
         <v>5.2.1 : Conception &amp; Spec \ Spécification \ Spécification pré-itération 1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="95" spans="1:15" s="41" customFormat="1">
       <c r="A95" s="50" t="str">
         <f>IF($N95="","??",INDEX('Liste SFD'!$A:$A,MATCH($N95,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28271,7 +28476,7 @@
         <v>5.2.2 : Conception &amp; Spec \ Spécification \ Spécification pré-itération 2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="96" spans="1:15" s="41" customFormat="1">
       <c r="A96" s="50" t="str">
         <f>IF($N96="","??",INDEX('Liste SFD'!$A:$A,MATCH($N96,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28315,7 +28520,7 @@
         <v>5.2.3 : Conception &amp; Spec \ Spécification \ Spécification pré-itération 3</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="97" spans="1:15" s="41" customFormat="1">
       <c r="A97" s="50" t="str">
         <f>IF($N97="","??",INDEX('Liste SFD'!$A:$A,MATCH($N97,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28359,7 +28564,7 @@
         <v>5.2.4 : Conception &amp; Spec \ Spécification \ Spécification pré-itération 4</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="98" spans="1:15" s="41" customFormat="1">
       <c r="A98" s="50" t="str">
         <f>IF($N98="","??",INDEX('Liste SFD'!$A:$A,MATCH($N98,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28403,7 +28608,7 @@
         <v>5.2.5 : Conception &amp; Spec \ Spécification \ Spécification pré-itération 5</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="99" spans="1:15" s="41" customFormat="1">
       <c r="A99" s="50" t="str">
         <f>IF($N99="","??",INDEX('Liste SFD'!$A:$A,MATCH($N99,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28447,7 +28652,7 @@
         <v>6.1.1 : Gestion de projet \ Réunions \ Réunions itération 1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="100" spans="1:15" s="41" customFormat="1">
       <c r="A100" s="50" t="str">
         <f>IF($N100="","??",INDEX('Liste SFD'!$A:$A,MATCH($N100,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28491,7 +28696,7 @@
         <v>6.1.2 : Gestion de projet \ Réunions \ Réunions itération 2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="101" spans="1:15" s="41" customFormat="1">
       <c r="A101" s="50" t="str">
         <f>IF($N101="","??",INDEX('Liste SFD'!$A:$A,MATCH($N101,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28535,7 +28740,7 @@
         <v>6.1.3 : Gestion de projet \ Réunions \ Réunions itération 3</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="102" spans="1:15" s="41" customFormat="1">
       <c r="A102" s="50" t="str">
         <f>IF($N102="","??",INDEX('Liste SFD'!$A:$A,MATCH($N102,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28579,7 +28784,7 @@
         <v>6.1.4 : Gestion de projet \ Réunions \ Réunions itération 4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="103" spans="1:15" s="41" customFormat="1">
       <c r="A103" s="50" t="str">
         <f>IF($N103="","??",INDEX('Liste SFD'!$A:$A,MATCH($N103,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28623,7 +28828,7 @@
         <v>6.1.5 : Gestion de projet \ Réunions \ Réunions itération 5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="104" spans="1:15" s="41" customFormat="1">
       <c r="A104" s="50" t="str">
         <f>IF($N104="","??",INDEX('Liste SFD'!$A:$A,MATCH($N104,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28667,7 +28872,7 @@
         <v>6.2.1 : Gestion de projet \ Backlog \ Mise à jour Backlog itération 1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="105" spans="1:15" s="41" customFormat="1">
       <c r="A105" s="50" t="str">
         <f>IF($N105="","??",INDEX('Liste SFD'!$A:$A,MATCH($N105,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28711,7 +28916,7 @@
         <v>6.2.2 : Gestion de projet \ Backlog \ Mise à jour Backlog itération 2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="106" spans="1:15" s="41" customFormat="1">
       <c r="A106" s="50" t="str">
         <f>IF($N106="","??",INDEX('Liste SFD'!$A:$A,MATCH($N106,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28755,7 +28960,7 @@
         <v>6.2.3 : Gestion de projet \ Backlog \ Mise à jour Backlog itération 3</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="107" spans="1:15" s="41" customFormat="1">
       <c r="A107" s="50" t="str">
         <f>IF($N107="","??",INDEX('Liste SFD'!$A:$A,MATCH($N107,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28799,7 +29004,7 @@
         <v>6.2.4 : Gestion de projet \ Backlog \ Mise à jour Backlog itération 4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="108" spans="1:15" s="41" customFormat="1">
       <c r="A108" s="50" t="str">
         <f>IF($N108="","??",INDEX('Liste SFD'!$A:$A,MATCH($N108,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28843,7 +29048,7 @@
         <v>6.2.5 : Gestion de projet \ Backlog \ Mise à jour Backlog itération 5</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="109" spans="1:15" s="41" customFormat="1">
       <c r="A109" s="50" t="str">
         <f>IF($N109="","??",INDEX('Liste SFD'!$A:$A,MATCH($N109,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28887,7 +29092,7 @@
         <v>7.1.1 : Documentation \ Documentation \ Documentation itération 1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="110" spans="1:15" s="41" customFormat="1">
       <c r="A110" s="50" t="str">
         <f>IF($N110="","??",INDEX('Liste SFD'!$A:$A,MATCH($N110,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -28931,7 +29136,7 @@
         <v>7.1.2 : Documentation \ Documentation \ Documentation itération 2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="41" customFormat="1" ht="15">
+    <row r="111" spans="1:15" s="41" customFormat="1">
       <c r="A111" s="50" t="str">
         <f>IF($N111="","??",INDEX('Liste SFD'!$A:$A,MATCH($N111,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -29187,7 +29392,7 @@
         <v xml:space="preserve"> : BackOffice \ Webservices Read \ GetHistoriqueContributionsByIdUser</v>
       </c>
     </row>
-    <row r="118" spans="1:15" s="41" customFormat="1" ht="25.5">
+    <row r="118" spans="1:15" s="41" customFormat="1">
       <c r="A118" s="50" t="str">
         <f>IF($N118="","??",INDEX('Liste SFD'!$A:$A,MATCH($N118,'Liste SFD'!$B:$B,0),1))</f>
         <v>??</v>
@@ -29836,9 +30041,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E5:N126">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="E5:N126"/>
   <mergeCells count="1">
     <mergeCell ref="E1:N3"/>
   </mergeCells>
@@ -29874,25 +30077,30 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="116" customWidth="1"/>
-    <col min="4" max="4" width="93.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="116" customWidth="1"/>
+    <col min="4" max="4" width="93.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -30019,21 +30227,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="13"/>
-    <col min="3" max="16384" width="17.5703125" style="1"/>
+    <col min="1" max="2" width="17.5" style="13"/>
+    <col min="3" max="16384" width="17.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -30235,40 +30448,45 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="80" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="21" customWidth="1"/>
-    <col min="14" max="21" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="77" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.28515625" style="21" hidden="1" customWidth="1"/>
-    <col min="82" max="83" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="84" max="104" width="11.42578125" style="21"/>
-    <col min="105" max="105" width="11.42578125" style="21" customWidth="1"/>
-    <col min="106" max="16384" width="11.42578125" style="21"/>
+    <col min="6" max="6" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="21" customWidth="1"/>
+    <col min="14" max="21" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="77" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="82" max="83" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="84" max="104" width="10.83203125" style="21"/>
+    <col min="105" max="105" width="11.5" style="21" customWidth="1"/>
+    <col min="106" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" hidden="1">
@@ -30869,8 +31087,7 @@
       </c>
       <c r="G3" s="62" t="str">
         <f>Synthèse!G6</f>
-        <v>Total Charges
-RTU Planifiées (J.H)</v>
+        <v>Total Charges_x000D_RTU Planifiées (J.H)</v>
       </c>
       <c r="H3" s="24">
         <f>F3</f>
@@ -31767,15 +31984,14 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" ht="25.5">
+    <row r="6" spans="1:83">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
       </c>
       <c r="C6" s="47" t="str">
         <f>Backlog!I5</f>
-        <v>Fonction
-Majeure</v>
+        <v>Fonction_x000D_Majeure</v>
       </c>
       <c r="D6" s="47" t="str">
         <f>Backlog!J5</f>
@@ -36538,16 +36754,21 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
@@ -36555,28 +36776,28 @@
       <selection pane="bottomRight" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="80" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="77" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.28515625" style="21" hidden="1" customWidth="1"/>
-    <col min="82" max="83" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="84" max="104" width="11.42578125" style="21"/>
-    <col min="105" max="105" width="11.42578125" style="21" customWidth="1"/>
-    <col min="106" max="16384" width="11.42578125" style="21"/>
+    <col min="6" max="6" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="77" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="82" max="83" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="84" max="104" width="10.83203125" style="21"/>
+    <col min="105" max="105" width="11.5" style="21" customWidth="1"/>
+    <col min="106" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" s="28" customFormat="1" hidden="1">
@@ -37176,8 +37397,7 @@
       </c>
       <c r="G3" s="62" t="str">
         <f>Synthèse!G6</f>
-        <v>Total Charges
-RTU Planifiées (J.H)</v>
+        <v>Total Charges_x000D_RTU Planifiées (J.H)</v>
       </c>
       <c r="H3" s="24">
         <f>F3</f>
@@ -38074,15 +38294,14 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" ht="25.5">
+    <row r="6" spans="1:83">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
       </c>
       <c r="C6" s="47" t="str">
         <f>Backlog!I5</f>
-        <v>Fonction
-Majeure</v>
+        <v>Fonction_x000D_Majeure</v>
       </c>
       <c r="D6" s="47" t="str">
         <f>Backlog!J5</f>
@@ -38638,7 +38857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:83" ht="25.5">
+    <row r="9" spans="1:83" ht="26">
       <c r="A9" s="90">
         <f t="shared" ca="1" si="17"/>
         <v>21</v>
@@ -42800,16 +43019,21 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
@@ -42817,28 +43041,28 @@
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="80" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="77" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.28515625" style="21" hidden="1" customWidth="1"/>
-    <col min="82" max="83" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="84" max="104" width="11.42578125" style="21"/>
-    <col min="105" max="105" width="11.42578125" style="21" customWidth="1"/>
-    <col min="106" max="16384" width="11.42578125" style="21"/>
+    <col min="6" max="6" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="77" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="82" max="83" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="84" max="104" width="10.83203125" style="21"/>
+    <col min="105" max="105" width="11.5" style="21" customWidth="1"/>
+    <col min="106" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" s="28" customFormat="1" hidden="1">
@@ -43438,8 +43662,7 @@
       </c>
       <c r="G3" s="62" t="str">
         <f>Synthèse!G6</f>
-        <v>Total Charges
-RTU Planifiées (J.H)</v>
+        <v>Total Charges_x000D_RTU Planifiées (J.H)</v>
       </c>
       <c r="H3" s="24">
         <f>F3</f>
@@ -44336,15 +44559,14 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" ht="25.5">
+    <row r="6" spans="1:83">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
       </c>
       <c r="C6" s="47" t="str">
         <f>Backlog!I5</f>
-        <v>Fonction
-Majeure</v>
+        <v>Fonction_x000D_Majeure</v>
       </c>
       <c r="D6" s="47" t="str">
         <f>Backlog!J5</f>
@@ -49062,16 +49284,21 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
@@ -49079,28 +49306,28 @@
       <selection pane="bottomRight" activeCell="H5" sqref="H5:Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="80" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="77" width="6.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="6.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="30.28515625" style="21" hidden="1" customWidth="1"/>
-    <col min="82" max="83" width="10.5703125" style="21" hidden="1" customWidth="1"/>
-    <col min="84" max="104" width="11.42578125" style="21"/>
-    <col min="105" max="105" width="11.42578125" style="21" customWidth="1"/>
-    <col min="106" max="16384" width="11.42578125" style="21"/>
+    <col min="6" max="6" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="77" width="6.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="6.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="30.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="82" max="83" width="10.5" style="21" hidden="1" customWidth="1"/>
+    <col min="84" max="104" width="10.83203125" style="21"/>
+    <col min="105" max="105" width="11.5" style="21" customWidth="1"/>
+    <col min="106" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" s="28" customFormat="1" hidden="1">
@@ -49700,8 +49927,7 @@
       </c>
       <c r="G3" s="62" t="str">
         <f>Synthèse!G6</f>
-        <v>Total Charges
-RTU Planifiées (J.H)</v>
+        <v>Total Charges_x000D_RTU Planifiées (J.H)</v>
       </c>
       <c r="H3" s="24">
         <f>F3</f>
@@ -50598,15 +50824,14 @@
       </c>
       <c r="BZ5" s="82"/>
     </row>
-    <row r="6" spans="1:83" ht="25.5">
+    <row r="6" spans="1:83">
       <c r="B6" s="45" t="str">
         <f>Backlog!E5</f>
         <v>Identifiant</v>
       </c>
       <c r="C6" s="47" t="str">
         <f>Backlog!I5</f>
-        <v>Fonction
-Majeure</v>
+        <v>Fonction_x000D_Majeure</v>
       </c>
       <c r="D6" s="47" t="str">
         <f>Backlog!J5</f>
@@ -51646,7 +51871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:83" ht="25.5">
+    <row r="13" spans="1:83">
       <c r="A13" s="90">
         <f t="shared" ca="1" si="17"/>
         <v>76</v>
@@ -55324,7 +55549,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>